--- a/problem_difficulty.xlsx
+++ b/problem_difficulty.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="1057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="1061">
   <si>
     <t>Problem</t>
   </si>
@@ -3194,6 +3194,18 @@
   </si>
   <si>
     <t>Lucky solved</t>
+  </si>
+  <si>
+    <t>14th November 2015</t>
+  </si>
+  <si>
+    <t>8th November 2015</t>
+  </si>
+  <si>
+    <t>Minimum values of the Carmichael function</t>
+  </si>
+  <si>
+    <t>Weak Queens</t>
   </si>
 </sst>
 </file>
@@ -3257,8 +3269,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3335,7 +3351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="69">
+  <cellStyles count="73">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3370,6 +3386,8 @@
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3404,6 +3422,8 @@
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3737,7 +3757,7 @@
   <dimension ref="A1:N602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G170" sqref="G170"/>
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3751,7 +3771,7 @@
     <row r="1" spans="1:14">
       <c r="F1">
         <f>COUNTIF(F3:F602,"Solved")</f>
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K1">
         <f>COUNTIF(K3:K602,"Yes")</f>
@@ -9838,16 +9858,16 @@
     </row>
     <row r="163" spans="1:14">
       <c r="A163">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="B163" t="s">
-        <v>644</v>
+        <v>683</v>
       </c>
       <c r="C163" t="s">
-        <v>645</v>
+        <v>684</v>
       </c>
       <c r="D163">
-        <v>1410</v>
+        <v>1495</v>
       </c>
       <c r="E163" s="1">
         <v>0.25</v>
@@ -9907,16 +9927,16 @@
     </row>
     <row r="165" spans="1:14">
       <c r="A165">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B165" t="s">
-        <v>683</v>
+        <v>697</v>
       </c>
       <c r="C165" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
       <c r="D165">
-        <v>1495</v>
+        <v>950</v>
       </c>
       <c r="E165" s="1">
         <v>0.25</v>
@@ -10048,20 +10068,23 @@
     </row>
     <row r="169" spans="1:14">
       <c r="A169">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B169" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C169" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D169">
-        <v>950</v>
+        <v>869</v>
       </c>
       <c r="E169" s="1">
         <v>0.25</v>
       </c>
+      <c r="G169" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K169" t="str">
         <f>IF(NOT(OR(F169="", G169="")),"Yes","")</f>
         <v/>
@@ -10081,16 +10104,16 @@
     </row>
     <row r="170" spans="1:14">
       <c r="A170">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="B170" t="s">
-        <v>699</v>
+        <v>783</v>
       </c>
       <c r="C170" t="s">
-        <v>700</v>
+        <v>784</v>
       </c>
       <c r="D170">
-        <v>869</v>
+        <v>1410</v>
       </c>
       <c r="E170" s="1">
         <v>0.25</v>
@@ -10156,23 +10179,20 @@
     </row>
     <row r="172" spans="1:14">
       <c r="A172">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="B172" t="s">
-        <v>783</v>
+        <v>831</v>
       </c>
       <c r="C172" t="s">
-        <v>784</v>
+        <v>832</v>
       </c>
       <c r="D172">
-        <v>1410</v>
+        <v>790</v>
       </c>
       <c r="E172" s="1">
         <v>0.25</v>
       </c>
-      <c r="G172" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K172" t="str">
         <f>IF(NOT(OR(F172="", G172="")),"Yes","")</f>
         <v/>
@@ -10192,20 +10212,23 @@
     </row>
     <row r="173" spans="1:14">
       <c r="A173">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="B173" t="s">
-        <v>831</v>
+        <v>938</v>
       </c>
       <c r="C173" t="s">
-        <v>832</v>
+        <v>939</v>
       </c>
       <c r="D173">
-        <v>790</v>
+        <v>622</v>
       </c>
       <c r="E173" s="1">
         <v>0.25</v>
       </c>
+      <c r="G173" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K173" t="str">
         <f>IF(NOT(OR(F173="", G173="")),"Yes","")</f>
         <v/>
@@ -10225,22 +10248,19 @@
     </row>
     <row r="174" spans="1:14">
       <c r="A174">
-        <v>479</v>
+        <v>512</v>
       </c>
       <c r="B174" t="s">
-        <v>938</v>
+        <v>1003</v>
       </c>
       <c r="C174" t="s">
-        <v>939</v>
+        <v>1004</v>
       </c>
       <c r="D174">
-        <v>622</v>
+        <v>656</v>
       </c>
       <c r="E174" s="1">
         <v>0.25</v>
-      </c>
-      <c r="G174" s="4" t="s">
-        <v>1047</v>
       </c>
       <c r="K174" t="str">
         <f>IF(NOT(OR(F174="", G174="")),"Yes","")</f>
@@ -10336,16 +10356,16 @@
     </row>
     <row r="177" spans="1:14">
       <c r="A177">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="B177" t="s">
-        <v>1003</v>
+        <v>1041</v>
       </c>
       <c r="C177" t="s">
-        <v>1004</v>
+        <v>1042</v>
       </c>
       <c r="D177">
-        <v>656</v>
+        <v>345</v>
       </c>
       <c r="E177" s="1">
         <v>0.25</v>
@@ -10369,19 +10389,19 @@
     </row>
     <row r="178" spans="1:14">
       <c r="A178">
-        <v>531</v>
+        <v>288</v>
       </c>
       <c r="B178" t="s">
-        <v>1041</v>
+        <v>563</v>
       </c>
       <c r="C178" t="s">
-        <v>1042</v>
+        <v>564</v>
       </c>
       <c r="D178">
-        <v>345</v>
+        <v>969</v>
       </c>
       <c r="E178" s="1">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="K178" t="str">
         <f>IF(NOT(OR(F178="", G178="")),"Yes","")</f>
@@ -10402,20 +10422,23 @@
     </row>
     <row r="179" spans="1:14">
       <c r="A179">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="B179" t="s">
-        <v>563</v>
+        <v>613</v>
       </c>
       <c r="C179" t="s">
-        <v>564</v>
+        <v>614</v>
       </c>
       <c r="D179">
-        <v>969</v>
+        <v>917</v>
       </c>
       <c r="E179" s="1">
         <v>0.3</v>
       </c>
+      <c r="G179" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K179" t="str">
         <f>IF(NOT(OR(F179="", G179="")),"Yes","")</f>
         <v/>
@@ -10435,22 +10458,22 @@
     </row>
     <row r="180" spans="1:14">
       <c r="A180">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B180" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="C180" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="D180">
-        <v>917</v>
+        <v>1021</v>
       </c>
       <c r="E180" s="1">
         <v>0.3</v>
       </c>
-      <c r="G180" s="4" t="s">
-        <v>1047</v>
+      <c r="J180" s="4" t="s">
+        <v>1050</v>
       </c>
       <c r="K180" t="str">
         <f>IF(NOT(OR(F180="", G180="")),"Yes","")</f>
@@ -10510,23 +10533,20 @@
     </row>
     <row r="182" spans="1:14">
       <c r="A182">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="B182" t="s">
-        <v>628</v>
+        <v>665</v>
       </c>
       <c r="C182" t="s">
-        <v>629</v>
+        <v>666</v>
       </c>
       <c r="D182">
-        <v>1021</v>
+        <v>598</v>
       </c>
       <c r="E182" s="1">
         <v>0.3</v>
       </c>
-      <c r="J182" s="4" t="s">
-        <v>1050</v>
-      </c>
       <c r="K182" t="str">
         <f>IF(NOT(OR(F182="", G182="")),"Yes","")</f>
         <v/>
@@ -10546,16 +10566,16 @@
     </row>
     <row r="183" spans="1:14">
       <c r="A183">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="B183" t="s">
-        <v>665</v>
+        <v>723</v>
       </c>
       <c r="C183" t="s">
-        <v>666</v>
+        <v>724</v>
       </c>
       <c r="D183">
-        <v>598</v>
+        <v>915</v>
       </c>
       <c r="E183" s="1">
         <v>0.3</v>
@@ -10651,20 +10671,23 @@
     </row>
     <row r="186" spans="1:14">
       <c r="A186">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="B186" t="s">
-        <v>723</v>
+        <v>759</v>
       </c>
       <c r="C186" t="s">
-        <v>724</v>
+        <v>760</v>
       </c>
       <c r="D186">
-        <v>915</v>
+        <v>878</v>
       </c>
       <c r="E186" s="1">
         <v>0.3</v>
       </c>
+      <c r="G186" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K186" t="str">
         <f>IF(NOT(OR(F186="", G186="")),"Yes","")</f>
         <v/>
@@ -10684,23 +10707,20 @@
     </row>
     <row r="187" spans="1:14">
       <c r="A187">
-        <v>389</v>
+        <v>435</v>
       </c>
       <c r="B187" t="s">
-        <v>759</v>
+        <v>851</v>
       </c>
       <c r="C187" t="s">
-        <v>760</v>
+        <v>852</v>
       </c>
       <c r="D187">
-        <v>878</v>
+        <v>528</v>
       </c>
       <c r="E187" s="1">
         <v>0.3</v>
       </c>
-      <c r="G187" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K187" t="str">
         <f>IF(NOT(OR(F187="", G187="")),"Yes","")</f>
         <v/>
@@ -10720,19 +10740,22 @@
     </row>
     <row r="188" spans="1:14">
       <c r="A188">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="B188" t="s">
-        <v>851</v>
+        <v>867</v>
       </c>
       <c r="C188" t="s">
-        <v>852</v>
+        <v>868</v>
       </c>
       <c r="D188">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="E188" s="1">
         <v>0.3</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>1047</v>
       </c>
       <c r="K188" t="str">
         <f>IF(NOT(OR(F188="", G188="")),"Yes","")</f>
@@ -10825,23 +10848,20 @@
     </row>
     <row r="191" spans="1:14">
       <c r="A191">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="B191" t="s">
-        <v>867</v>
+        <v>881</v>
       </c>
       <c r="C191" t="s">
-        <v>868</v>
+        <v>882</v>
       </c>
       <c r="D191">
-        <v>551</v>
+        <v>699</v>
       </c>
       <c r="E191" s="1">
         <v>0.3</v>
       </c>
-      <c r="G191" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K191" t="str">
         <f>IF(NOT(OR(F191="", G191="")),"Yes","")</f>
         <v/>
@@ -10861,16 +10881,16 @@
     </row>
     <row r="192" spans="1:14">
       <c r="A192">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="B192" t="s">
-        <v>881</v>
+        <v>895</v>
       </c>
       <c r="C192" t="s">
-        <v>882</v>
+        <v>896</v>
       </c>
       <c r="D192">
-        <v>699</v>
+        <v>432</v>
       </c>
       <c r="E192" s="1">
         <v>0.3</v>
@@ -10933,19 +10953,22 @@
     </row>
     <row r="194" spans="1:14">
       <c r="A194">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B194" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="C194" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="D194">
-        <v>432</v>
+        <v>625</v>
       </c>
       <c r="E194" s="1">
         <v>0.3</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>1047</v>
       </c>
       <c r="K194" t="str">
         <f>IF(NOT(OR(F194="", G194="")),"Yes","")</f>
@@ -11008,16 +11031,16 @@
     </row>
     <row r="196" spans="1:14">
       <c r="A196">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B196" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="C196" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="D196">
-        <v>625</v>
+        <v>539</v>
       </c>
       <c r="E196" s="1">
         <v>0.3</v>
@@ -11044,23 +11067,20 @@
     </row>
     <row r="197" spans="1:14">
       <c r="A197">
-        <v>463</v>
+        <v>485</v>
       </c>
       <c r="B197" t="s">
-        <v>905</v>
+        <v>950</v>
       </c>
       <c r="C197" t="s">
-        <v>906</v>
+        <v>951</v>
       </c>
       <c r="D197">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="E197" s="1">
         <v>0.3</v>
       </c>
-      <c r="G197" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K197" t="str">
         <f>IF(NOT(OR(F197="", G197="")),"Yes","")</f>
         <v/>
@@ -11080,16 +11100,16 @@
     </row>
     <row r="198" spans="1:14">
       <c r="A198">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="B198" t="s">
-        <v>950</v>
+        <v>991</v>
       </c>
       <c r="C198" t="s">
-        <v>951</v>
+        <v>992</v>
       </c>
       <c r="D198">
-        <v>545</v>
+        <v>413</v>
       </c>
       <c r="E198" s="1">
         <v>0.3</v>
@@ -11152,16 +11172,16 @@
     </row>
     <row r="200" spans="1:14">
       <c r="A200">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B200" t="s">
-        <v>991</v>
+        <v>999</v>
       </c>
       <c r="C200" t="s">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="D200">
-        <v>413</v>
+        <v>512</v>
       </c>
       <c r="E200" s="1">
         <v>0.3</v>
@@ -11185,19 +11205,22 @@
     </row>
     <row r="201" spans="1:14">
       <c r="A201">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="B201" t="s">
-        <v>999</v>
+        <v>1025</v>
       </c>
       <c r="C201" t="s">
-        <v>1000</v>
+        <v>1026</v>
       </c>
       <c r="D201">
-        <v>512</v>
+        <v>372</v>
       </c>
       <c r="E201" s="1">
         <v>0.3</v>
+      </c>
+      <c r="G201" t="s">
+        <v>1047</v>
       </c>
       <c r="K201" t="str">
         <f>IF(NOT(OR(F201="", G201="")),"Yes","")</f>
@@ -11254,23 +11277,20 @@
     </row>
     <row r="203" spans="1:14">
       <c r="A203">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B203" t="s">
-        <v>1025</v>
+        <v>1032</v>
       </c>
       <c r="C203" t="s">
-        <v>1026</v>
+        <v>1033</v>
       </c>
       <c r="D203">
-        <v>372</v>
+        <v>311</v>
       </c>
       <c r="E203" s="1">
         <v>0.3</v>
       </c>
-      <c r="G203" t="s">
-        <v>1047</v>
-      </c>
       <c r="K203" t="str">
         <f>IF(NOT(OR(F203="", G203="")),"Yes","")</f>
         <v/>
@@ -11290,19 +11310,22 @@
     </row>
     <row r="204" spans="1:14">
       <c r="A204">
-        <v>527</v>
+        <v>297</v>
       </c>
       <c r="B204" t="s">
-        <v>1032</v>
+        <v>581</v>
       </c>
       <c r="C204" t="s">
-        <v>1033</v>
+        <v>582</v>
       </c>
       <c r="D204">
-        <v>311</v>
+        <v>1897</v>
       </c>
       <c r="E204" s="1">
-        <v>0.3</v>
+        <v>0.35</v>
+      </c>
+      <c r="J204" s="4" t="s">
+        <v>1050</v>
       </c>
       <c r="K204" t="str">
         <f>IF(NOT(OR(F204="", G204="")),"Yes","")</f>
@@ -11506,22 +11529,22 @@
     </row>
     <row r="210" spans="1:14">
       <c r="A210">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="B210" t="s">
-        <v>581</v>
+        <v>621</v>
       </c>
       <c r="C210" t="s">
-        <v>582</v>
+        <v>622</v>
       </c>
       <c r="D210">
-        <v>1897</v>
+        <v>1592</v>
       </c>
       <c r="E210" s="1">
         <v>0.35</v>
       </c>
-      <c r="J210" s="4" t="s">
-        <v>1050</v>
+      <c r="G210" s="4" t="s">
+        <v>1047</v>
       </c>
       <c r="K210" t="str">
         <f>IF(NOT(OR(F210="", G210="")),"Yes","")</f>
@@ -11542,23 +11565,20 @@
     </row>
     <row r="211" spans="1:14">
       <c r="A211">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="B211" t="s">
-        <v>621</v>
+        <v>652</v>
       </c>
       <c r="C211" t="s">
-        <v>622</v>
+        <v>653</v>
       </c>
       <c r="D211">
-        <v>1592</v>
+        <v>703</v>
       </c>
       <c r="E211" s="1">
         <v>0.35</v>
       </c>
-      <c r="G211" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K211" t="str">
         <f>IF(NOT(OR(F211="", G211="")),"Yes","")</f>
         <v/>
@@ -11578,16 +11598,16 @@
     </row>
     <row r="212" spans="1:14">
       <c r="A212">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="B212" t="s">
-        <v>652</v>
+        <v>671</v>
       </c>
       <c r="C212" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="D212">
-        <v>703</v>
+        <v>888</v>
       </c>
       <c r="E212" s="1">
         <v>0.35</v>
@@ -11653,16 +11673,16 @@
     </row>
     <row r="214" spans="1:14">
       <c r="A214">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="B214" t="s">
-        <v>671</v>
+        <v>707</v>
       </c>
       <c r="C214" t="s">
-        <v>672</v>
+        <v>708</v>
       </c>
       <c r="D214">
-        <v>888</v>
+        <v>634</v>
       </c>
       <c r="E214" s="1">
         <v>0.35</v>
@@ -11686,16 +11706,16 @@
     </row>
     <row r="215" spans="1:14">
       <c r="A215">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="B215" t="s">
-        <v>707</v>
+        <v>737</v>
       </c>
       <c r="C215" t="s">
-        <v>708</v>
+        <v>738</v>
       </c>
       <c r="D215">
-        <v>634</v>
+        <v>463</v>
       </c>
       <c r="E215" s="1">
         <v>0.35</v>
@@ -11755,16 +11775,16 @@
     </row>
     <row r="217" spans="1:14">
       <c r="A217">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="B217" t="s">
-        <v>737</v>
+        <v>765</v>
       </c>
       <c r="C217" t="s">
-        <v>738</v>
+        <v>766</v>
       </c>
       <c r="D217">
-        <v>463</v>
+        <v>400</v>
       </c>
       <c r="E217" s="1">
         <v>0.35</v>
@@ -11824,16 +11844,16 @@
     </row>
     <row r="219" spans="1:14">
       <c r="A219">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="B219" t="s">
-        <v>765</v>
+        <v>815</v>
       </c>
       <c r="C219" t="s">
-        <v>766</v>
+        <v>816</v>
       </c>
       <c r="D219">
-        <v>400</v>
+        <v>464</v>
       </c>
       <c r="E219" s="1">
         <v>0.35</v>
@@ -11857,16 +11877,16 @@
     </row>
     <row r="220" spans="1:14">
       <c r="A220">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="B220" t="s">
-        <v>815</v>
+        <v>841</v>
       </c>
       <c r="C220" t="s">
-        <v>816</v>
+        <v>842</v>
       </c>
       <c r="D220">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="E220" s="1">
         <v>0.35</v>
@@ -11890,16 +11910,16 @@
     </row>
     <row r="221" spans="1:14">
       <c r="A221">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="B221" t="s">
-        <v>841</v>
+        <v>855</v>
       </c>
       <c r="C221" t="s">
-        <v>842</v>
+        <v>856</v>
       </c>
       <c r="D221">
-        <v>488</v>
+        <v>414</v>
       </c>
       <c r="E221" s="1">
         <v>0.35</v>
@@ -11923,20 +11943,23 @@
     </row>
     <row r="222" spans="1:14">
       <c r="A222">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="B222" t="s">
-        <v>855</v>
+        <v>877</v>
       </c>
       <c r="C222" t="s">
-        <v>856</v>
+        <v>878</v>
       </c>
       <c r="D222">
-        <v>414</v>
+        <v>485</v>
       </c>
       <c r="E222" s="1">
         <v>0.35</v>
       </c>
+      <c r="G222" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K222" t="str">
         <f>IF(NOT(OR(F222="", G222="")),"Yes","")</f>
         <v/>
@@ -11956,16 +11979,16 @@
     </row>
     <row r="223" spans="1:14">
       <c r="A223">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="B223" t="s">
-        <v>877</v>
+        <v>893</v>
       </c>
       <c r="C223" t="s">
-        <v>878</v>
+        <v>894</v>
       </c>
       <c r="D223">
-        <v>485</v>
+        <v>407</v>
       </c>
       <c r="E223" s="1">
         <v>0.35</v>
@@ -11992,23 +12015,20 @@
     </row>
     <row r="224" spans="1:14">
       <c r="A224">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="B224" t="s">
-        <v>893</v>
+        <v>925</v>
       </c>
       <c r="C224" t="s">
-        <v>894</v>
+        <v>926</v>
       </c>
       <c r="D224">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="E224" s="1">
         <v>0.35</v>
       </c>
-      <c r="G224" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K224" t="str">
         <f>IF(NOT(OR(F224="", G224="")),"Yes","")</f>
         <v/>
@@ -12028,19 +12048,19 @@
     </row>
     <row r="225" spans="1:14">
       <c r="A225">
-        <v>473</v>
+        <v>287</v>
       </c>
       <c r="B225" t="s">
-        <v>925</v>
+        <v>561</v>
       </c>
       <c r="C225" t="s">
-        <v>926</v>
+        <v>562</v>
       </c>
       <c r="D225">
-        <v>418</v>
+        <v>924</v>
       </c>
       <c r="E225" s="1">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="K225" t="str">
         <f>IF(NOT(OR(F225="", G225="")),"Yes","")</f>
@@ -12061,16 +12081,16 @@
     </row>
     <row r="226" spans="1:14">
       <c r="A226">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="B226" t="s">
-        <v>561</v>
+        <v>607</v>
       </c>
       <c r="C226" t="s">
-        <v>562</v>
+        <v>608</v>
       </c>
       <c r="D226">
-        <v>924</v>
+        <v>662</v>
       </c>
       <c r="E226" s="1">
         <v>0.4</v>
@@ -12130,20 +12150,23 @@
     </row>
     <row r="228" spans="1:14">
       <c r="A228">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="B228" t="s">
-        <v>607</v>
+        <v>640</v>
       </c>
       <c r="C228" t="s">
-        <v>608</v>
+        <v>641</v>
       </c>
       <c r="D228">
-        <v>662</v>
+        <v>740</v>
       </c>
       <c r="E228" s="1">
         <v>0.4</v>
       </c>
+      <c r="J228" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="K228" t="str">
         <f>IF(NOT(OR(F228="", G228="")),"Yes","")</f>
         <v/>
@@ -12163,23 +12186,20 @@
     </row>
     <row r="229" spans="1:14">
       <c r="A229">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="B229" t="s">
-        <v>640</v>
+        <v>713</v>
       </c>
       <c r="C229" t="s">
-        <v>641</v>
+        <v>714</v>
       </c>
       <c r="D229">
-        <v>740</v>
+        <v>378</v>
       </c>
       <c r="E229" s="1">
         <v>0.4</v>
       </c>
-      <c r="J229" s="4" t="s">
-        <v>1050</v>
-      </c>
       <c r="K229" t="str">
         <f>IF(NOT(OR(F229="", G229="")),"Yes","")</f>
         <v/>
@@ -12199,16 +12219,16 @@
     </row>
     <row r="230" spans="1:14">
       <c r="A230">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B230" t="s">
-        <v>713</v>
+        <v>729</v>
       </c>
       <c r="C230" t="s">
-        <v>714</v>
+        <v>730</v>
       </c>
       <c r="D230">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="E230" s="1">
         <v>0.4</v>
@@ -12232,16 +12252,16 @@
     </row>
     <row r="231" spans="1:14">
       <c r="A231">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B231" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C231" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D231">
-        <v>411</v>
+        <v>534</v>
       </c>
       <c r="E231" s="1">
         <v>0.4</v>
@@ -12265,16 +12285,16 @@
     </row>
     <row r="232" spans="1:14">
       <c r="A232">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="B232" t="s">
-        <v>731</v>
+        <v>753</v>
       </c>
       <c r="C232" t="s">
-        <v>732</v>
+        <v>754</v>
       </c>
       <c r="D232">
-        <v>534</v>
+        <v>443</v>
       </c>
       <c r="E232" s="1">
         <v>0.4</v>
@@ -12340,16 +12360,16 @@
     </row>
     <row r="234" spans="1:14">
       <c r="A234">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="B234" t="s">
-        <v>753</v>
+        <v>771</v>
       </c>
       <c r="C234" t="s">
-        <v>754</v>
+        <v>772</v>
       </c>
       <c r="D234">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="E234" s="1">
         <v>0.4</v>
@@ -12373,16 +12393,16 @@
     </row>
     <row r="235" spans="1:14">
       <c r="A235">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B235" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C235" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="D235">
-        <v>429</v>
+        <v>387</v>
       </c>
       <c r="E235" s="1">
         <v>0.4</v>
@@ -12481,16 +12501,16 @@
     </row>
     <row r="238" spans="1:14">
       <c r="A238">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="B238" t="s">
-        <v>773</v>
+        <v>791</v>
       </c>
       <c r="C238" t="s">
-        <v>774</v>
+        <v>792</v>
       </c>
       <c r="D238">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="E238" s="1">
         <v>0.4</v>
@@ -12553,16 +12573,16 @@
     </row>
     <row r="240" spans="1:14">
       <c r="A240">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="B240" t="s">
-        <v>791</v>
+        <v>817</v>
       </c>
       <c r="C240" t="s">
-        <v>792</v>
+        <v>818</v>
       </c>
       <c r="D240">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="E240" s="1">
         <v>0.4</v>
@@ -12625,20 +12645,23 @@
     </row>
     <row r="242" spans="1:14">
       <c r="A242">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="B242" t="s">
-        <v>817</v>
+        <v>843</v>
       </c>
       <c r="C242" t="s">
-        <v>818</v>
+        <v>844</v>
       </c>
       <c r="D242">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="E242" s="1">
         <v>0.4</v>
       </c>
+      <c r="G242" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K242" t="str">
         <f>IF(NOT(OR(F242="", G242="")),"Yes","")</f>
         <v/>
@@ -12658,23 +12681,20 @@
     </row>
     <row r="243" spans="1:14">
       <c r="A243">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="B243" t="s">
-        <v>843</v>
+        <v>889</v>
       </c>
       <c r="C243" t="s">
-        <v>844</v>
+        <v>890</v>
       </c>
       <c r="D243">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="E243" s="1">
         <v>0.4</v>
       </c>
-      <c r="G243" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K243" t="str">
         <f>IF(NOT(OR(F243="", G243="")),"Yes","")</f>
         <v/>
@@ -12694,16 +12714,16 @@
     </row>
     <row r="244" spans="1:14">
       <c r="A244">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="B244" t="s">
-        <v>889</v>
+        <v>917</v>
       </c>
       <c r="C244" t="s">
-        <v>890</v>
+        <v>918</v>
       </c>
       <c r="D244">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="E244" s="1">
         <v>0.4</v>
@@ -12763,20 +12783,23 @@
     </row>
     <row r="246" spans="1:14">
       <c r="A246">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="B246" t="s">
-        <v>917</v>
+        <v>954</v>
       </c>
       <c r="C246" t="s">
-        <v>918</v>
+        <v>955</v>
       </c>
       <c r="D246">
-        <v>389</v>
+        <v>315</v>
       </c>
       <c r="E246" s="1">
         <v>0.4</v>
       </c>
+      <c r="G246" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K246" t="str">
         <f>IF(NOT(OR(F246="", G246="")),"Yes","")</f>
         <v/>
@@ -12796,23 +12819,20 @@
     </row>
     <row r="247" spans="1:14">
       <c r="A247">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="B247" t="s">
-        <v>954</v>
+        <v>974</v>
       </c>
       <c r="C247" t="s">
-        <v>955</v>
+        <v>975</v>
       </c>
       <c r="D247">
-        <v>315</v>
+        <v>253</v>
       </c>
       <c r="E247" s="1">
         <v>0.4</v>
       </c>
-      <c r="G247" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K247" t="str">
         <f>IF(NOT(OR(F247="", G247="")),"Yes","")</f>
         <v/>
@@ -12832,13 +12852,13 @@
     </row>
     <row r="248" spans="1:14">
       <c r="A248">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B248" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="C248" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="D248">
         <v>253</v>
@@ -12865,16 +12885,16 @@
     </row>
     <row r="249" spans="1:14">
       <c r="A249">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B249" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="C249" t="s">
-        <v>977</v>
+        <v>982</v>
       </c>
       <c r="D249">
-        <v>253</v>
+        <v>586</v>
       </c>
       <c r="E249" s="1">
         <v>0.4</v>
@@ -12898,20 +12918,23 @@
     </row>
     <row r="250" spans="1:14">
       <c r="A250">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="B250" t="s">
-        <v>980</v>
+        <v>997</v>
       </c>
       <c r="C250" t="s">
-        <v>982</v>
+        <v>998</v>
       </c>
       <c r="D250">
-        <v>586</v>
+        <v>261</v>
       </c>
       <c r="E250" s="1">
         <v>0.4</v>
       </c>
+      <c r="G250" t="s">
+        <v>1047</v>
+      </c>
       <c r="K250" t="str">
         <f>IF(NOT(OR(F250="", G250="")),"Yes","")</f>
         <v/>
@@ -12931,23 +12954,20 @@
     </row>
     <row r="251" spans="1:14">
       <c r="A251">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="B251" t="s">
-        <v>997</v>
+        <v>1009</v>
       </c>
       <c r="C251" t="s">
-        <v>998</v>
+        <v>1010</v>
       </c>
       <c r="D251">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E251" s="1">
         <v>0.4</v>
       </c>
-      <c r="G251" t="s">
-        <v>1047</v>
-      </c>
       <c r="K251" t="str">
         <f>IF(NOT(OR(F251="", G251="")),"Yes","")</f>
         <v/>
@@ -12967,19 +12987,19 @@
     </row>
     <row r="252" spans="1:14">
       <c r="A252">
-        <v>515</v>
+        <v>291</v>
       </c>
       <c r="B252" t="s">
-        <v>1009</v>
+        <v>569</v>
       </c>
       <c r="C252" t="s">
-        <v>1010</v>
+        <v>570</v>
       </c>
       <c r="D252">
-        <v>258</v>
+        <v>853</v>
       </c>
       <c r="E252" s="1">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="K252" t="str">
         <f>IF(NOT(OR(F252="", G252="")),"Yes","")</f>
@@ -13000,16 +13020,16 @@
     </row>
     <row r="253" spans="1:14">
       <c r="A253">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B253" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C253" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="D253">
-        <v>853</v>
+        <v>571</v>
       </c>
       <c r="E253" s="1">
         <v>0.45</v>
@@ -13033,16 +13053,16 @@
     </row>
     <row r="254" spans="1:14">
       <c r="A254">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="B254" t="s">
-        <v>575</v>
+        <v>667</v>
       </c>
       <c r="C254" t="s">
-        <v>576</v>
+        <v>668</v>
       </c>
       <c r="D254">
-        <v>571</v>
+        <v>597</v>
       </c>
       <c r="E254" s="1">
         <v>0.45</v>
@@ -13066,16 +13086,16 @@
     </row>
     <row r="255" spans="1:14">
       <c r="A255">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="B255" t="s">
-        <v>667</v>
+        <v>717</v>
       </c>
       <c r="C255" t="s">
-        <v>668</v>
+        <v>718</v>
       </c>
       <c r="D255">
-        <v>597</v>
+        <v>372</v>
       </c>
       <c r="E255" s="1">
         <v>0.45</v>
@@ -13099,16 +13119,16 @@
     </row>
     <row r="256" spans="1:14">
       <c r="A256">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="B256" t="s">
-        <v>717</v>
+        <v>735</v>
       </c>
       <c r="C256" t="s">
-        <v>718</v>
+        <v>736</v>
       </c>
       <c r="D256">
-        <v>372</v>
+        <v>425</v>
       </c>
       <c r="E256" s="1">
         <v>0.45</v>
@@ -13132,20 +13152,23 @@
     </row>
     <row r="257" spans="1:14">
       <c r="A257">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="B257" t="s">
-        <v>735</v>
+        <v>779</v>
       </c>
       <c r="C257" t="s">
-        <v>736</v>
+        <v>780</v>
       </c>
       <c r="D257">
-        <v>425</v>
+        <v>360</v>
       </c>
       <c r="E257" s="1">
         <v>0.45</v>
       </c>
+      <c r="J257" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="K257" t="str">
         <f>IF(NOT(OR(F257="", G257="")),"Yes","")</f>
         <v/>
@@ -13165,23 +13188,20 @@
     </row>
     <row r="258" spans="1:14">
       <c r="A258">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="B258" t="s">
-        <v>779</v>
+        <v>797</v>
       </c>
       <c r="C258" t="s">
-        <v>780</v>
+        <v>798</v>
       </c>
       <c r="D258">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="E258" s="1">
         <v>0.45</v>
       </c>
-      <c r="J258" s="4" t="s">
-        <v>1050</v>
-      </c>
       <c r="K258" t="str">
         <f>IF(NOT(OR(F258="", G258="")),"Yes","")</f>
         <v/>
@@ -13201,16 +13221,16 @@
     </row>
     <row r="259" spans="1:14">
       <c r="A259">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B259" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="C259" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="D259">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="E259" s="1">
         <v>0.45</v>
@@ -13234,16 +13254,16 @@
     </row>
     <row r="260" spans="1:14">
       <c r="A260">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="B260" t="s">
-        <v>803</v>
+        <v>827</v>
       </c>
       <c r="C260" t="s">
-        <v>804</v>
+        <v>828</v>
       </c>
       <c r="D260">
-        <v>367</v>
+        <v>260</v>
       </c>
       <c r="E260" s="1">
         <v>0.45</v>
@@ -13306,16 +13326,16 @@
     </row>
     <row r="262" spans="1:14">
       <c r="A262">
-        <v>423</v>
+        <v>452</v>
       </c>
       <c r="B262" t="s">
-        <v>827</v>
+        <v>883</v>
       </c>
       <c r="C262" t="s">
-        <v>828</v>
+        <v>884</v>
       </c>
       <c r="D262">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="E262" s="1">
         <v>0.45</v>
@@ -13339,16 +13359,16 @@
     </row>
     <row r="263" spans="1:14">
       <c r="A263">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="B263" t="s">
-        <v>883</v>
+        <v>931</v>
       </c>
       <c r="C263" t="s">
-        <v>884</v>
+        <v>932</v>
       </c>
       <c r="D263">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="E263" s="1">
         <v>0.45</v>
@@ -13372,16 +13392,16 @@
     </row>
     <row r="264" spans="1:14">
       <c r="A264">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B264" t="s">
-        <v>931</v>
+        <v>940</v>
       </c>
       <c r="C264" t="s">
-        <v>932</v>
+        <v>941</v>
       </c>
       <c r="D264">
-        <v>263</v>
+        <v>318</v>
       </c>
       <c r="E264" s="1">
         <v>0.45</v>
@@ -13405,16 +13425,16 @@
     </row>
     <row r="265" spans="1:14">
       <c r="A265">
-        <v>480</v>
+        <v>517</v>
       </c>
       <c r="B265" t="s">
-        <v>940</v>
+        <v>1013</v>
       </c>
       <c r="C265" t="s">
-        <v>941</v>
+        <v>1014</v>
       </c>
       <c r="D265">
-        <v>318</v>
+        <v>268</v>
       </c>
       <c r="E265" s="1">
         <v>0.45</v>
@@ -13438,16 +13458,16 @@
     </row>
     <row r="266" spans="1:14">
       <c r="A266">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B266" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="C266" t="s">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="D266">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="E266" s="1">
         <v>0.45</v>
@@ -13618,20 +13638,23 @@
     </row>
     <row r="271" spans="1:14">
       <c r="A271">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B271" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="C271" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="D271">
-        <v>225</v>
+        <v>371</v>
       </c>
       <c r="E271" s="1">
         <v>0.45</v>
       </c>
+      <c r="G271" t="s">
+        <v>1047</v>
+      </c>
       <c r="K271" t="str">
         <f>IF(NOT(OR(F271="", G271="")),"Yes","")</f>
         <v/>
@@ -13651,23 +13674,20 @@
     </row>
     <row r="272" spans="1:14">
       <c r="A272">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B272" t="s">
-        <v>1021</v>
+        <v>1028</v>
       </c>
       <c r="C272" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
       <c r="D272">
-        <v>371</v>
+        <v>239</v>
       </c>
       <c r="E272" s="1">
         <v>0.45</v>
       </c>
-      <c r="G272" t="s">
-        <v>1047</v>
-      </c>
       <c r="K272" t="str">
         <f>IF(NOT(OR(F272="", G272="")),"Yes","")</f>
         <v/>
@@ -13686,20 +13706,23 @@
       </c>
     </row>
     <row r="273" spans="1:14">
-      <c r="A273">
-        <v>525</v>
+      <c r="A273" s="2">
+        <v>190</v>
       </c>
       <c r="B273" t="s">
-        <v>1028</v>
+        <v>379</v>
       </c>
       <c r="C273" t="s">
-        <v>1029</v>
+        <v>380</v>
       </c>
       <c r="D273">
-        <v>239</v>
+        <v>2797</v>
       </c>
       <c r="E273" s="1">
-        <v>0.45</v>
+        <v>0.5</v>
+      </c>
+      <c r="I273" t="s">
+        <v>1049</v>
       </c>
       <c r="K273" t="str">
         <f>IF(NOT(OR(F273="", G273="")),"Yes","")</f>
@@ -13719,24 +13742,21 @@
       </c>
     </row>
     <row r="274" spans="1:14">
-      <c r="A274" s="2">
-        <v>190</v>
+      <c r="A274">
+        <v>215</v>
       </c>
       <c r="B274" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="C274" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="D274">
-        <v>2797</v>
+        <v>2532</v>
       </c>
       <c r="E274" s="1">
         <v>0.5</v>
       </c>
-      <c r="I274" t="s">
-        <v>1049</v>
-      </c>
       <c r="K274" t="str">
         <f>IF(NOT(OR(F274="", G274="")),"Yes","")</f>
         <v/>
@@ -13756,16 +13776,16 @@
     </row>
     <row r="275" spans="1:14">
       <c r="A275">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="B275" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="C275" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="D275">
-        <v>2532</v>
+        <v>2056</v>
       </c>
       <c r="E275" s="1">
         <v>0.5</v>
@@ -13789,16 +13809,16 @@
     </row>
     <row r="276" spans="1:14">
       <c r="A276">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="B276" t="s">
-        <v>451</v>
+        <v>544</v>
       </c>
       <c r="C276" t="s">
-        <v>452</v>
+        <v>545</v>
       </c>
       <c r="D276">
-        <v>2056</v>
+        <v>643</v>
       </c>
       <c r="E276" s="1">
         <v>0.5</v>
@@ -13822,16 +13842,16 @@
     </row>
     <row r="277" spans="1:14">
       <c r="A277">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="B277" t="s">
-        <v>544</v>
+        <v>567</v>
       </c>
       <c r="C277" t="s">
-        <v>545</v>
+        <v>568</v>
       </c>
       <c r="D277">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="E277" s="1">
         <v>0.5</v>
@@ -13855,19 +13875,22 @@
     </row>
     <row r="278" spans="1:14">
       <c r="A278">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B278" t="s">
-        <v>567</v>
+        <v>587</v>
       </c>
       <c r="C278" t="s">
-        <v>568</v>
+        <v>588</v>
       </c>
       <c r="D278">
-        <v>653</v>
+        <v>705</v>
       </c>
       <c r="E278" s="1">
         <v>0.5</v>
+      </c>
+      <c r="I278" t="s">
+        <v>1049</v>
       </c>
       <c r="K278" t="str">
         <f>IF(NOT(OR(F278="", G278="")),"Yes","")</f>
@@ -13927,23 +13950,20 @@
     </row>
     <row r="280" spans="1:14">
       <c r="A280">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B280" t="s">
-        <v>587</v>
+        <v>605</v>
       </c>
       <c r="C280" t="s">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="D280">
-        <v>705</v>
+        <v>498</v>
       </c>
       <c r="E280" s="1">
         <v>0.5</v>
       </c>
-      <c r="I280" t="s">
-        <v>1049</v>
-      </c>
       <c r="K280" t="str">
         <f>IF(NOT(OR(F280="", G280="")),"Yes","")</f>
         <v/>
@@ -13963,16 +13983,16 @@
     </row>
     <row r="281" spans="1:14">
       <c r="A281">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B281" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="C281" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="D281">
-        <v>498</v>
+        <v>539</v>
       </c>
       <c r="E281" s="1">
         <v>0.5</v>
@@ -13996,16 +14016,16 @@
     </row>
     <row r="282" spans="1:14">
       <c r="A282">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B282" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="C282" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="D282">
-        <v>539</v>
+        <v>561</v>
       </c>
       <c r="E282" s="1">
         <v>0.5</v>
@@ -14029,16 +14049,16 @@
     </row>
     <row r="283" spans="1:14">
       <c r="A283">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B283" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="C283" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="D283">
-        <v>561</v>
+        <v>534</v>
       </c>
       <c r="E283" s="1">
         <v>0.5</v>
@@ -14062,16 +14082,16 @@
     </row>
     <row r="284" spans="1:14">
       <c r="A284">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B284" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="C284" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D284">
-        <v>534</v>
+        <v>429</v>
       </c>
       <c r="E284" s="1">
         <v>0.5</v>
@@ -14095,16 +14115,16 @@
     </row>
     <row r="285" spans="1:14">
       <c r="A285">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B285" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="C285" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="D285">
-        <v>429</v>
+        <v>385</v>
       </c>
       <c r="E285" s="1">
         <v>0.5</v>
@@ -14128,16 +14148,16 @@
     </row>
     <row r="286" spans="1:14">
       <c r="A286">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="B286" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
       <c r="C286" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="D286">
-        <v>385</v>
+        <v>514</v>
       </c>
       <c r="E286" s="1">
         <v>0.5</v>
@@ -14161,19 +14181,22 @@
     </row>
     <row r="287" spans="1:14">
       <c r="A287">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="B287" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="C287" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="D287">
-        <v>514</v>
+        <v>307</v>
       </c>
       <c r="E287" s="1">
         <v>0.5</v>
+      </c>
+      <c r="G287" s="4" t="s">
+        <v>1047</v>
       </c>
       <c r="K287" t="str">
         <f>IF(NOT(OR(F287="", G287="")),"Yes","")</f>
@@ -14230,23 +14253,20 @@
     </row>
     <row r="289" spans="1:14">
       <c r="A289">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B289" t="s">
-        <v>687</v>
+        <v>701</v>
       </c>
       <c r="C289" t="s">
-        <v>688</v>
+        <v>702</v>
       </c>
       <c r="D289">
-        <v>307</v>
+        <v>421</v>
       </c>
       <c r="E289" s="1">
         <v>0.5</v>
       </c>
-      <c r="G289" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K289" t="str">
         <f>IF(NOT(OR(F289="", G289="")),"Yes","")</f>
         <v/>
@@ -14266,16 +14286,16 @@
     </row>
     <row r="290" spans="1:14">
       <c r="A290">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B290" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="C290" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="D290">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E290" s="1">
         <v>0.5</v>
@@ -14299,20 +14319,23 @@
     </row>
     <row r="291" spans="1:14">
       <c r="A291">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="B291" t="s">
-        <v>709</v>
+        <v>747</v>
       </c>
       <c r="C291" t="s">
-        <v>710</v>
+        <v>748</v>
       </c>
       <c r="D291">
-        <v>423</v>
+        <v>339</v>
       </c>
       <c r="E291" s="1">
         <v>0.5</v>
       </c>
+      <c r="G291" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K291" t="str">
         <f>IF(NOT(OR(F291="", G291="")),"Yes","")</f>
         <v/>
@@ -14332,23 +14355,20 @@
     </row>
     <row r="292" spans="1:14">
       <c r="A292">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B292" t="s">
-        <v>747</v>
+        <v>757</v>
       </c>
       <c r="C292" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="D292">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="E292" s="1">
         <v>0.5</v>
       </c>
-      <c r="G292" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K292" t="str">
         <f>IF(NOT(OR(F292="", G292="")),"Yes","")</f>
         <v/>
@@ -14368,20 +14388,23 @@
     </row>
     <row r="293" spans="1:14">
       <c r="A293">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B293" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="C293" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
       <c r="D293">
-        <v>353</v>
+        <v>460</v>
       </c>
       <c r="E293" s="1">
         <v>0.5</v>
       </c>
+      <c r="J293" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="K293" t="str">
         <f>IF(NOT(OR(F293="", G293="")),"Yes","")</f>
         <v/>
@@ -14401,22 +14424,19 @@
     </row>
     <row r="294" spans="1:14">
       <c r="A294">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="B294" t="s">
-        <v>767</v>
+        <v>793</v>
       </c>
       <c r="C294" t="s">
-        <v>768</v>
+        <v>794</v>
       </c>
       <c r="D294">
-        <v>460</v>
+        <v>227</v>
       </c>
       <c r="E294" s="1">
         <v>0.5</v>
-      </c>
-      <c r="J294" s="4" t="s">
-        <v>1050</v>
       </c>
       <c r="K294" t="str">
         <f>IF(NOT(OR(F294="", G294="")),"Yes","")</f>
@@ -14476,16 +14496,16 @@
     </row>
     <row r="296" spans="1:14">
       <c r="A296">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B296" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="C296" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
       <c r="D296">
-        <v>227</v>
+        <v>279</v>
       </c>
       <c r="E296" s="1">
         <v>0.5</v>
@@ -14509,20 +14529,23 @@
     </row>
     <row r="297" spans="1:14">
       <c r="A297">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="B297" t="s">
-        <v>805</v>
+        <v>819</v>
       </c>
       <c r="C297" t="s">
-        <v>806</v>
+        <v>820</v>
       </c>
       <c r="D297">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="E297" s="1">
         <v>0.5</v>
       </c>
+      <c r="G297" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K297" t="str">
         <f>IF(NOT(OR(F297="", G297="")),"Yes","")</f>
         <v/>
@@ -14542,16 +14565,16 @@
     </row>
     <row r="298" spans="1:14">
       <c r="A298">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B298" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="C298" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="D298">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="E298" s="1">
         <v>0.5</v>
@@ -14578,23 +14601,20 @@
     </row>
     <row r="299" spans="1:14">
       <c r="A299">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="B299" t="s">
-        <v>823</v>
+        <v>871</v>
       </c>
       <c r="C299" t="s">
-        <v>824</v>
+        <v>872</v>
       </c>
       <c r="D299">
-        <v>334</v>
+        <v>192</v>
       </c>
       <c r="E299" s="1">
         <v>0.5</v>
       </c>
-      <c r="G299" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K299" t="str">
         <f>IF(NOT(OR(F299="", G299="")),"Yes","")</f>
         <v/>
@@ -14614,16 +14634,16 @@
     </row>
     <row r="300" spans="1:14">
       <c r="A300">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="B300" t="s">
-        <v>871</v>
+        <v>887</v>
       </c>
       <c r="C300" t="s">
-        <v>872</v>
+        <v>888</v>
       </c>
       <c r="D300">
-        <v>192</v>
+        <v>273</v>
       </c>
       <c r="E300" s="1">
         <v>0.5</v>
@@ -14647,16 +14667,16 @@
     </row>
     <row r="301" spans="1:14">
       <c r="A301">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B301" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="C301" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="D301">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E301" s="1">
         <v>0.5</v>
@@ -14680,19 +14700,22 @@
     </row>
     <row r="302" spans="1:14">
       <c r="A302">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="B302" t="s">
-        <v>891</v>
+        <v>913</v>
       </c>
       <c r="C302" t="s">
-        <v>892</v>
+        <v>914</v>
       </c>
       <c r="D302">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E302" s="1">
         <v>0.5</v>
+      </c>
+      <c r="G302" s="4" t="s">
+        <v>1047</v>
       </c>
       <c r="K302" t="str">
         <f>IF(NOT(OR(F302="", G302="")),"Yes","")</f>
@@ -14749,22 +14772,19 @@
     </row>
     <row r="304" spans="1:14">
       <c r="A304">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="B304" t="s">
-        <v>913</v>
+        <v>927</v>
       </c>
       <c r="C304" t="s">
-        <v>914</v>
+        <v>928</v>
       </c>
       <c r="D304">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="E304" s="1">
         <v>0.5</v>
-      </c>
-      <c r="G304" s="4" t="s">
-        <v>1047</v>
       </c>
       <c r="K304" t="str">
         <f>IF(NOT(OR(F304="", G304="")),"Yes","")</f>
@@ -14860,16 +14880,16 @@
     </row>
     <row r="307" spans="1:14">
       <c r="A307">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B307" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="C307" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="D307">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="E307" s="1">
         <v>0.5</v>
@@ -14893,16 +14913,16 @@
     </row>
     <row r="308" spans="1:14">
       <c r="A308">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="B308" t="s">
-        <v>929</v>
+        <v>972</v>
       </c>
       <c r="C308" t="s">
-        <v>930</v>
+        <v>973</v>
       </c>
       <c r="D308">
-        <v>227</v>
+        <v>169</v>
       </c>
       <c r="E308" s="1">
         <v>0.5</v>
@@ -14968,16 +14988,16 @@
     </row>
     <row r="310" spans="1:14">
       <c r="A310">
-        <v>496</v>
+        <v>519</v>
       </c>
       <c r="B310" t="s">
-        <v>972</v>
+        <v>1017</v>
       </c>
       <c r="C310" t="s">
-        <v>973</v>
+        <v>1018</v>
       </c>
       <c r="D310">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="E310" s="1">
         <v>0.5</v>
@@ -15001,16 +15021,16 @@
     </row>
     <row r="311" spans="1:14">
       <c r="A311">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="B311" t="s">
-        <v>1017</v>
+        <v>1058</v>
       </c>
       <c r="C311" t="s">
-        <v>1018</v>
+        <v>1059</v>
       </c>
       <c r="D311">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="E311" s="1">
         <v>0.5</v>
@@ -15671,21 +15691,24 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="1:14">
+    <row r="331" spans="1:14" hidden="1">
       <c r="A331">
-        <v>402</v>
+        <v>329</v>
       </c>
       <c r="B331" t="s">
-        <v>785</v>
+        <v>644</v>
       </c>
       <c r="C331" t="s">
-        <v>786</v>
+        <v>645</v>
       </c>
       <c r="D331">
-        <v>238</v>
+        <v>1410</v>
       </c>
       <c r="E331" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.25</v>
+      </c>
+      <c r="F331" t="s">
+        <v>7</v>
       </c>
       <c r="K331" t="str">
         <f>IF(NOT(OR(F331="", G331="")),"Yes","")</f>
@@ -15706,16 +15729,16 @@
     </row>
     <row r="332" spans="1:14">
       <c r="A332">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B332" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C332" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D332">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="E332" s="1">
         <v>0.55000000000000004</v>
@@ -15739,23 +15762,20 @@
     </row>
     <row r="333" spans="1:14">
       <c r="A333">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B333" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="C333" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="D333">
-        <v>278</v>
+        <v>220</v>
       </c>
       <c r="E333" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G333" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K333" t="str">
         <f>IF(NOT(OR(F333="", G333="")),"Yes","")</f>
         <v/>
@@ -15775,20 +15795,23 @@
     </row>
     <row r="334" spans="1:14">
       <c r="A334">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="B334" t="s">
-        <v>853</v>
+        <v>799</v>
       </c>
       <c r="C334" t="s">
-        <v>854</v>
+        <v>800</v>
       </c>
       <c r="D334">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="E334" s="1">
         <v>0.55000000000000004</v>
       </c>
+      <c r="G334" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K334" t="str">
         <f>IF(NOT(OR(F334="", G334="")),"Yes","")</f>
         <v/>
@@ -15808,16 +15831,16 @@
     </row>
     <row r="335" spans="1:14">
       <c r="A335">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B335" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="C335" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
       <c r="D335">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="E335" s="1">
         <v>0.55000000000000004</v>
@@ -15841,16 +15864,16 @@
     </row>
     <row r="336" spans="1:14">
       <c r="A336">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B336" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="C336" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="D336">
-        <v>168</v>
+        <v>235</v>
       </c>
       <c r="E336" s="1">
         <v>0.55000000000000004</v>
@@ -15874,16 +15897,16 @@
     </row>
     <row r="337" spans="1:14">
       <c r="A337">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="B337" t="s">
-        <v>899</v>
+        <v>869</v>
       </c>
       <c r="C337" t="s">
-        <v>900</v>
+        <v>870</v>
       </c>
       <c r="D337">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="E337" s="1">
         <v>0.55000000000000004</v>
@@ -15907,16 +15930,16 @@
     </row>
     <row r="338" spans="1:14">
       <c r="A338">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B338" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C338" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="D338">
-        <v>172</v>
+        <v>219</v>
       </c>
       <c r="E338" s="1">
         <v>0.55000000000000004</v>
@@ -15940,16 +15963,16 @@
     </row>
     <row r="339" spans="1:14">
       <c r="A339">
-        <v>511</v>
+        <v>462</v>
       </c>
       <c r="B339" t="s">
-        <v>1001</v>
+        <v>903</v>
       </c>
       <c r="C339" t="s">
-        <v>1002</v>
+        <v>904</v>
       </c>
       <c r="D339">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="E339" s="1">
         <v>0.55000000000000004</v>
@@ -15973,16 +15996,16 @@
     </row>
     <row r="340" spans="1:14">
       <c r="A340">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="B340" t="s">
-        <v>1034</v>
+        <v>1001</v>
       </c>
       <c r="C340" t="s">
-        <v>1035</v>
+        <v>1002</v>
       </c>
       <c r="D340">
-        <v>147</v>
+        <v>214</v>
       </c>
       <c r="E340" s="1">
         <v>0.55000000000000004</v>
@@ -16006,16 +16029,16 @@
     </row>
     <row r="341" spans="1:14">
       <c r="A341">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B341" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="C341" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="D341">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E341" s="1">
         <v>0.55000000000000004</v>
@@ -16039,16 +16062,16 @@
     </row>
     <row r="342" spans="1:14">
       <c r="A342">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B342" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C342" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D342">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="E342" s="1">
         <v>0.55000000000000004</v>
@@ -16071,20 +16094,20 @@
       </c>
     </row>
     <row r="343" spans="1:14">
-      <c r="A343" s="2">
-        <v>155</v>
+      <c r="A343">
+        <v>532</v>
       </c>
       <c r="B343" t="s">
-        <v>310</v>
+        <v>1043</v>
       </c>
       <c r="C343" t="s">
-        <v>311</v>
+        <v>1044</v>
       </c>
       <c r="D343">
-        <v>2224</v>
+        <v>156</v>
       </c>
       <c r="E343" s="1">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K343" t="str">
         <f>IF(NOT(OR(F343="", G343="")),"Yes","")</f>
@@ -16104,23 +16127,20 @@
       </c>
     </row>
     <row r="344" spans="1:14">
-      <c r="A344" s="2">
-        <v>159</v>
+      <c r="A344">
+        <v>534</v>
       </c>
       <c r="B344" t="s">
-        <v>318</v>
+        <v>1057</v>
       </c>
       <c r="C344" t="s">
-        <v>319</v>
+        <v>1060</v>
       </c>
       <c r="D344">
-        <v>2122</v>
+        <v>168</v>
       </c>
       <c r="E344" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="J344" s="4" t="s">
-        <v>1050</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K344" t="str">
         <f>IF(NOT(OR(F344="", G344="")),"Yes","")</f>
@@ -16141,16 +16161,16 @@
     </row>
     <row r="345" spans="1:14">
       <c r="A345" s="2">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="B345" t="s">
-        <v>371</v>
+        <v>310</v>
       </c>
       <c r="C345" t="s">
-        <v>372</v>
+        <v>311</v>
       </c>
       <c r="D345">
-        <v>1855</v>
+        <v>2224</v>
       </c>
       <c r="E345" s="1">
         <v>0.6</v>
@@ -16173,20 +16193,23 @@
       </c>
     </row>
     <row r="346" spans="1:14">
-      <c r="A346">
-        <v>202</v>
+      <c r="A346" s="2">
+        <v>159</v>
       </c>
       <c r="B346" t="s">
-        <v>401</v>
+        <v>318</v>
       </c>
       <c r="C346" t="s">
-        <v>403</v>
+        <v>319</v>
       </c>
       <c r="D346">
-        <v>1662</v>
+        <v>2122</v>
       </c>
       <c r="E346" s="1">
         <v>0.6</v>
+      </c>
+      <c r="J346" s="4" t="s">
+        <v>1050</v>
       </c>
       <c r="K346" t="str">
         <f>IF(NOT(OR(F346="", G346="")),"Yes","")</f>
@@ -16395,17 +16418,17 @@
       </c>
     </row>
     <row r="352" spans="1:14">
-      <c r="A352">
-        <v>209</v>
+      <c r="A352" s="2">
+        <v>186</v>
       </c>
       <c r="B352" t="s">
-        <v>412</v>
+        <v>371</v>
       </c>
       <c r="C352" t="s">
-        <v>413</v>
+        <v>372</v>
       </c>
       <c r="D352">
-        <v>1719</v>
+        <v>1855</v>
       </c>
       <c r="E352" s="1">
         <v>0.6</v>
@@ -16429,16 +16452,16 @@
     </row>
     <row r="353" spans="1:14">
       <c r="A353">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B353" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="C353" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="D353">
-        <v>1556</v>
+        <v>1662</v>
       </c>
       <c r="E353" s="1">
         <v>0.6</v>
@@ -16462,16 +16485,16 @@
     </row>
     <row r="354" spans="1:14">
       <c r="A354">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B354" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="C354" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="D354">
-        <v>1422</v>
+        <v>1719</v>
       </c>
       <c r="E354" s="1">
         <v>0.6</v>
@@ -16495,16 +16518,16 @@
     </row>
     <row r="355" spans="1:14">
       <c r="A355">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="B355" t="s">
-        <v>471</v>
+        <v>420</v>
       </c>
       <c r="C355" t="s">
-        <v>472</v>
+        <v>421</v>
       </c>
       <c r="D355">
-        <v>1502</v>
+        <v>1556</v>
       </c>
       <c r="E355" s="1">
         <v>0.6</v>
@@ -16528,16 +16551,16 @@
     </row>
     <row r="356" spans="1:14">
       <c r="A356">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="B356" t="s">
-        <v>489</v>
+        <v>437</v>
       </c>
       <c r="C356" t="s">
-        <v>490</v>
+        <v>438</v>
       </c>
       <c r="D356">
-        <v>1701</v>
+        <v>1422</v>
       </c>
       <c r="E356" s="1">
         <v>0.6</v>
@@ -16561,23 +16584,20 @@
     </row>
     <row r="357" spans="1:14">
       <c r="A357">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="B357" t="s">
-        <v>531</v>
+        <v>471</v>
       </c>
       <c r="C357" t="s">
-        <v>532</v>
+        <v>472</v>
       </c>
       <c r="D357">
-        <v>1565</v>
+        <v>1502</v>
       </c>
       <c r="E357" s="1">
         <v>0.6</v>
       </c>
-      <c r="G357" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K357" t="str">
         <f>IF(NOT(OR(F357="", G357="")),"Yes","")</f>
         <v/>
@@ -16597,16 +16617,16 @@
     </row>
     <row r="358" spans="1:14">
       <c r="A358">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="B358" t="s">
-        <v>579</v>
+        <v>489</v>
       </c>
       <c r="C358" t="s">
-        <v>580</v>
+        <v>490</v>
       </c>
       <c r="D358">
-        <v>391</v>
+        <v>1701</v>
       </c>
       <c r="E358" s="1">
         <v>0.6</v>
@@ -16669,20 +16689,23 @@
     </row>
     <row r="360" spans="1:14">
       <c r="A360">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="B360" t="s">
-        <v>583</v>
+        <v>531</v>
       </c>
       <c r="C360" t="s">
-        <v>584</v>
+        <v>532</v>
       </c>
       <c r="D360">
-        <v>451</v>
+        <v>1565</v>
       </c>
       <c r="E360" s="1">
         <v>0.6</v>
       </c>
+      <c r="G360" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K360" t="str">
         <f>IF(NOT(OR(F360="", G360="")),"Yes","")</f>
         <v/>
@@ -16702,16 +16725,16 @@
     </row>
     <row r="361" spans="1:14">
       <c r="A361">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B361" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C361" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="D361">
-        <v>434</v>
+        <v>391</v>
       </c>
       <c r="E361" s="1">
         <v>0.6</v>
@@ -16735,16 +16758,16 @@
     </row>
     <row r="362" spans="1:14">
       <c r="A362">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B362" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="C362" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D362">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="E362" s="1">
         <v>0.6</v>
@@ -16768,16 +16791,16 @@
     </row>
     <row r="363" spans="1:14">
       <c r="A363">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B363" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="C363" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="D363">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="E363" s="1">
         <v>0.6</v>
@@ -16801,16 +16824,16 @@
     </row>
     <row r="364" spans="1:14">
       <c r="A364">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B364" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="C364" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="D364">
-        <v>518</v>
+        <v>474</v>
       </c>
       <c r="E364" s="1">
         <v>0.6</v>
@@ -16834,16 +16857,16 @@
     </row>
     <row r="365" spans="1:14">
       <c r="A365">
-        <v>350</v>
+        <v>305</v>
       </c>
       <c r="B365" t="s">
-        <v>681</v>
+        <v>597</v>
       </c>
       <c r="C365" t="s">
-        <v>682</v>
+        <v>598</v>
       </c>
       <c r="D365">
-        <v>300</v>
+        <v>427</v>
       </c>
       <c r="E365" s="1">
         <v>0.6</v>
@@ -16867,16 +16890,16 @@
     </row>
     <row r="366" spans="1:14">
       <c r="A366">
-        <v>356</v>
+        <v>308</v>
       </c>
       <c r="B366" t="s">
-        <v>693</v>
+        <v>603</v>
       </c>
       <c r="C366" t="s">
-        <v>694</v>
+        <v>604</v>
       </c>
       <c r="D366">
-        <v>351</v>
+        <v>518</v>
       </c>
       <c r="E366" s="1">
         <v>0.6</v>
@@ -16936,16 +16959,16 @@
     </row>
     <row r="368" spans="1:14">
       <c r="A368">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="B368" t="s">
-        <v>719</v>
+        <v>681</v>
       </c>
       <c r="C368" t="s">
-        <v>720</v>
+        <v>682</v>
       </c>
       <c r="D368">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="E368" s="1">
         <v>0.6</v>
@@ -16969,16 +16992,16 @@
     </row>
     <row r="369" spans="1:14">
       <c r="A369">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="B369" t="s">
-        <v>725</v>
+        <v>693</v>
       </c>
       <c r="C369" t="s">
-        <v>726</v>
+        <v>694</v>
       </c>
       <c r="D369">
-        <v>281</v>
+        <v>351</v>
       </c>
       <c r="E369" s="1">
         <v>0.6</v>
@@ -17002,16 +17025,16 @@
     </row>
     <row r="370" spans="1:14">
       <c r="A370">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>741</v>
+        <v>719</v>
       </c>
       <c r="C370" t="s">
-        <v>742</v>
+        <v>720</v>
       </c>
       <c r="D370">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="E370" s="1">
         <v>0.6</v>
@@ -17035,16 +17058,16 @@
     </row>
     <row r="371" spans="1:14">
       <c r="A371">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B371" t="s">
-        <v>745</v>
+        <v>725</v>
       </c>
       <c r="C371" t="s">
-        <v>746</v>
+        <v>726</v>
       </c>
       <c r="D371">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="E371" s="1">
         <v>0.6</v>
@@ -17068,16 +17091,16 @@
     </row>
     <row r="372" spans="1:14">
       <c r="A372">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B372" t="s">
-        <v>761</v>
+        <v>741</v>
       </c>
       <c r="C372" t="s">
-        <v>762</v>
+        <v>742</v>
       </c>
       <c r="D372">
-        <v>408</v>
+        <v>339</v>
       </c>
       <c r="E372" s="1">
         <v>0.6</v>
@@ -17101,16 +17124,16 @@
     </row>
     <row r="373" spans="1:14">
       <c r="A373">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="B373" t="s">
-        <v>789</v>
+        <v>745</v>
       </c>
       <c r="C373" t="s">
-        <v>790</v>
+        <v>746</v>
       </c>
       <c r="D373">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="E373" s="1">
         <v>0.6</v>
@@ -17134,16 +17157,16 @@
     </row>
     <row r="374" spans="1:14">
       <c r="A374">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="B374" t="s">
-        <v>809</v>
+        <v>761</v>
       </c>
       <c r="C374" t="s">
-        <v>810</v>
+        <v>762</v>
       </c>
       <c r="D374">
-        <v>172</v>
+        <v>408</v>
       </c>
       <c r="E374" s="1">
         <v>0.6</v>
@@ -17167,16 +17190,16 @@
     </row>
     <row r="375" spans="1:14">
       <c r="A375">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="B375" t="s">
-        <v>821</v>
+        <v>789</v>
       </c>
       <c r="C375" t="s">
-        <v>822</v>
+        <v>790</v>
       </c>
       <c r="D375">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="E375" s="1">
         <v>0.6</v>
@@ -17200,16 +17223,16 @@
     </row>
     <row r="376" spans="1:14">
       <c r="A376">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B376" t="s">
-        <v>829</v>
+        <v>809</v>
       </c>
       <c r="C376" t="s">
-        <v>830</v>
+        <v>810</v>
       </c>
       <c r="D376">
-        <v>224</v>
+        <v>172</v>
       </c>
       <c r="E376" s="1">
         <v>0.6</v>
@@ -17233,16 +17256,16 @@
     </row>
     <row r="377" spans="1:14">
       <c r="A377">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="B377" t="s">
-        <v>861</v>
+        <v>821</v>
       </c>
       <c r="C377" t="s">
-        <v>862</v>
+        <v>822</v>
       </c>
       <c r="D377">
-        <v>193</v>
+        <v>254</v>
       </c>
       <c r="E377" s="1">
         <v>0.6</v>
@@ -17266,16 +17289,16 @@
     </row>
     <row r="378" spans="1:14">
       <c r="A378">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="B378" t="s">
-        <v>871</v>
+        <v>829</v>
       </c>
       <c r="C378" t="s">
-        <v>873</v>
+        <v>830</v>
       </c>
       <c r="D378">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="E378" s="1">
         <v>0.6</v>
@@ -17299,16 +17322,16 @@
     </row>
     <row r="379" spans="1:14">
       <c r="A379">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="B379" t="s">
-        <v>907</v>
+        <v>861</v>
       </c>
       <c r="C379" t="s">
-        <v>908</v>
+        <v>862</v>
       </c>
       <c r="D379">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="E379" s="1">
         <v>0.6</v>
@@ -17332,16 +17355,16 @@
     </row>
     <row r="380" spans="1:14">
       <c r="A380">
-        <v>472</v>
+        <v>446</v>
       </c>
       <c r="B380" t="s">
-        <v>923</v>
+        <v>871</v>
       </c>
       <c r="C380" t="s">
-        <v>924</v>
+        <v>873</v>
       </c>
       <c r="D380">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="E380" s="1">
         <v>0.6</v>
@@ -17365,16 +17388,16 @@
     </row>
     <row r="381" spans="1:14">
       <c r="A381">
-        <v>492</v>
+        <v>464</v>
       </c>
       <c r="B381" t="s">
-        <v>964</v>
+        <v>907</v>
       </c>
       <c r="C381" t="s">
-        <v>965</v>
+        <v>908</v>
       </c>
       <c r="D381">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E381" s="1">
         <v>0.6</v>
@@ -17398,22 +17421,19 @@
     </row>
     <row r="382" spans="1:14">
       <c r="A382">
-        <v>503</v>
+        <v>472</v>
       </c>
       <c r="B382" t="s">
-        <v>985</v>
+        <v>923</v>
       </c>
       <c r="C382" t="s">
-        <v>986</v>
+        <v>924</v>
       </c>
       <c r="D382">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="E382" s="1">
         <v>0.6</v>
-      </c>
-      <c r="G382" t="s">
-        <v>1047</v>
       </c>
       <c r="K382" t="str">
         <f>IF(NOT(OR(F382="", G382="")),"Yes","")</f>
@@ -17470,16 +17490,16 @@
     </row>
     <row r="384" spans="1:14">
       <c r="A384">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="B384" t="s">
-        <v>1005</v>
+        <v>964</v>
       </c>
       <c r="C384" t="s">
-        <v>1006</v>
+        <v>965</v>
       </c>
       <c r="D384">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E384" s="1">
         <v>0.6</v>
@@ -17503,20 +17523,23 @@
     </row>
     <row r="385" spans="1:14">
       <c r="A385">
-        <v>526</v>
+        <v>503</v>
       </c>
       <c r="B385" t="s">
-        <v>1030</v>
+        <v>985</v>
       </c>
       <c r="C385" t="s">
-        <v>1031</v>
+        <v>986</v>
       </c>
       <c r="D385">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E385" s="1">
         <v>0.6</v>
       </c>
+      <c r="G385" t="s">
+        <v>1047</v>
+      </c>
       <c r="K385" t="str">
         <f>IF(NOT(OR(F385="", G385="")),"Yes","")</f>
         <v/>
@@ -17535,20 +17558,20 @@
       </c>
     </row>
     <row r="386" spans="1:14">
-      <c r="A386" s="2">
-        <v>143</v>
+      <c r="A386">
+        <v>513</v>
       </c>
       <c r="B386" t="s">
-        <v>287</v>
+        <v>1005</v>
       </c>
       <c r="C386" t="s">
-        <v>288</v>
+        <v>1006</v>
       </c>
       <c r="D386">
-        <v>1635</v>
+        <v>184</v>
       </c>
       <c r="E386" s="1">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="K386" t="str">
         <f>IF(NOT(OR(F386="", G386="")),"Yes","")</f>
@@ -17568,20 +17591,20 @@
       </c>
     </row>
     <row r="387" spans="1:14">
-      <c r="A387" s="2">
-        <v>152</v>
+      <c r="A387">
+        <v>526</v>
       </c>
       <c r="B387" t="s">
-        <v>304</v>
+        <v>1030</v>
       </c>
       <c r="C387" t="s">
-        <v>305</v>
+        <v>1031</v>
       </c>
       <c r="D387">
-        <v>1632</v>
+        <v>175</v>
       </c>
       <c r="E387" s="1">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="K387" t="str">
         <f>IF(NOT(OR(F387="", G387="")),"Yes","")</f>
@@ -17602,22 +17625,19 @@
     </row>
     <row r="388" spans="1:14">
       <c r="A388" s="2">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B388" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="C388" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="D388">
-        <v>1597</v>
+        <v>1635</v>
       </c>
       <c r="E388" s="1">
         <v>0.65</v>
-      </c>
-      <c r="I388" t="s">
-        <v>1049</v>
       </c>
       <c r="K388" t="str">
         <f>IF(NOT(OR(F388="", G388="")),"Yes","")</f>
@@ -17674,16 +17694,16 @@
     </row>
     <row r="390" spans="1:14">
       <c r="A390" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B390" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C390" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D390">
-        <v>1654</v>
+        <v>1632</v>
       </c>
       <c r="E390" s="1">
         <v>0.65</v>
@@ -17707,22 +17727,22 @@
     </row>
     <row r="391" spans="1:14">
       <c r="A391" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B391" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C391" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D391">
-        <v>1690</v>
+        <v>1597</v>
       </c>
       <c r="E391" s="1">
         <v>0.65</v>
       </c>
-      <c r="G391" t="s">
-        <v>1047</v>
+      <c r="I391" t="s">
+        <v>1049</v>
       </c>
       <c r="K391" t="str">
         <f>IF(NOT(OR(F391="", G391="")),"Yes","")</f>
@@ -17743,16 +17763,16 @@
     </row>
     <row r="392" spans="1:14">
       <c r="A392" s="2">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B392" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="C392" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="D392">
-        <v>1709</v>
+        <v>1654</v>
       </c>
       <c r="E392" s="1">
         <v>0.65</v>
@@ -17776,25 +17796,22 @@
     </row>
     <row r="393" spans="1:14">
       <c r="A393" s="2">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B393" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="C393" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="D393">
-        <v>1721</v>
+        <v>1690</v>
       </c>
       <c r="E393" s="1">
         <v>0.65</v>
       </c>
-      <c r="I393" t="s">
-        <v>1049</v>
-      </c>
-      <c r="J393" s="4" t="s">
-        <v>1050</v>
+      <c r="G393" t="s">
+        <v>1047</v>
       </c>
       <c r="K393" t="str">
         <f>IF(NOT(OR(F393="", G393="")),"Yes","")</f>
@@ -17815,16 +17832,16 @@
     </row>
     <row r="394" spans="1:14">
       <c r="A394" s="2">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="B394" t="s">
-        <v>391</v>
+        <v>336</v>
       </c>
       <c r="C394" t="s">
-        <v>392</v>
+        <v>337</v>
       </c>
       <c r="D394">
-        <v>1635</v>
+        <v>1709</v>
       </c>
       <c r="E394" s="1">
         <v>0.65</v>
@@ -17847,21 +17864,24 @@
       </c>
     </row>
     <row r="395" spans="1:14">
-      <c r="A395">
-        <v>201</v>
+      <c r="A395" s="2">
+        <v>171</v>
       </c>
       <c r="B395" t="s">
-        <v>401</v>
+        <v>342</v>
       </c>
       <c r="C395" t="s">
-        <v>402</v>
+        <v>343</v>
       </c>
       <c r="D395">
-        <v>1470</v>
+        <v>1721</v>
       </c>
       <c r="E395" s="1">
         <v>0.65</v>
       </c>
+      <c r="I395" t="s">
+        <v>1049</v>
+      </c>
       <c r="J395" s="4" t="s">
         <v>1050</v>
       </c>
@@ -17883,17 +17903,17 @@
       </c>
     </row>
     <row r="396" spans="1:14">
-      <c r="A396">
-        <v>221</v>
+      <c r="A396" s="2">
+        <v>196</v>
       </c>
       <c r="B396" t="s">
-        <v>435</v>
+        <v>391</v>
       </c>
       <c r="C396" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
       <c r="D396">
-        <v>1401</v>
+        <v>1635</v>
       </c>
       <c r="E396" s="1">
         <v>0.65</v>
@@ -17917,20 +17937,23 @@
     </row>
     <row r="397" spans="1:14">
       <c r="A397">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="B397" t="s">
-        <v>443</v>
+        <v>401</v>
       </c>
       <c r="C397" t="s">
-        <v>444</v>
+        <v>402</v>
       </c>
       <c r="D397">
-        <v>1224</v>
+        <v>1470</v>
       </c>
       <c r="E397" s="1">
         <v>0.65</v>
       </c>
+      <c r="J397" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="K397" t="str">
         <f>IF(NOT(OR(F397="", G397="")),"Yes","")</f>
         <v/>
@@ -17950,23 +17973,20 @@
     </row>
     <row r="398" spans="1:14">
       <c r="A398">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B398" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="C398" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="D398">
-        <v>1419</v>
+        <v>1401</v>
       </c>
       <c r="E398" s="1">
         <v>0.65</v>
       </c>
-      <c r="G398" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K398" t="str">
         <f>IF(NOT(OR(F398="", G398="")),"Yes","")</f>
         <v/>
@@ -17986,16 +18006,16 @@
     </row>
     <row r="399" spans="1:14">
       <c r="A399">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B399" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="C399" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D399">
-        <v>1181</v>
+        <v>1224</v>
       </c>
       <c r="E399" s="1">
         <v>0.65</v>
@@ -18019,20 +18039,23 @@
     </row>
     <row r="400" spans="1:14">
       <c r="A400">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="B400" t="s">
-        <v>485</v>
+        <v>445</v>
       </c>
       <c r="C400" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="D400">
-        <v>1004</v>
+        <v>1419</v>
       </c>
       <c r="E400" s="1">
         <v>0.65</v>
       </c>
+      <c r="G400" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K400" t="str">
         <f>IF(NOT(OR(F400="", G400="")),"Yes","")</f>
         <v/>
@@ -18052,16 +18075,16 @@
     </row>
     <row r="401" spans="1:14">
       <c r="A401">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="B401" t="s">
-        <v>536</v>
+        <v>455</v>
       </c>
       <c r="C401" t="s">
-        <v>537</v>
+        <v>456</v>
       </c>
       <c r="D401">
-        <v>997</v>
+        <v>1181</v>
       </c>
       <c r="E401" s="1">
         <v>0.65</v>
@@ -18085,16 +18108,16 @@
     </row>
     <row r="402" spans="1:14">
       <c r="A402">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="B402" t="s">
-        <v>548</v>
+        <v>485</v>
       </c>
       <c r="C402" t="s">
-        <v>549</v>
+        <v>486</v>
       </c>
       <c r="D402">
-        <v>680</v>
+        <v>1004</v>
       </c>
       <c r="E402" s="1">
         <v>0.65</v>
@@ -18118,16 +18141,16 @@
     </row>
     <row r="403" spans="1:14">
       <c r="A403">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="B403" t="s">
-        <v>571</v>
+        <v>536</v>
       </c>
       <c r="C403" t="s">
-        <v>572</v>
+        <v>537</v>
       </c>
       <c r="D403">
-        <v>403</v>
+        <v>997</v>
       </c>
       <c r="E403" s="1">
         <v>0.65</v>
@@ -18151,16 +18174,16 @@
     </row>
     <row r="404" spans="1:14">
       <c r="A404">
-        <v>334</v>
+        <v>280</v>
       </c>
       <c r="B404" t="s">
-        <v>654</v>
+        <v>548</v>
       </c>
       <c r="C404" t="s">
-        <v>655</v>
+        <v>549</v>
       </c>
       <c r="D404">
-        <v>310</v>
+        <v>680</v>
       </c>
       <c r="E404" s="1">
         <v>0.65</v>
@@ -18184,16 +18207,16 @@
     </row>
     <row r="405" spans="1:14">
       <c r="A405">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="B405" t="s">
-        <v>654</v>
+        <v>571</v>
       </c>
       <c r="C405" t="s">
-        <v>656</v>
+        <v>572</v>
       </c>
       <c r="D405">
-        <v>334</v>
+        <v>403</v>
       </c>
       <c r="E405" s="1">
         <v>0.65</v>
@@ -18217,16 +18240,16 @@
     </row>
     <row r="406" spans="1:14">
       <c r="A406">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="B406" t="s">
-        <v>689</v>
+        <v>654</v>
       </c>
       <c r="C406" t="s">
-        <v>690</v>
+        <v>655</v>
       </c>
       <c r="D406">
-        <v>263</v>
+        <v>310</v>
       </c>
       <c r="E406" s="1">
         <v>0.65</v>
@@ -18250,16 +18273,16 @@
     </row>
     <row r="407" spans="1:14">
       <c r="A407">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="B407" t="s">
-        <v>721</v>
+        <v>654</v>
       </c>
       <c r="C407" t="s">
-        <v>722</v>
+        <v>656</v>
       </c>
       <c r="D407">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="E407" s="1">
         <v>0.65</v>
@@ -18283,16 +18306,16 @@
     </row>
     <row r="408" spans="1:14">
       <c r="A408">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="B408" t="s">
-        <v>749</v>
+        <v>689</v>
       </c>
       <c r="C408" t="s">
-        <v>750</v>
+        <v>690</v>
       </c>
       <c r="D408">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="E408" s="1">
         <v>0.65</v>
@@ -18316,23 +18339,20 @@
     </row>
     <row r="409" spans="1:14">
       <c r="A409">
-        <v>433</v>
+        <v>370</v>
       </c>
       <c r="B409" t="s">
-        <v>847</v>
+        <v>721</v>
       </c>
       <c r="C409" t="s">
-        <v>848</v>
+        <v>722</v>
       </c>
       <c r="D409">
-        <v>283</v>
+        <v>350</v>
       </c>
       <c r="E409" s="1">
         <v>0.65</v>
       </c>
-      <c r="G409" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K409" t="str">
         <f>IF(NOT(OR(F409="", G409="")),"Yes","")</f>
         <v/>
@@ -18352,16 +18372,16 @@
     </row>
     <row r="410" spans="1:14">
       <c r="A410">
-        <v>441</v>
+        <v>384</v>
       </c>
       <c r="B410" t="s">
-        <v>863</v>
+        <v>749</v>
       </c>
       <c r="C410" t="s">
-        <v>864</v>
+        <v>750</v>
       </c>
       <c r="D410">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="E410" s="1">
         <v>0.65</v>
@@ -18385,20 +18405,23 @@
     </row>
     <row r="411" spans="1:14">
       <c r="A411">
-        <v>466</v>
+        <v>433</v>
       </c>
       <c r="B411" t="s">
-        <v>911</v>
+        <v>847</v>
       </c>
       <c r="C411" t="s">
-        <v>912</v>
+        <v>848</v>
       </c>
       <c r="D411">
-        <v>175</v>
+        <v>283</v>
       </c>
       <c r="E411" s="1">
         <v>0.65</v>
       </c>
+      <c r="G411" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K411" t="str">
         <f>IF(NOT(OR(F411="", G411="")),"Yes","")</f>
         <v/>
@@ -18418,16 +18441,16 @@
     </row>
     <row r="412" spans="1:14">
       <c r="A412">
-        <v>470</v>
+        <v>441</v>
       </c>
       <c r="B412" t="s">
-        <v>919</v>
+        <v>863</v>
       </c>
       <c r="C412" t="s">
-        <v>920</v>
+        <v>864</v>
       </c>
       <c r="D412">
-        <v>129</v>
+        <v>209</v>
       </c>
       <c r="E412" s="1">
         <v>0.65</v>
@@ -18451,16 +18474,16 @@
     </row>
     <row r="413" spans="1:14">
       <c r="A413">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="B413" t="s">
-        <v>933</v>
+        <v>911</v>
       </c>
       <c r="C413" t="s">
-        <v>934</v>
+        <v>912</v>
       </c>
       <c r="D413">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="E413" s="1">
         <v>0.65</v>
@@ -18484,16 +18507,16 @@
     </row>
     <row r="414" spans="1:14">
       <c r="A414">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="B414" t="s">
-        <v>942</v>
+        <v>919</v>
       </c>
       <c r="C414" t="s">
-        <v>943</v>
+        <v>920</v>
       </c>
       <c r="D414">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E414" s="1">
         <v>0.65</v>
@@ -18516,20 +18539,20 @@
       </c>
     </row>
     <row r="415" spans="1:14">
-      <c r="A415" s="2">
-        <v>156</v>
+      <c r="A415">
+        <v>477</v>
       </c>
       <c r="B415" t="s">
-        <v>312</v>
+        <v>933</v>
       </c>
       <c r="C415" t="s">
-        <v>313</v>
+        <v>934</v>
       </c>
       <c r="D415">
-        <v>1464</v>
+        <v>153</v>
       </c>
       <c r="E415" s="1">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="K415" t="str">
         <f>IF(NOT(OR(F415="", G415="")),"Yes","")</f>
@@ -18549,20 +18572,20 @@
       </c>
     </row>
     <row r="416" spans="1:14">
-      <c r="A416" s="2">
-        <v>161</v>
+      <c r="A416">
+        <v>481</v>
       </c>
       <c r="B416" t="s">
-        <v>322</v>
+        <v>942</v>
       </c>
       <c r="C416" t="s">
-        <v>323</v>
+        <v>943</v>
       </c>
       <c r="D416">
-        <v>1303</v>
+        <v>138</v>
       </c>
       <c r="E416" s="1">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="K416" t="str">
         <f>IF(NOT(OR(F416="", G416="")),"Yes","")</f>
@@ -18583,26 +18606,20 @@
     </row>
     <row r="417" spans="1:14">
       <c r="A417" s="2">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B417" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="C417" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="D417">
-        <v>1168</v>
+        <v>1464</v>
       </c>
       <c r="E417" s="1">
         <v>0.7</v>
       </c>
-      <c r="G417" s="4" t="s">
-        <v>1047</v>
-      </c>
-      <c r="J417" s="4" t="s">
-        <v>1050</v>
-      </c>
       <c r="K417" t="str">
         <f>IF(NOT(OR(F417="", G417="")),"Yes","")</f>
         <v/>
@@ -18622,16 +18639,16 @@
     </row>
     <row r="418" spans="1:14">
       <c r="A418" s="2">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B418" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="C418" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="D418">
-        <v>1231</v>
+        <v>1303</v>
       </c>
       <c r="E418" s="1">
         <v>0.7</v>
@@ -18655,20 +18672,26 @@
     </row>
     <row r="419" spans="1:14">
       <c r="A419" s="2">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B419" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C419" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="D419">
-        <v>1155</v>
+        <v>1168</v>
       </c>
       <c r="E419" s="1">
         <v>0.7</v>
       </c>
+      <c r="G419" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="J419" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="K419" t="str">
         <f>IF(NOT(OR(F419="", G419="")),"Yes","")</f>
         <v/>
@@ -18688,16 +18711,16 @@
     </row>
     <row r="420" spans="1:14">
       <c r="A420" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B420" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="C420" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="D420">
-        <v>1227</v>
+        <v>1231</v>
       </c>
       <c r="E420" s="1">
         <v>0.7</v>
@@ -18721,23 +18744,20 @@
     </row>
     <row r="421" spans="1:14">
       <c r="A421" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B421" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C421" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="D421">
-        <v>1249</v>
+        <v>1155</v>
       </c>
       <c r="E421" s="1">
         <v>0.7</v>
       </c>
-      <c r="G421" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K421" t="str">
         <f>IF(NOT(OR(F421="", G421="")),"Yes","")</f>
         <v/>
@@ -18757,23 +18777,20 @@
     </row>
     <row r="422" spans="1:14">
       <c r="A422" s="2">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="B422" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="C422" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="D422">
-        <v>1301</v>
+        <v>1227</v>
       </c>
       <c r="E422" s="1">
         <v>0.7</v>
       </c>
-      <c r="J422" s="4" t="s">
-        <v>1050</v>
-      </c>
       <c r="K422" t="str">
         <f>IF(NOT(OR(F422="", G422="")),"Yes","")</f>
         <v/>
@@ -18793,16 +18810,16 @@
     </row>
     <row r="423" spans="1:14">
       <c r="A423" s="2">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="B423" t="s">
-        <v>397</v>
+        <v>361</v>
       </c>
       <c r="C423" t="s">
-        <v>398</v>
+        <v>362</v>
       </c>
       <c r="D423">
-        <v>1189</v>
+        <v>1249</v>
       </c>
       <c r="E423" s="1">
         <v>0.7</v>
@@ -18828,21 +18845,24 @@
       </c>
     </row>
     <row r="424" spans="1:14">
-      <c r="A424">
-        <v>208</v>
+      <c r="A424" s="2">
+        <v>189</v>
       </c>
       <c r="B424" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="C424" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="D424">
-        <v>1144</v>
+        <v>1301</v>
       </c>
       <c r="E424" s="1">
         <v>0.7</v>
       </c>
+      <c r="J424" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="K424" t="str">
         <f>IF(NOT(OR(F424="", G424="")),"Yes","")</f>
         <v/>
@@ -18861,23 +18881,23 @@
       </c>
     </row>
     <row r="425" spans="1:14">
-      <c r="A425">
-        <v>210</v>
+      <c r="A425" s="2">
+        <v>199</v>
       </c>
       <c r="B425" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="C425" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="D425">
-        <v>1145</v>
+        <v>1189</v>
       </c>
       <c r="E425" s="1">
         <v>0.7</v>
       </c>
-      <c r="I425" t="s">
-        <v>1049</v>
+      <c r="G425" s="4" t="s">
+        <v>1047</v>
       </c>
       <c r="K425" t="str">
         <f>IF(NOT(OR(F425="", G425="")),"Yes","")</f>
@@ -18898,16 +18918,16 @@
     </row>
     <row r="426" spans="1:14">
       <c r="A426">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B426" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C426" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D426">
-        <v>934</v>
+        <v>1144</v>
       </c>
       <c r="E426" s="1">
         <v>0.7</v>
@@ -18931,20 +18951,23 @@
     </row>
     <row r="427" spans="1:14">
       <c r="A427">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B427" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="C427" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="D427">
-        <v>983</v>
+        <v>1145</v>
       </c>
       <c r="E427" s="1">
         <v>0.7</v>
       </c>
+      <c r="I427" t="s">
+        <v>1049</v>
+      </c>
       <c r="K427" t="str">
         <f>IF(NOT(OR(F427="", G427="")),"Yes","")</f>
         <v/>
@@ -18964,23 +18987,20 @@
     </row>
     <row r="428" spans="1:14">
       <c r="A428">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B428" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="C428" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="D428">
-        <v>1041</v>
+        <v>934</v>
       </c>
       <c r="E428" s="1">
         <v>0.7</v>
       </c>
-      <c r="J428" s="4" t="s">
-        <v>1050</v>
-      </c>
       <c r="K428" t="str">
         <f>IF(NOT(OR(F428="", G428="")),"Yes","")</f>
         <v/>
@@ -19000,26 +19020,20 @@
     </row>
     <row r="429" spans="1:14">
       <c r="A429">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B429" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="C429" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="D429">
-        <v>949</v>
+        <v>983</v>
       </c>
       <c r="E429" s="1">
         <v>0.7</v>
       </c>
-      <c r="G429" s="4" t="s">
-        <v>1047</v>
-      </c>
-      <c r="J429" s="4" t="s">
-        <v>1050</v>
-      </c>
       <c r="K429" t="str">
         <f>IF(NOT(OR(F429="", G429="")),"Yes","")</f>
         <v/>
@@ -19039,20 +19053,23 @@
     </row>
     <row r="430" spans="1:14">
       <c r="A430">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B430" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="D430">
-        <v>915</v>
+        <v>1041</v>
       </c>
       <c r="E430" s="1">
         <v>0.7</v>
       </c>
+      <c r="J430" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="K430" t="str">
         <f>IF(NOT(OR(F430="", G430="")),"Yes","")</f>
         <v/>
@@ -19072,16 +19089,16 @@
     </row>
     <row r="431" spans="1:14">
       <c r="A431">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B431" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="C431" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D431">
-        <v>992</v>
+        <v>949</v>
       </c>
       <c r="E431" s="1">
         <v>0.7</v>
@@ -19089,6 +19106,9 @@
       <c r="G431" s="4" t="s">
         <v>1047</v>
       </c>
+      <c r="J431" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="K431" t="str">
         <f>IF(NOT(OR(F431="", G431="")),"Yes","")</f>
         <v/>
@@ -19108,26 +19128,20 @@
     </row>
     <row r="432" spans="1:14">
       <c r="A432">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B432" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="C432" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="D432">
-        <v>1387</v>
+        <v>915</v>
       </c>
       <c r="E432" s="1">
         <v>0.7</v>
       </c>
-      <c r="G432" s="4" t="s">
-        <v>1047</v>
-      </c>
-      <c r="H432" t="s">
-        <v>1048</v>
-      </c>
       <c r="K432" t="str">
         <f>IF(NOT(OR(F432="", G432="")),"Yes","")</f>
         <v/>
@@ -19147,20 +19161,23 @@
     </row>
     <row r="433" spans="1:14">
       <c r="A433">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B433" t="s">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="C433" t="s">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="D433">
-        <v>873</v>
+        <v>992</v>
       </c>
       <c r="E433" s="1">
         <v>0.7</v>
       </c>
+      <c r="G433" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K433" t="str">
         <f>IF(NOT(OR(F433="", G433="")),"Yes","")</f>
         <v/>
@@ -19180,20 +19197,26 @@
     </row>
     <row r="434" spans="1:14">
       <c r="A434">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="B434" t="s">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="C434" t="s">
-        <v>488</v>
+        <v>458</v>
       </c>
       <c r="D434">
-        <v>851</v>
+        <v>1387</v>
       </c>
       <c r="E434" s="1">
         <v>0.7</v>
       </c>
+      <c r="G434" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H434" t="s">
+        <v>1048</v>
+      </c>
       <c r="K434" t="str">
         <f>IF(NOT(OR(F434="", G434="")),"Yes","")</f>
         <v/>
@@ -19213,23 +19236,20 @@
     </row>
     <row r="435" spans="1:14">
       <c r="A435">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B435" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="C435" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="D435">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="E435" s="1">
         <v>0.7</v>
       </c>
-      <c r="G435" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K435" t="str">
         <f>IF(NOT(OR(F435="", G435="")),"Yes","")</f>
         <v/>
@@ -19249,16 +19269,16 @@
     </row>
     <row r="436" spans="1:14">
       <c r="A436">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B436" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="C436" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="D436">
-        <v>963</v>
+        <v>851</v>
       </c>
       <c r="E436" s="1">
         <v>0.7</v>
@@ -19282,20 +19302,23 @@
     </row>
     <row r="437" spans="1:14">
       <c r="A437">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B437" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="C437" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="D437">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E437" s="1">
         <v>0.7</v>
       </c>
+      <c r="G437" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K437" t="str">
         <f>IF(NOT(OR(F437="", G437="")),"Yes","")</f>
         <v/>
@@ -19315,23 +19338,20 @@
     </row>
     <row r="438" spans="1:14">
       <c r="A438">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B438" t="s">
-        <v>534</v>
+        <v>505</v>
       </c>
       <c r="C438" t="s">
-        <v>535</v>
+        <v>506</v>
       </c>
       <c r="D438">
-        <v>892</v>
+        <v>963</v>
       </c>
       <c r="E438" s="1">
         <v>0.7</v>
       </c>
-      <c r="J438" s="4" t="s">
-        <v>1050</v>
-      </c>
       <c r="K438" t="str">
         <f>IF(NOT(OR(F438="", G438="")),"Yes","")</f>
         <v/>
@@ -19351,16 +19371,16 @@
     </row>
     <row r="439" spans="1:14">
       <c r="A439">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="B439" t="s">
-        <v>552</v>
+        <v>509</v>
       </c>
       <c r="C439" t="s">
-        <v>553</v>
+        <v>510</v>
       </c>
       <c r="D439">
-        <v>647</v>
+        <v>880</v>
       </c>
       <c r="E439" s="1">
         <v>0.7</v>
@@ -19384,23 +19404,20 @@
     </row>
     <row r="440" spans="1:14">
       <c r="A440">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B440" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="C440" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="D440">
-        <v>451</v>
+        <v>892</v>
       </c>
       <c r="E440" s="1">
         <v>0.7</v>
       </c>
-      <c r="G440" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="J440" s="4" t="s">
         <v>1050</v>
       </c>
@@ -19423,23 +19440,20 @@
     </row>
     <row r="441" spans="1:14">
       <c r="A441">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="B441" t="s">
-        <v>609</v>
+        <v>552</v>
       </c>
       <c r="C441" t="s">
-        <v>610</v>
+        <v>553</v>
       </c>
       <c r="D441">
-        <v>304</v>
+        <v>647</v>
       </c>
       <c r="E441" s="1">
         <v>0.7</v>
       </c>
-      <c r="G441" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K441" t="str">
         <f>IF(NOT(OR(F441="", G441="")),"Yes","")</f>
         <v/>
@@ -19459,20 +19473,26 @@
     </row>
     <row r="442" spans="1:14">
       <c r="A442">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="B442" t="s">
-        <v>630</v>
+        <v>554</v>
       </c>
       <c r="C442" t="s">
-        <v>631</v>
+        <v>555</v>
       </c>
       <c r="D442">
-        <v>305</v>
+        <v>451</v>
       </c>
       <c r="E442" s="1">
         <v>0.7</v>
       </c>
+      <c r="G442" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="J442" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="K442" t="str">
         <f>IF(NOT(OR(F442="", G442="")),"Yes","")</f>
         <v/>
@@ -19492,20 +19512,23 @@
     </row>
     <row r="443" spans="1:14">
       <c r="A443">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="B443" t="s">
-        <v>646</v>
+        <v>609</v>
       </c>
       <c r="C443" t="s">
-        <v>647</v>
+        <v>610</v>
       </c>
       <c r="D443">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="E443" s="1">
         <v>0.7</v>
       </c>
+      <c r="G443" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K443" t="str">
         <f>IF(NOT(OR(F443="", G443="")),"Yes","")</f>
         <v/>
@@ -19525,23 +19548,20 @@
     </row>
     <row r="444" spans="1:14">
       <c r="A444">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B444" t="s">
-        <v>659</v>
+        <v>630</v>
       </c>
       <c r="C444" t="s">
-        <v>660</v>
+        <v>631</v>
       </c>
       <c r="D444">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="E444" s="1">
         <v>0.7</v>
       </c>
-      <c r="G444" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K444" t="str">
         <f>IF(NOT(OR(F444="", G444="")),"Yes","")</f>
         <v/>
@@ -19561,23 +19581,20 @@
     </row>
     <row r="445" spans="1:14">
       <c r="A445">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B445" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="C445" t="s">
-        <v>664</v>
+        <v>647</v>
       </c>
       <c r="D445">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="E445" s="1">
         <v>0.7</v>
       </c>
-      <c r="J445" s="4" t="s">
-        <v>1050</v>
-      </c>
       <c r="K445" t="str">
         <f>IF(NOT(OR(F445="", G445="")),"Yes","")</f>
         <v/>
@@ -19597,20 +19614,23 @@
     </row>
     <row r="446" spans="1:14">
       <c r="A446">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B446" t="s">
-        <v>691</v>
+        <v>659</v>
       </c>
       <c r="C446" t="s">
-        <v>692</v>
+        <v>660</v>
       </c>
       <c r="D446">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E446" s="1">
         <v>0.7</v>
       </c>
+      <c r="G446" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K446" t="str">
         <f>IF(NOT(OR(F446="", G446="")),"Yes","")</f>
         <v/>
@@ -19630,20 +19650,23 @@
     </row>
     <row r="447" spans="1:14">
       <c r="A447">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="B447" t="s">
-        <v>705</v>
+        <v>663</v>
       </c>
       <c r="C447" t="s">
-        <v>706</v>
+        <v>664</v>
       </c>
       <c r="D447">
-        <v>309</v>
+        <v>375</v>
       </c>
       <c r="E447" s="1">
         <v>0.7</v>
       </c>
+      <c r="J447" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="K447" t="str">
         <f>IF(NOT(OR(F447="", G447="")),"Yes","")</f>
         <v/>
@@ -19663,16 +19686,16 @@
     </row>
     <row r="448" spans="1:14">
       <c r="A448">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="B448" t="s">
-        <v>733</v>
+        <v>691</v>
       </c>
       <c r="C448" t="s">
-        <v>734</v>
+        <v>692</v>
       </c>
       <c r="D448">
-        <v>188</v>
+        <v>339</v>
       </c>
       <c r="E448" s="1">
         <v>0.7</v>
@@ -19696,23 +19719,20 @@
     </row>
     <row r="449" spans="1:14">
       <c r="A449">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="B449" t="s">
-        <v>739</v>
+        <v>705</v>
       </c>
       <c r="C449" t="s">
-        <v>740</v>
+        <v>706</v>
       </c>
       <c r="D449">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E449" s="1">
         <v>0.7</v>
       </c>
-      <c r="G449" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K449" t="str">
         <f>IF(NOT(OR(F449="", G449="")),"Yes","")</f>
         <v/>
@@ -19732,23 +19752,20 @@
     </row>
     <row r="450" spans="1:14">
       <c r="A450">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B450" t="s">
-        <v>751</v>
+        <v>733</v>
       </c>
       <c r="C450" t="s">
-        <v>752</v>
+        <v>734</v>
       </c>
       <c r="D450">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E450" s="1">
         <v>0.7</v>
       </c>
-      <c r="J450" s="4" t="s">
-        <v>1050</v>
-      </c>
       <c r="K450" t="str">
         <f>IF(NOT(OR(F450="", G450="")),"Yes","")</f>
         <v/>
@@ -19768,16 +19785,16 @@
     </row>
     <row r="451" spans="1:14">
       <c r="A451">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="B451" t="s">
-        <v>775</v>
+        <v>739</v>
       </c>
       <c r="C451" t="s">
-        <v>776</v>
+        <v>740</v>
       </c>
       <c r="D451">
-        <v>177</v>
+        <v>307</v>
       </c>
       <c r="E451" s="1">
         <v>0.7</v>
@@ -19804,20 +19821,23 @@
     </row>
     <row r="452" spans="1:14">
       <c r="A452">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="B452" t="s">
-        <v>801</v>
+        <v>751</v>
       </c>
       <c r="C452" t="s">
-        <v>802</v>
+        <v>752</v>
       </c>
       <c r="D452">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="E452" s="1">
         <v>0.7</v>
       </c>
+      <c r="J452" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="K452" t="str">
         <f>IF(NOT(OR(F452="", G452="")),"Yes","")</f>
         <v/>
@@ -19837,20 +19857,23 @@
     </row>
     <row r="453" spans="1:14">
       <c r="A453">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="B453" t="s">
-        <v>845</v>
+        <v>775</v>
       </c>
       <c r="C453" t="s">
-        <v>846</v>
+        <v>776</v>
       </c>
       <c r="D453">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="E453" s="1">
         <v>0.7</v>
       </c>
+      <c r="G453" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K453" t="str">
         <f>IF(NOT(OR(F453="", G453="")),"Yes","")</f>
         <v/>
@@ -19870,16 +19893,16 @@
     </row>
     <row r="454" spans="1:14">
       <c r="A454">
-        <v>468</v>
+        <v>410</v>
       </c>
       <c r="B454" t="s">
-        <v>915</v>
+        <v>801</v>
       </c>
       <c r="C454" t="s">
-        <v>916</v>
+        <v>802</v>
       </c>
       <c r="D454">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="E454" s="1">
         <v>0.7</v>
@@ -19903,16 +19926,16 @@
     </row>
     <row r="455" spans="1:14">
       <c r="A455">
-        <v>486</v>
+        <v>432</v>
       </c>
       <c r="B455" t="s">
-        <v>952</v>
+        <v>845</v>
       </c>
       <c r="C455" t="s">
-        <v>953</v>
+        <v>846</v>
       </c>
       <c r="D455">
-        <v>142</v>
+        <v>250</v>
       </c>
       <c r="E455" s="1">
         <v>0.7</v>
@@ -19936,16 +19959,16 @@
     </row>
     <row r="456" spans="1:14">
       <c r="A456">
-        <v>524</v>
+        <v>468</v>
       </c>
       <c r="B456" t="s">
-        <v>1025</v>
+        <v>915</v>
       </c>
       <c r="C456" t="s">
-        <v>1027</v>
+        <v>916</v>
       </c>
       <c r="D456">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="E456" s="1">
         <v>0.7</v>
@@ -19968,23 +19991,20 @@
       </c>
     </row>
     <row r="457" spans="1:14">
-      <c r="A457" s="2">
-        <v>167</v>
+      <c r="A457">
+        <v>486</v>
       </c>
       <c r="B457" t="s">
-        <v>334</v>
+        <v>952</v>
       </c>
       <c r="C457" t="s">
-        <v>335</v>
+        <v>953</v>
       </c>
       <c r="D457">
-        <v>1063</v>
+        <v>142</v>
       </c>
       <c r="E457" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="G457" s="4" t="s">
-        <v>1047</v>
+        <v>0.7</v>
       </c>
       <c r="K457" t="str">
         <f>IF(NOT(OR(F457="", G457="")),"Yes","")</f>
@@ -20004,20 +20024,20 @@
       </c>
     </row>
     <row r="458" spans="1:14">
-      <c r="A458" s="2">
-        <v>180</v>
+      <c r="A458">
+        <v>524</v>
       </c>
       <c r="B458" t="s">
-        <v>359</v>
+        <v>1025</v>
       </c>
       <c r="C458" t="s">
-        <v>360</v>
+        <v>1027</v>
       </c>
       <c r="D458">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="E458" s="1">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="K458" t="str">
         <f>IF(NOT(OR(F458="", G458="")),"Yes","")</f>
@@ -20038,20 +20058,23 @@
     </row>
     <row r="459" spans="1:14">
       <c r="A459" s="2">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="B459" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="C459" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="D459">
-        <v>1026</v>
+        <v>1063</v>
       </c>
       <c r="E459" s="1">
         <v>0.75</v>
       </c>
+      <c r="G459" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K459" t="str">
         <f>IF(NOT(OR(F459="", G459="")),"Yes","")</f>
         <v/>
@@ -20071,13 +20094,13 @@
     </row>
     <row r="460" spans="1:14">
       <c r="A460" s="2">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B460" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="C460" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="D460">
         <v>980</v>
@@ -20104,16 +20127,16 @@
     </row>
     <row r="461" spans="1:14">
       <c r="A461" s="2">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B461" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="C461" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="D461">
-        <v>872</v>
+        <v>1026</v>
       </c>
       <c r="E461" s="1">
         <v>0.75</v>
@@ -20137,23 +20160,20 @@
     </row>
     <row r="462" spans="1:14">
       <c r="A462" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B462" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C462" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D462">
-        <v>823</v>
+        <v>980</v>
       </c>
       <c r="E462" s="1">
         <v>0.75</v>
       </c>
-      <c r="J462" s="4" t="s">
-        <v>1050</v>
-      </c>
       <c r="K462" t="str">
         <f>IF(NOT(OR(F462="", G462="")),"Yes","")</f>
         <v/>
@@ -20172,17 +20192,17 @@
       </c>
     </row>
     <row r="463" spans="1:14">
-      <c r="A463">
-        <v>224</v>
+      <c r="A463" s="2">
+        <v>194</v>
       </c>
       <c r="B463" t="s">
-        <v>439</v>
+        <v>387</v>
       </c>
       <c r="C463" t="s">
-        <v>441</v>
+        <v>388</v>
       </c>
       <c r="D463">
-        <v>780</v>
+        <v>872</v>
       </c>
       <c r="E463" s="1">
         <v>0.75</v>
@@ -20205,21 +20225,24 @@
       </c>
     </row>
     <row r="464" spans="1:14">
-      <c r="A464">
-        <v>238</v>
+      <c r="A464" s="2">
+        <v>195</v>
       </c>
       <c r="B464" t="s">
-        <v>467</v>
+        <v>389</v>
       </c>
       <c r="C464" t="s">
-        <v>468</v>
+        <v>390</v>
       </c>
       <c r="D464">
-        <v>668</v>
+        <v>823</v>
       </c>
       <c r="E464" s="1">
         <v>0.75</v>
       </c>
+      <c r="J464" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="K464" t="str">
         <f>IF(NOT(OR(F464="", G464="")),"Yes","")</f>
         <v/>
@@ -20239,16 +20262,16 @@
     </row>
     <row r="465" spans="1:14">
       <c r="A465">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="B465" t="s">
-        <v>475</v>
+        <v>439</v>
       </c>
       <c r="C465" t="s">
-        <v>476</v>
+        <v>441</v>
       </c>
       <c r="D465">
-        <v>708</v>
+        <v>780</v>
       </c>
       <c r="E465" s="1">
         <v>0.75</v>
@@ -20272,23 +20295,20 @@
     </row>
     <row r="466" spans="1:14">
       <c r="A466">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="B466" t="s">
-        <v>495</v>
+        <v>467</v>
       </c>
       <c r="C466" t="s">
-        <v>496</v>
+        <v>468</v>
       </c>
       <c r="D466">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="E466" s="1">
         <v>0.75</v>
       </c>
-      <c r="I466" t="s">
-        <v>1049</v>
-      </c>
       <c r="K466" t="str">
         <f>IF(NOT(OR(F466="", G466="")),"Yes","")</f>
         <v/>
@@ -20308,16 +20328,16 @@
     </row>
     <row r="467" spans="1:14">
       <c r="A467">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B467" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="C467" t="s">
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="D467">
-        <v>647</v>
+        <v>708</v>
       </c>
       <c r="E467" s="1">
         <v>0.75</v>
@@ -20341,20 +20361,23 @@
     </row>
     <row r="468" spans="1:14">
       <c r="A468">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B468" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C468" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D468">
-        <v>620</v>
+        <v>681</v>
       </c>
       <c r="E468" s="1">
         <v>0.75</v>
       </c>
+      <c r="I468" t="s">
+        <v>1049</v>
+      </c>
       <c r="K468" t="str">
         <f>IF(NOT(OR(F468="", G468="")),"Yes","")</f>
         <v/>
@@ -20374,23 +20397,20 @@
     </row>
     <row r="469" spans="1:14">
       <c r="A469">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B469" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="C469" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="D469">
-        <v>718</v>
+        <v>647</v>
       </c>
       <c r="E469" s="1">
         <v>0.75</v>
       </c>
-      <c r="G469" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K469" t="str">
         <f>IF(NOT(OR(F469="", G469="")),"Yes","")</f>
         <v/>
@@ -20410,23 +20430,20 @@
     </row>
     <row r="470" spans="1:14">
       <c r="A470">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="B470" t="s">
-        <v>540</v>
+        <v>499</v>
       </c>
       <c r="C470" t="s">
-        <v>541</v>
+        <v>500</v>
       </c>
       <c r="D470">
-        <v>713</v>
+        <v>620</v>
       </c>
       <c r="E470" s="1">
         <v>0.75</v>
       </c>
-      <c r="I470" t="s">
-        <v>1049</v>
-      </c>
       <c r="K470" t="str">
         <f>IF(NOT(OR(F470="", G470="")),"Yes","")</f>
         <v/>
@@ -20446,20 +20463,23 @@
     </row>
     <row r="471" spans="1:14">
       <c r="A471">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="B471" t="s">
-        <v>577</v>
+        <v>515</v>
       </c>
       <c r="C471" t="s">
-        <v>578</v>
+        <v>516</v>
       </c>
       <c r="D471">
-        <v>333</v>
+        <v>718</v>
       </c>
       <c r="E471" s="1">
         <v>0.75</v>
       </c>
+      <c r="G471" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K471" t="str">
         <f>IF(NOT(OR(F471="", G471="")),"Yes","")</f>
         <v/>
@@ -20479,22 +20499,22 @@
     </row>
     <row r="472" spans="1:14">
       <c r="A472">
-        <v>373</v>
+        <v>276</v>
       </c>
       <c r="B472" t="s">
-        <v>727</v>
+        <v>540</v>
       </c>
       <c r="C472" t="s">
-        <v>728</v>
+        <v>541</v>
       </c>
       <c r="D472">
-        <v>240</v>
+        <v>713</v>
       </c>
       <c r="E472" s="1">
         <v>0.75</v>
       </c>
-      <c r="G472" s="4" t="s">
-        <v>1047</v>
+      <c r="I472" t="s">
+        <v>1049</v>
       </c>
       <c r="K472" t="str">
         <f>IF(NOT(OR(F472="", G472="")),"Yes","")</f>
@@ -20515,23 +20535,20 @@
     </row>
     <row r="473" spans="1:14">
       <c r="A473">
-        <v>391</v>
+        <v>295</v>
       </c>
       <c r="B473" t="s">
-        <v>763</v>
+        <v>577</v>
       </c>
       <c r="C473" t="s">
-        <v>764</v>
+        <v>578</v>
       </c>
       <c r="D473">
-        <v>197</v>
+        <v>333</v>
       </c>
       <c r="E473" s="1">
         <v>0.75</v>
       </c>
-      <c r="J473" s="4" t="s">
-        <v>1050</v>
-      </c>
       <c r="K473" t="str">
         <f>IF(NOT(OR(F473="", G473="")),"Yes","")</f>
         <v/>
@@ -20551,20 +20568,23 @@
     </row>
     <row r="474" spans="1:14">
       <c r="A474">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="B474" t="s">
-        <v>807</v>
+        <v>727</v>
       </c>
       <c r="C474" t="s">
-        <v>808</v>
+        <v>728</v>
       </c>
       <c r="D474">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E474" s="1">
         <v>0.75</v>
       </c>
+      <c r="G474" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K474" t="str">
         <f>IF(NOT(OR(F474="", G474="")),"Yes","")</f>
         <v/>
@@ -20584,20 +20604,23 @@
     </row>
     <row r="475" spans="1:14">
       <c r="A475">
-        <v>422</v>
+        <v>391</v>
       </c>
       <c r="B475" t="s">
-        <v>825</v>
+        <v>763</v>
       </c>
       <c r="C475" t="s">
-        <v>826</v>
+        <v>764</v>
       </c>
       <c r="D475">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="E475" s="1">
         <v>0.75</v>
       </c>
+      <c r="J475" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="K475" t="str">
         <f>IF(NOT(OR(F475="", G475="")),"Yes","")</f>
         <v/>
@@ -20617,16 +20640,16 @@
     </row>
     <row r="476" spans="1:14">
       <c r="A476">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="B476" t="s">
-        <v>833</v>
+        <v>807</v>
       </c>
       <c r="C476" t="s">
-        <v>834</v>
+        <v>808</v>
       </c>
       <c r="D476">
-        <v>161</v>
+        <v>238</v>
       </c>
       <c r="E476" s="1">
         <v>0.75</v>
@@ -20650,16 +20673,16 @@
     </row>
     <row r="477" spans="1:14">
       <c r="A477">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="B477" t="s">
-        <v>849</v>
+        <v>825</v>
       </c>
       <c r="C477" t="s">
-        <v>850</v>
+        <v>826</v>
       </c>
       <c r="D477">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="E477" s="1">
         <v>0.75</v>
@@ -20683,16 +20706,16 @@
     </row>
     <row r="478" spans="1:14">
       <c r="A478">
-        <v>471</v>
+        <v>426</v>
       </c>
       <c r="B478" t="s">
-        <v>921</v>
+        <v>833</v>
       </c>
       <c r="C478" t="s">
-        <v>922</v>
+        <v>834</v>
       </c>
       <c r="D478">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="E478" s="1">
         <v>0.75</v>
@@ -20715,20 +20738,20 @@
       </c>
     </row>
     <row r="479" spans="1:14">
-      <c r="A479" s="2">
-        <v>177</v>
+      <c r="A479">
+        <v>434</v>
       </c>
       <c r="B479" t="s">
-        <v>353</v>
+        <v>849</v>
       </c>
       <c r="C479" t="s">
-        <v>354</v>
+        <v>850</v>
       </c>
       <c r="D479">
-        <v>801</v>
+        <v>219</v>
       </c>
       <c r="E479" s="1">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="K479" t="str">
         <f>IF(NOT(OR(F479="", G479="")),"Yes","")</f>
@@ -20748,20 +20771,20 @@
       </c>
     </row>
     <row r="480" spans="1:14">
-      <c r="A480" s="2">
-        <v>198</v>
+      <c r="A480">
+        <v>471</v>
       </c>
       <c r="B480" t="s">
-        <v>395</v>
+        <v>921</v>
       </c>
       <c r="C480" t="s">
-        <v>396</v>
+        <v>922</v>
       </c>
       <c r="D480">
-        <v>691</v>
+        <v>129</v>
       </c>
       <c r="E480" s="1">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="K480" t="str">
         <f>IF(NOT(OR(F480="", G480="")),"Yes","")</f>
@@ -20781,17 +20804,17 @@
       </c>
     </row>
     <row r="481" spans="1:14">
-      <c r="A481">
-        <v>236</v>
+      <c r="A481" s="2">
+        <v>177</v>
       </c>
       <c r="B481" t="s">
-        <v>463</v>
+        <v>353</v>
       </c>
       <c r="C481" t="s">
-        <v>464</v>
+        <v>354</v>
       </c>
       <c r="D481">
-        <v>643</v>
+        <v>801</v>
       </c>
       <c r="E481" s="1">
         <v>0.8</v>
@@ -20814,27 +20837,21 @@
       </c>
     </row>
     <row r="482" spans="1:14">
-      <c r="A482">
-        <v>241</v>
+      <c r="A482" s="2">
+        <v>198</v>
       </c>
       <c r="B482" t="s">
-        <v>473</v>
+        <v>395</v>
       </c>
       <c r="C482" t="s">
-        <v>474</v>
+        <v>396</v>
       </c>
       <c r="D482">
-        <v>600</v>
+        <v>691</v>
       </c>
       <c r="E482" s="1">
         <v>0.8</v>
       </c>
-      <c r="G482" s="4" t="s">
-        <v>1047</v>
-      </c>
-      <c r="J482" s="4" t="s">
-        <v>1050</v>
-      </c>
       <c r="K482" t="str">
         <f>IF(NOT(OR(F482="", G482="")),"Yes","")</f>
         <v/>
@@ -20854,16 +20871,16 @@
     </row>
     <row r="483" spans="1:14">
       <c r="A483">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B483" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="C483" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="D483">
-        <v>552</v>
+        <v>643</v>
       </c>
       <c r="E483" s="1">
         <v>0.8</v>
@@ -20887,20 +20904,26 @@
     </row>
     <row r="484" spans="1:14">
       <c r="A484">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B484" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="C484" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="D484">
-        <v>539</v>
+        <v>600</v>
       </c>
       <c r="E484" s="1">
         <v>0.8</v>
       </c>
+      <c r="G484" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="J484" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="K484" t="str">
         <f>IF(NOT(OR(F484="", G484="")),"Yes","")</f>
         <v/>
@@ -20920,16 +20943,16 @@
     </row>
     <row r="485" spans="1:14">
       <c r="A485">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B485" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="C485" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="D485">
-        <v>581</v>
+        <v>552</v>
       </c>
       <c r="E485" s="1">
         <v>0.8</v>
@@ -20953,16 +20976,16 @@
     </row>
     <row r="486" spans="1:14">
       <c r="A486">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B486" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="C486" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="D486">
-        <v>494</v>
+        <v>539</v>
       </c>
       <c r="E486" s="1">
         <v>0.8</v>
@@ -20986,16 +21009,16 @@
     </row>
     <row r="487" spans="1:14">
       <c r="A487">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B487" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="C487" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="D487">
-        <v>487</v>
+        <v>581</v>
       </c>
       <c r="E487" s="1">
         <v>0.8</v>
@@ -21019,23 +21042,20 @@
     </row>
     <row r="488" spans="1:14">
       <c r="A488">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="B488" t="s">
-        <v>527</v>
+        <v>501</v>
       </c>
       <c r="C488" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
       <c r="D488">
-        <v>462</v>
+        <v>494</v>
       </c>
       <c r="E488" s="1">
         <v>0.8</v>
       </c>
-      <c r="G488" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K488" t="str">
         <f>IF(NOT(OR(F488="", G488="")),"Yes","")</f>
         <v/>
@@ -21055,16 +21075,16 @@
     </row>
     <row r="489" spans="1:14">
       <c r="A489">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B489" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="C489" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="D489">
-        <v>452</v>
+        <v>487</v>
       </c>
       <c r="E489" s="1">
         <v>0.8</v>
@@ -21088,20 +21108,23 @@
     </row>
     <row r="490" spans="1:14">
       <c r="A490">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B490" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C490" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D490">
-        <v>600</v>
+        <v>462</v>
       </c>
       <c r="E490" s="1">
         <v>0.8</v>
       </c>
+      <c r="G490" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K490" t="str">
         <f>IF(NOT(OR(F490="", G490="")),"Yes","")</f>
         <v/>
@@ -21121,16 +21144,16 @@
     </row>
     <row r="491" spans="1:14">
       <c r="A491">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="B491" t="s">
-        <v>615</v>
+        <v>529</v>
       </c>
       <c r="C491" t="s">
-        <v>616</v>
+        <v>530</v>
       </c>
       <c r="D491">
-        <v>345</v>
+        <v>452</v>
       </c>
       <c r="E491" s="1">
         <v>0.8</v>
@@ -21154,23 +21177,20 @@
     </row>
     <row r="492" spans="1:14">
       <c r="A492">
-        <v>325</v>
+        <v>272</v>
       </c>
       <c r="B492" t="s">
-        <v>636</v>
+        <v>531</v>
       </c>
       <c r="C492" t="s">
-        <v>637</v>
+        <v>533</v>
       </c>
       <c r="D492">
-        <v>379</v>
+        <v>600</v>
       </c>
       <c r="E492" s="1">
         <v>0.8</v>
       </c>
-      <c r="I492" t="s">
-        <v>1049</v>
-      </c>
       <c r="K492" t="str">
         <f>IF(NOT(OR(F492="", G492="")),"Yes","")</f>
         <v/>
@@ -21190,16 +21210,16 @@
     </row>
     <row r="493" spans="1:14">
       <c r="A493">
-        <v>416</v>
+        <v>314</v>
       </c>
       <c r="B493" t="s">
-        <v>813</v>
+        <v>615</v>
       </c>
       <c r="C493" t="s">
-        <v>814</v>
+        <v>616</v>
       </c>
       <c r="D493">
-        <v>170</v>
+        <v>345</v>
       </c>
       <c r="E493" s="1">
         <v>0.8</v>
@@ -21223,19 +21243,22 @@
     </row>
     <row r="494" spans="1:14">
       <c r="A494">
-        <v>448</v>
+        <v>325</v>
       </c>
       <c r="B494" t="s">
-        <v>875</v>
+        <v>636</v>
       </c>
       <c r="C494" t="s">
-        <v>876</v>
+        <v>637</v>
       </c>
       <c r="D494">
-        <v>185</v>
+        <v>379</v>
       </c>
       <c r="E494" s="1">
         <v>0.8</v>
+      </c>
+      <c r="I494" t="s">
+        <v>1049</v>
       </c>
       <c r="K494" t="str">
         <f>IF(NOT(OR(F494="", G494="")),"Yes","")</f>
@@ -21292,16 +21315,16 @@
     </row>
     <row r="496" spans="1:14">
       <c r="A496">
-        <v>488</v>
+        <v>416</v>
       </c>
       <c r="B496" t="s">
-        <v>956</v>
+        <v>813</v>
       </c>
       <c r="C496" t="s">
-        <v>957</v>
+        <v>814</v>
       </c>
       <c r="D496">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="E496" s="1">
         <v>0.8</v>
@@ -21325,22 +21348,19 @@
     </row>
     <row r="497" spans="1:14">
       <c r="A497">
-        <v>257</v>
+        <v>448</v>
       </c>
       <c r="B497" t="s">
-        <v>503</v>
+        <v>875</v>
       </c>
       <c r="C497" t="s">
-        <v>504</v>
+        <v>876</v>
       </c>
       <c r="D497">
-        <v>444</v>
+        <v>185</v>
       </c>
       <c r="E497" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="G497" s="4" t="s">
-        <v>1047</v>
+        <v>0.8</v>
       </c>
       <c r="K497" t="str">
         <f>IF(NOT(OR(F497="", G497="")),"Yes","")</f>
@@ -21361,22 +21381,19 @@
     </row>
     <row r="498" spans="1:14">
       <c r="A498">
-        <v>261</v>
+        <v>488</v>
       </c>
       <c r="B498" t="s">
-        <v>511</v>
+        <v>956</v>
       </c>
       <c r="C498" t="s">
-        <v>512</v>
+        <v>957</v>
       </c>
       <c r="D498">
-        <v>447</v>
+        <v>135</v>
       </c>
       <c r="E498" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="J498" s="4" t="s">
-        <v>1050</v>
+        <v>0.8</v>
       </c>
       <c r="K498" t="str">
         <f>IF(NOT(OR(F498="", G498="")),"Yes","")</f>
@@ -21397,20 +21414,23 @@
     </row>
     <row r="499" spans="1:14">
       <c r="A499">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B499" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="C499" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="D499">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="E499" s="1">
         <v>0.85</v>
       </c>
+      <c r="G499" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K499" t="str">
         <f>IF(NOT(OR(F499="", G499="")),"Yes","")</f>
         <v/>
@@ -21430,20 +21450,23 @@
     </row>
     <row r="500" spans="1:14">
       <c r="A500">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B500" t="s">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="C500" t="s">
-        <v>539</v>
+        <v>512</v>
       </c>
       <c r="D500">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="E500" s="1">
         <v>0.85</v>
       </c>
+      <c r="J500" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="K500" t="str">
         <f>IF(NOT(OR(F500="", G500="")),"Yes","")</f>
         <v/>
@@ -21463,16 +21486,16 @@
     </row>
     <row r="501" spans="1:14">
       <c r="A501">
-        <v>465</v>
+        <v>264</v>
       </c>
       <c r="B501" t="s">
-        <v>909</v>
+        <v>517</v>
       </c>
       <c r="C501" t="s">
-        <v>910</v>
+        <v>518</v>
       </c>
       <c r="D501">
-        <v>130</v>
+        <v>389</v>
       </c>
       <c r="E501" s="1">
         <v>0.85</v>
@@ -21532,16 +21555,16 @@
     </row>
     <row r="503" spans="1:14">
       <c r="A503">
-        <v>482</v>
+        <v>275</v>
       </c>
       <c r="B503" t="s">
-        <v>944</v>
+        <v>538</v>
       </c>
       <c r="C503" t="s">
-        <v>945</v>
+        <v>539</v>
       </c>
       <c r="D503">
-        <v>124</v>
+        <v>412</v>
       </c>
       <c r="E503" s="1">
         <v>0.85</v>
@@ -21565,16 +21588,16 @@
     </row>
     <row r="504" spans="1:14">
       <c r="A504">
-        <v>508</v>
+        <v>465</v>
       </c>
       <c r="B504" t="s">
-        <v>995</v>
+        <v>909</v>
       </c>
       <c r="C504" t="s">
-        <v>996</v>
+        <v>910</v>
       </c>
       <c r="D504">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E504" s="1">
         <v>0.85</v>
@@ -21598,16 +21621,16 @@
     </row>
     <row r="505" spans="1:14">
       <c r="A505">
-        <v>522</v>
+        <v>482</v>
       </c>
       <c r="B505" t="s">
-        <v>1023</v>
+        <v>944</v>
       </c>
       <c r="C505" t="s">
-        <v>1024</v>
+        <v>945</v>
       </c>
       <c r="D505">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E505" s="1">
         <v>0.85</v>
@@ -21631,22 +21654,19 @@
     </row>
     <row r="506" spans="1:14">
       <c r="A506">
-        <v>289</v>
+        <v>508</v>
       </c>
       <c r="B506" t="s">
-        <v>565</v>
+        <v>995</v>
       </c>
       <c r="C506" t="s">
-        <v>566</v>
+        <v>996</v>
       </c>
       <c r="D506">
-        <v>338</v>
+        <v>120</v>
       </c>
       <c r="E506" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="J506" s="4" t="s">
-        <v>1050</v>
+        <v>0.85</v>
       </c>
       <c r="K506" t="str">
         <f>IF(NOT(OR(F506="", G506="")),"Yes","")</f>
@@ -21667,22 +21687,19 @@
     </row>
     <row r="507" spans="1:14">
       <c r="A507">
-        <v>319</v>
+        <v>522</v>
       </c>
       <c r="B507" t="s">
-        <v>624</v>
+        <v>1023</v>
       </c>
       <c r="C507" t="s">
-        <v>625</v>
+        <v>1024</v>
       </c>
       <c r="D507">
-        <v>258</v>
+        <v>132</v>
       </c>
       <c r="E507" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="J507" s="4" t="s">
-        <v>1050</v>
+        <v>0.85</v>
       </c>
       <c r="K507" t="str">
         <f>IF(NOT(OR(F507="", G507="")),"Yes","")</f>
@@ -21703,16 +21720,16 @@
     </row>
     <row r="508" spans="1:14">
       <c r="A508">
-        <v>361</v>
+        <v>289</v>
       </c>
       <c r="B508" t="s">
-        <v>703</v>
+        <v>565</v>
       </c>
       <c r="C508" t="s">
-        <v>704</v>
+        <v>566</v>
       </c>
       <c r="D508">
-        <v>207</v>
+        <v>338</v>
       </c>
       <c r="E508" s="1">
         <v>0.9</v>
@@ -21739,20 +21756,23 @@
     </row>
     <row r="509" spans="1:14">
       <c r="A509">
-        <v>428</v>
+        <v>319</v>
       </c>
       <c r="B509" t="s">
-        <v>837</v>
+        <v>624</v>
       </c>
       <c r="C509" t="s">
-        <v>838</v>
+        <v>625</v>
       </c>
       <c r="D509">
-        <v>144</v>
+        <v>258</v>
       </c>
       <c r="E509" s="1">
         <v>0.9</v>
       </c>
+      <c r="J509" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="K509" t="str">
         <f>IF(NOT(OR(F509="", G509="")),"Yes","")</f>
         <v/>
@@ -21772,20 +21792,23 @@
     </row>
     <row r="510" spans="1:14">
       <c r="A510">
-        <v>490</v>
+        <v>361</v>
       </c>
       <c r="B510" t="s">
-        <v>960</v>
+        <v>703</v>
       </c>
       <c r="C510" t="s">
-        <v>961</v>
+        <v>704</v>
       </c>
       <c r="D510">
-        <v>127</v>
+        <v>207</v>
       </c>
       <c r="E510" s="1">
         <v>0.9</v>
       </c>
+      <c r="J510" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="K510" t="str">
         <f>IF(NOT(OR(F510="", G510="")),"Yes","")</f>
         <v/>
@@ -21805,16 +21828,16 @@
     </row>
     <row r="511" spans="1:14">
       <c r="A511">
-        <v>505</v>
+        <v>428</v>
       </c>
       <c r="B511" t="s">
-        <v>989</v>
+        <v>837</v>
       </c>
       <c r="C511" t="s">
-        <v>990</v>
+        <v>838</v>
       </c>
       <c r="D511">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="E511" s="1">
         <v>0.9</v>
@@ -21838,16 +21861,16 @@
     </row>
     <row r="512" spans="1:14">
       <c r="A512">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="B512" t="s">
-        <v>993</v>
+        <v>960</v>
       </c>
       <c r="C512" t="s">
-        <v>994</v>
+        <v>961</v>
       </c>
       <c r="D512">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E512" s="1">
         <v>0.9</v>
@@ -21871,16 +21894,16 @@
     </row>
     <row r="513" spans="1:14">
       <c r="A513">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="B513" t="s">
-        <v>1007</v>
+        <v>989</v>
       </c>
       <c r="C513" t="s">
-        <v>1008</v>
+        <v>990</v>
       </c>
       <c r="D513">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E513" s="1">
         <v>0.9</v>
@@ -21904,19 +21927,19 @@
     </row>
     <row r="514" spans="1:14">
       <c r="A514">
-        <v>328</v>
+        <v>507</v>
       </c>
       <c r="B514" t="s">
-        <v>642</v>
+        <v>993</v>
       </c>
       <c r="C514" t="s">
-        <v>643</v>
+        <v>994</v>
       </c>
       <c r="D514">
-        <v>259</v>
+        <v>115</v>
       </c>
       <c r="E514" s="1">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="K514" t="str">
         <f>IF(NOT(OR(F514="", G514="")),"Yes","")</f>
@@ -21937,19 +21960,19 @@
     </row>
     <row r="515" spans="1:14">
       <c r="A515">
-        <v>338</v>
+        <v>514</v>
       </c>
       <c r="B515" t="s">
-        <v>661</v>
+        <v>1007</v>
       </c>
       <c r="C515" t="s">
-        <v>662</v>
+        <v>1008</v>
       </c>
       <c r="D515">
-        <v>225</v>
+        <v>114</v>
       </c>
       <c r="E515" s="1">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="K515" t="str">
         <f>IF(NOT(OR(F515="", G515="")),"Yes","")</f>
@@ -21970,16 +21993,16 @@
     </row>
     <row r="516" spans="1:14">
       <c r="A516">
-        <v>427</v>
+        <v>328</v>
       </c>
       <c r="B516" t="s">
-        <v>835</v>
+        <v>642</v>
       </c>
       <c r="C516" t="s">
-        <v>836</v>
+        <v>643</v>
       </c>
       <c r="D516">
-        <v>153</v>
+        <v>259</v>
       </c>
       <c r="E516" s="1">
         <v>0.95</v>
@@ -22003,16 +22026,16 @@
     </row>
     <row r="517" spans="1:14">
       <c r="A517">
-        <v>438</v>
+        <v>338</v>
       </c>
       <c r="B517" t="s">
-        <v>857</v>
+        <v>661</v>
       </c>
       <c r="C517" t="s">
-        <v>858</v>
+        <v>662</v>
       </c>
       <c r="D517">
-        <v>159</v>
+        <v>225</v>
       </c>
       <c r="E517" s="1">
         <v>0.95</v>
@@ -22036,16 +22059,16 @@
     </row>
     <row r="518" spans="1:14">
       <c r="A518">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="B518" t="s">
-        <v>871</v>
+        <v>835</v>
       </c>
       <c r="C518" t="s">
-        <v>874</v>
+        <v>836</v>
       </c>
       <c r="D518">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="E518" s="1">
         <v>0.95</v>
@@ -22069,16 +22092,16 @@
     </row>
     <row r="519" spans="1:14">
       <c r="A519">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="B519" t="s">
-        <v>885</v>
+        <v>857</v>
       </c>
       <c r="C519" t="s">
-        <v>886</v>
+        <v>858</v>
       </c>
       <c r="D519">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="E519" s="1">
         <v>0.95</v>
@@ -22102,25 +22125,19 @@
     </row>
     <row r="520" spans="1:14">
       <c r="A520">
-        <v>331</v>
+        <v>447</v>
       </c>
       <c r="B520" t="s">
-        <v>648</v>
+        <v>871</v>
       </c>
       <c r="C520" t="s">
-        <v>649</v>
+        <v>874</v>
       </c>
       <c r="D520">
-        <v>241</v>
+        <v>140</v>
       </c>
       <c r="E520" s="1">
-        <v>1</v>
-      </c>
-      <c r="G520" s="4" t="s">
-        <v>1047</v>
-      </c>
-      <c r="J520" s="4" t="s">
-        <v>1050</v>
+        <v>0.95</v>
       </c>
       <c r="K520" t="str">
         <f>IF(NOT(OR(F520="", G520="")),"Yes","")</f>
@@ -22141,19 +22158,19 @@
     </row>
     <row r="521" spans="1:14">
       <c r="A521">
-        <v>344</v>
+        <v>453</v>
       </c>
       <c r="B521" t="s">
-        <v>673</v>
+        <v>885</v>
       </c>
       <c r="C521" t="s">
-        <v>674</v>
+        <v>886</v>
       </c>
       <c r="D521">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="E521" s="1">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="K521" t="str">
         <f>IF(NOT(OR(F521="", G521="")),"Yes","")</f>
@@ -22174,20 +22191,26 @@
     </row>
     <row r="522" spans="1:14">
       <c r="A522">
-        <v>415</v>
+        <v>331</v>
       </c>
       <c r="B522" t="s">
-        <v>811</v>
+        <v>648</v>
       </c>
       <c r="C522" t="s">
-        <v>812</v>
+        <v>649</v>
       </c>
       <c r="D522">
-        <v>182</v>
+        <v>241</v>
       </c>
       <c r="E522" s="1">
         <v>1</v>
       </c>
+      <c r="G522" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="J522" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="K522" t="str">
         <f>IF(NOT(OR(F522="", G522="")),"Yes","")</f>
         <v/>
@@ -22207,23 +22230,20 @@
     </row>
     <row r="523" spans="1:14">
       <c r="A523">
-        <v>439</v>
+        <v>344</v>
       </c>
       <c r="B523" t="s">
-        <v>859</v>
+        <v>673</v>
       </c>
       <c r="C523" t="s">
-        <v>860</v>
+        <v>674</v>
       </c>
       <c r="D523">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="E523" s="1">
         <v>1</v>
       </c>
-      <c r="G523" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K523" t="str">
         <f>IF(NOT(OR(F523="", G523="")),"Yes","")</f>
         <v/>
@@ -22243,16 +22263,16 @@
     </row>
     <row r="524" spans="1:14">
       <c r="A524">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="B524" t="s">
-        <v>879</v>
+        <v>811</v>
       </c>
       <c r="C524" t="s">
-        <v>880</v>
+        <v>812</v>
       </c>
       <c r="D524">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="E524" s="1">
         <v>1</v>
@@ -22276,20 +22296,23 @@
     </row>
     <row r="525" spans="1:14">
       <c r="A525">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="B525" t="s">
-        <v>897</v>
+        <v>859</v>
       </c>
       <c r="C525" t="s">
-        <v>898</v>
+        <v>860</v>
       </c>
       <c r="D525">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="E525" s="1">
         <v>1</v>
       </c>
+      <c r="G525" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K525" t="str">
         <f>IF(NOT(OR(F525="", G525="")),"Yes","")</f>
         <v/>
@@ -22309,16 +22332,16 @@
     </row>
     <row r="526" spans="1:14">
       <c r="A526">
-        <v>484</v>
+        <v>450</v>
       </c>
       <c r="B526" t="s">
-        <v>948</v>
+        <v>879</v>
       </c>
       <c r="C526" t="s">
-        <v>949</v>
+        <v>880</v>
       </c>
       <c r="D526">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E526" s="1">
         <v>1</v>
@@ -22342,16 +22365,16 @@
     </row>
     <row r="527" spans="1:14">
       <c r="A527">
-        <v>489</v>
+        <v>459</v>
       </c>
       <c r="B527" t="s">
-        <v>958</v>
+        <v>897</v>
       </c>
       <c r="C527" t="s">
-        <v>959</v>
+        <v>898</v>
       </c>
       <c r="D527">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="E527" s="1">
         <v>1</v>
@@ -22375,16 +22398,16 @@
     </row>
     <row r="528" spans="1:14">
       <c r="A528">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="B528" t="s">
-        <v>968</v>
+        <v>935</v>
       </c>
       <c r="C528" t="s">
-        <v>969</v>
+        <v>936</v>
       </c>
       <c r="D528">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E528" s="1">
         <v>1</v>
@@ -22408,23 +22431,20 @@
     </row>
     <row r="529" spans="1:14">
       <c r="A529">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="B529" t="s">
-        <v>978</v>
+        <v>948</v>
       </c>
       <c r="C529" t="s">
-        <v>979</v>
+        <v>949</v>
       </c>
       <c r="D529">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E529" s="1">
         <v>1</v>
       </c>
-      <c r="G529" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K529" t="str">
         <f>IF(NOT(OR(F529="", G529="")),"Yes","")</f>
         <v/>
@@ -22444,16 +22464,16 @@
     </row>
     <row r="530" spans="1:14">
       <c r="A530">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="B530" t="s">
-        <v>983</v>
+        <v>958</v>
       </c>
       <c r="C530" t="s">
-        <v>984</v>
+        <v>959</v>
       </c>
       <c r="D530">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E530" s="1">
         <v>1</v>
@@ -22477,19 +22497,19 @@
     </row>
     <row r="531" spans="1:14">
       <c r="A531">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="B531" t="s">
-        <v>935</v>
+        <v>968</v>
       </c>
       <c r="C531" t="s">
-        <v>936</v>
+        <v>969</v>
       </c>
       <c r="D531">
-        <v>95</v>
-      </c>
-      <c r="E531" t="s">
-        <v>937</v>
+        <v>103</v>
+      </c>
+      <c r="E531" s="1">
+        <v>1</v>
       </c>
       <c r="K531" t="str">
         <f>IF(NOT(OR(F531="", G531="")),"Yes","")</f>
@@ -22510,19 +22530,22 @@
     </row>
     <row r="532" spans="1:14">
       <c r="A532">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="B532" t="s">
-        <v>946</v>
+        <v>978</v>
       </c>
       <c r="C532" t="s">
-        <v>947</v>
+        <v>979</v>
       </c>
       <c r="D532">
-        <v>92</v>
-      </c>
-      <c r="E532" t="s">
-        <v>937</v>
+        <v>145</v>
+      </c>
+      <c r="E532" s="1">
+        <v>1</v>
+      </c>
+      <c r="G532" s="4" t="s">
+        <v>1047</v>
       </c>
       <c r="K532" t="str">
         <f>IF(NOT(OR(F532="", G532="")),"Yes","")</f>
@@ -22543,19 +22566,19 @@
     </row>
     <row r="533" spans="1:14">
       <c r="A533">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="B533" t="s">
-        <v>970</v>
+        <v>983</v>
       </c>
       <c r="C533" t="s">
-        <v>971</v>
+        <v>984</v>
       </c>
       <c r="D533">
-        <v>84</v>
-      </c>
-      <c r="E533" t="s">
-        <v>937</v>
+        <v>120</v>
+      </c>
+      <c r="E533" s="1">
+        <v>1</v>
       </c>
       <c r="K533" t="str">
         <f>IF(NOT(OR(F533="", G533="")),"Yes","")</f>
@@ -22576,19 +22599,19 @@
     </row>
     <row r="534" spans="1:14">
       <c r="A534">
-        <v>529</v>
+        <v>483</v>
       </c>
       <c r="B534" t="s">
-        <v>1036</v>
+        <v>946</v>
       </c>
       <c r="C534" t="s">
-        <v>1037</v>
+        <v>947</v>
       </c>
       <c r="D534">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E534" t="s">
-        <v>1038</v>
+        <v>937</v>
       </c>
       <c r="K534" t="str">
         <f>IF(NOT(OR(F534="", G534="")),"Yes","")</f>
@@ -22609,7 +22632,19 @@
     </row>
     <row r="535" spans="1:14">
       <c r="A535">
-        <v>533</v>
+        <v>495</v>
+      </c>
+      <c r="B535" t="s">
+        <v>970</v>
+      </c>
+      <c r="C535" t="s">
+        <v>971</v>
+      </c>
+      <c r="D535">
+        <v>84</v>
+      </c>
+      <c r="E535" t="s">
+        <v>937</v>
       </c>
       <c r="K535" t="str">
         <f>IF(NOT(OR(F535="", G535="")),"Yes","")</f>
@@ -22630,7 +22665,19 @@
     </row>
     <row r="536" spans="1:14">
       <c r="A536">
-        <v>534</v>
+        <v>529</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C536" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D536">
+        <v>97</v>
+      </c>
+      <c r="E536" t="s">
+        <v>1038</v>
       </c>
       <c r="K536" t="str">
         <f>IF(NOT(OR(F536="", G536="")),"Yes","")</f>

--- a/problem_difficulty.xlsx
+++ b/problem_difficulty.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="1061">
   <si>
     <t>Problem</t>
   </si>
@@ -3757,7 +3757,7 @@
   <dimension ref="A1:N602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
+      <selection activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3771,7 +3771,7 @@
     <row r="1" spans="1:14">
       <c r="F1">
         <f>COUNTIF(F3:F602,"Solved")</f>
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K1">
         <f>COUNTIF(K3:K602,"Yes")</f>
@@ -9221,19 +9221,19 @@
     </row>
     <row r="145" spans="1:14">
       <c r="A145">
-        <v>504</v>
+        <v>315</v>
       </c>
       <c r="B145" t="s">
-        <v>987</v>
+        <v>617</v>
       </c>
       <c r="C145" t="s">
-        <v>988</v>
+        <v>618</v>
       </c>
       <c r="D145">
-        <v>1196</v>
+        <v>1837</v>
       </c>
       <c r="E145" s="1">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="K145" t="str">
         <f>IF(NOT(OR(F145="", G145="")),"Yes","")</f>
@@ -9554,20 +9554,21 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="B154" t="s">
-        <v>617</v>
+        <v>657</v>
       </c>
       <c r="C154" t="s">
-        <v>618</v>
+        <v>658</v>
       </c>
       <c r="D154">
-        <v>1837</v>
+        <v>1204</v>
       </c>
       <c r="E154" s="1">
         <v>0.2</v>
       </c>
+      <c r="G154" s="4"/>
       <c r="K154" t="str">
         <f>IF(NOT(OR(F154="", G154="")),"Yes","")</f>
         <v/>
@@ -9587,16 +9588,16 @@
     </row>
     <row r="155" spans="1:14">
       <c r="A155">
-        <v>323</v>
+        <v>407</v>
       </c>
       <c r="B155" t="s">
-        <v>632</v>
+        <v>795</v>
       </c>
       <c r="C155" t="s">
-        <v>633</v>
+        <v>796</v>
       </c>
       <c r="D155">
-        <v>2145</v>
+        <v>1182</v>
       </c>
       <c r="E155" s="1">
         <v>0.2</v>
@@ -9620,21 +9621,20 @@
     </row>
     <row r="156" spans="1:14">
       <c r="A156">
-        <v>336</v>
+        <v>429</v>
       </c>
       <c r="B156" t="s">
-        <v>657</v>
+        <v>839</v>
       </c>
       <c r="C156" t="s">
-        <v>658</v>
+        <v>840</v>
       </c>
       <c r="D156">
-        <v>1204</v>
+        <v>1268</v>
       </c>
       <c r="E156" s="1">
         <v>0.2</v>
       </c>
-      <c r="G156" s="4"/>
       <c r="K156" t="str">
         <f>IF(NOT(OR(F156="", G156="")),"Yes","")</f>
         <v/>
@@ -9654,20 +9654,23 @@
     </row>
     <row r="157" spans="1:14">
       <c r="A157">
-        <v>407</v>
+        <v>491</v>
       </c>
       <c r="B157" t="s">
-        <v>795</v>
+        <v>962</v>
       </c>
       <c r="C157" t="s">
-        <v>796</v>
+        <v>963</v>
       </c>
       <c r="D157">
-        <v>1182</v>
+        <v>935</v>
       </c>
       <c r="E157" s="1">
         <v>0.2</v>
       </c>
+      <c r="G157" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K157" t="str">
         <f>IF(NOT(OR(F157="", G157="")),"Yes","")</f>
         <v/>
@@ -9687,16 +9690,16 @@
     </row>
     <row r="158" spans="1:14">
       <c r="A158">
-        <v>429</v>
+        <v>516</v>
       </c>
       <c r="B158" t="s">
-        <v>839</v>
+        <v>1011</v>
       </c>
       <c r="C158" t="s">
-        <v>840</v>
+        <v>1012</v>
       </c>
       <c r="D158">
-        <v>1268</v>
+        <v>563</v>
       </c>
       <c r="E158" s="1">
         <v>0.2</v>
@@ -9720,23 +9723,20 @@
     </row>
     <row r="159" spans="1:14">
       <c r="A159">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="B159" t="s">
-        <v>962</v>
+        <v>1015</v>
       </c>
       <c r="C159" t="s">
-        <v>963</v>
+        <v>1016</v>
       </c>
       <c r="D159">
-        <v>935</v>
+        <v>600</v>
       </c>
       <c r="E159" s="1">
         <v>0.2</v>
       </c>
-      <c r="G159" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K159" t="str">
         <f>IF(NOT(OR(F159="", G159="")),"Yes","")</f>
         <v/>
@@ -9756,19 +9756,19 @@
     </row>
     <row r="160" spans="1:14">
       <c r="A160">
-        <v>516</v>
+        <v>351</v>
       </c>
       <c r="B160" t="s">
-        <v>1011</v>
+        <v>683</v>
       </c>
       <c r="C160" t="s">
-        <v>1012</v>
+        <v>684</v>
       </c>
       <c r="D160">
-        <v>563</v>
+        <v>1495</v>
       </c>
       <c r="E160" s="1">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="K160" t="str">
         <f>IF(NOT(OR(F160="", G160="")),"Yes","")</f>
@@ -9789,19 +9789,19 @@
     </row>
     <row r="161" spans="1:14">
       <c r="A161">
-        <v>518</v>
+        <v>358</v>
       </c>
       <c r="B161" t="s">
-        <v>1015</v>
+        <v>697</v>
       </c>
       <c r="C161" t="s">
-        <v>1016</v>
+        <v>698</v>
       </c>
       <c r="D161">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="E161" s="1">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="K161" t="str">
         <f>IF(NOT(OR(F161="", G161="")),"Yes","")</f>
@@ -9858,19 +9858,22 @@
     </row>
     <row r="163" spans="1:14">
       <c r="A163">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B163" t="s">
-        <v>683</v>
+        <v>699</v>
       </c>
       <c r="C163" t="s">
-        <v>684</v>
+        <v>700</v>
       </c>
       <c r="D163">
-        <v>1495</v>
+        <v>869</v>
       </c>
       <c r="E163" s="1">
         <v>0.25</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>1047</v>
       </c>
       <c r="K163" t="str">
         <f>IF(NOT(OR(F163="", G163="")),"Yes","")</f>
@@ -9927,19 +9930,22 @@
     </row>
     <row r="165" spans="1:14">
       <c r="A165">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="B165" t="s">
-        <v>697</v>
+        <v>783</v>
       </c>
       <c r="C165" t="s">
-        <v>698</v>
+        <v>784</v>
       </c>
       <c r="D165">
-        <v>950</v>
+        <v>1410</v>
       </c>
       <c r="E165" s="1">
         <v>0.25</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>1047</v>
       </c>
       <c r="K165" t="str">
         <f>IF(NOT(OR(F165="", G165="")),"Yes","")</f>
@@ -10068,23 +10074,20 @@
     </row>
     <row r="169" spans="1:14">
       <c r="A169">
-        <v>359</v>
+        <v>425</v>
       </c>
       <c r="B169" t="s">
-        <v>699</v>
+        <v>831</v>
       </c>
       <c r="C169" t="s">
-        <v>700</v>
+        <v>832</v>
       </c>
       <c r="D169">
-        <v>869</v>
+        <v>790</v>
       </c>
       <c r="E169" s="1">
         <v>0.25</v>
       </c>
-      <c r="G169" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K169" t="str">
         <f>IF(NOT(OR(F169="", G169="")),"Yes","")</f>
         <v/>
@@ -10104,16 +10107,16 @@
     </row>
     <row r="170" spans="1:14">
       <c r="A170">
-        <v>401</v>
+        <v>479</v>
       </c>
       <c r="B170" t="s">
-        <v>783</v>
+        <v>938</v>
       </c>
       <c r="C170" t="s">
-        <v>784</v>
+        <v>939</v>
       </c>
       <c r="D170">
-        <v>1410</v>
+        <v>622</v>
       </c>
       <c r="E170" s="1">
         <v>0.25</v>
@@ -10179,16 +10182,16 @@
     </row>
     <row r="172" spans="1:14">
       <c r="A172">
-        <v>425</v>
+        <v>512</v>
       </c>
       <c r="B172" t="s">
-        <v>831</v>
+        <v>1003</v>
       </c>
       <c r="C172" t="s">
-        <v>832</v>
+        <v>1004</v>
       </c>
       <c r="D172">
-        <v>790</v>
+        <v>656</v>
       </c>
       <c r="E172" s="1">
         <v>0.25</v>
@@ -10212,23 +10215,20 @@
     </row>
     <row r="173" spans="1:14">
       <c r="A173">
-        <v>479</v>
+        <v>531</v>
       </c>
       <c r="B173" t="s">
-        <v>938</v>
+        <v>1041</v>
       </c>
       <c r="C173" t="s">
-        <v>939</v>
+        <v>1042</v>
       </c>
       <c r="D173">
-        <v>622</v>
+        <v>345</v>
       </c>
       <c r="E173" s="1">
         <v>0.25</v>
       </c>
-      <c r="G173" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K173" t="str">
         <f>IF(NOT(OR(F173="", G173="")),"Yes","")</f>
         <v/>
@@ -10248,19 +10248,19 @@
     </row>
     <row r="174" spans="1:14">
       <c r="A174">
-        <v>512</v>
+        <v>288</v>
       </c>
       <c r="B174" t="s">
-        <v>1003</v>
+        <v>563</v>
       </c>
       <c r="C174" t="s">
-        <v>1004</v>
+        <v>564</v>
       </c>
       <c r="D174">
-        <v>656</v>
+        <v>969</v>
       </c>
       <c r="E174" s="1">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="K174" t="str">
         <f>IF(NOT(OR(F174="", G174="")),"Yes","")</f>
@@ -10356,19 +10356,22 @@
     </row>
     <row r="177" spans="1:14">
       <c r="A177">
-        <v>531</v>
+        <v>313</v>
       </c>
       <c r="B177" t="s">
-        <v>1041</v>
+        <v>613</v>
       </c>
       <c r="C177" t="s">
-        <v>1042</v>
+        <v>614</v>
       </c>
       <c r="D177">
-        <v>345</v>
+        <v>917</v>
       </c>
       <c r="E177" s="1">
-        <v>0.25</v>
+        <v>0.3</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>1047</v>
       </c>
       <c r="K177" t="str">
         <f>IF(NOT(OR(F177="", G177="")),"Yes","")</f>
@@ -10389,20 +10392,23 @@
     </row>
     <row r="178" spans="1:14">
       <c r="A178">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="B178" t="s">
-        <v>563</v>
+        <v>628</v>
       </c>
       <c r="C178" t="s">
-        <v>564</v>
+        <v>629</v>
       </c>
       <c r="D178">
-        <v>969</v>
+        <v>1021</v>
       </c>
       <c r="E178" s="1">
         <v>0.3</v>
       </c>
+      <c r="J178" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="K178" t="str">
         <f>IF(NOT(OR(F178="", G178="")),"Yes","")</f>
         <v/>
@@ -10422,23 +10428,20 @@
     </row>
     <row r="179" spans="1:14">
       <c r="A179">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="B179" t="s">
-        <v>613</v>
+        <v>665</v>
       </c>
       <c r="C179" t="s">
-        <v>614</v>
+        <v>666</v>
       </c>
       <c r="D179">
-        <v>917</v>
+        <v>598</v>
       </c>
       <c r="E179" s="1">
         <v>0.3</v>
       </c>
-      <c r="G179" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K179" t="str">
         <f>IF(NOT(OR(F179="", G179="")),"Yes","")</f>
         <v/>
@@ -10458,22 +10461,19 @@
     </row>
     <row r="180" spans="1:14">
       <c r="A180">
-        <v>321</v>
+        <v>371</v>
       </c>
       <c r="B180" t="s">
-        <v>628</v>
+        <v>723</v>
       </c>
       <c r="C180" t="s">
-        <v>629</v>
+        <v>724</v>
       </c>
       <c r="D180">
-        <v>1021</v>
+        <v>915</v>
       </c>
       <c r="E180" s="1">
         <v>0.3</v>
-      </c>
-      <c r="J180" s="4" t="s">
-        <v>1050</v>
       </c>
       <c r="K180" t="str">
         <f>IF(NOT(OR(F180="", G180="")),"Yes","")</f>
@@ -10533,20 +10533,23 @@
     </row>
     <row r="182" spans="1:14">
       <c r="A182">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="B182" t="s">
-        <v>665</v>
+        <v>759</v>
       </c>
       <c r="C182" t="s">
-        <v>666</v>
+        <v>760</v>
       </c>
       <c r="D182">
-        <v>598</v>
+        <v>878</v>
       </c>
       <c r="E182" s="1">
         <v>0.3</v>
       </c>
+      <c r="G182" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K182" t="str">
         <f>IF(NOT(OR(F182="", G182="")),"Yes","")</f>
         <v/>
@@ -10566,16 +10569,16 @@
     </row>
     <row r="183" spans="1:14">
       <c r="A183">
-        <v>371</v>
+        <v>435</v>
       </c>
       <c r="B183" t="s">
-        <v>723</v>
+        <v>851</v>
       </c>
       <c r="C183" t="s">
-        <v>724</v>
+        <v>852</v>
       </c>
       <c r="D183">
-        <v>915</v>
+        <v>528</v>
       </c>
       <c r="E183" s="1">
         <v>0.3</v>
@@ -10671,16 +10674,16 @@
     </row>
     <row r="186" spans="1:14">
       <c r="A186">
-        <v>389</v>
+        <v>443</v>
       </c>
       <c r="B186" t="s">
-        <v>759</v>
+        <v>867</v>
       </c>
       <c r="C186" t="s">
-        <v>760</v>
+        <v>868</v>
       </c>
       <c r="D186">
-        <v>878</v>
+        <v>551</v>
       </c>
       <c r="E186" s="1">
         <v>0.3</v>
@@ -10707,16 +10710,16 @@
     </row>
     <row r="187" spans="1:14">
       <c r="A187">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="B187" t="s">
-        <v>851</v>
+        <v>881</v>
       </c>
       <c r="C187" t="s">
-        <v>852</v>
+        <v>882</v>
       </c>
       <c r="D187">
-        <v>528</v>
+        <v>699</v>
       </c>
       <c r="E187" s="1">
         <v>0.3</v>
@@ -10740,22 +10743,19 @@
     </row>
     <row r="188" spans="1:14">
       <c r="A188">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="B188" t="s">
-        <v>867</v>
+        <v>895</v>
       </c>
       <c r="C188" t="s">
-        <v>868</v>
+        <v>896</v>
       </c>
       <c r="D188">
-        <v>551</v>
+        <v>432</v>
       </c>
       <c r="E188" s="1">
         <v>0.3</v>
-      </c>
-      <c r="G188" s="4" t="s">
-        <v>1047</v>
       </c>
       <c r="K188" t="str">
         <f>IF(NOT(OR(F188="", G188="")),"Yes","")</f>
@@ -10848,20 +10848,23 @@
     </row>
     <row r="191" spans="1:14">
       <c r="A191">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B191" t="s">
-        <v>881</v>
+        <v>901</v>
       </c>
       <c r="C191" t="s">
-        <v>882</v>
+        <v>902</v>
       </c>
       <c r="D191">
-        <v>699</v>
+        <v>625</v>
       </c>
       <c r="E191" s="1">
         <v>0.3</v>
       </c>
+      <c r="G191" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K191" t="str">
         <f>IF(NOT(OR(F191="", G191="")),"Yes","")</f>
         <v/>
@@ -10881,19 +10884,22 @@
     </row>
     <row r="192" spans="1:14">
       <c r="A192">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B192" t="s">
-        <v>895</v>
+        <v>905</v>
       </c>
       <c r="C192" t="s">
-        <v>896</v>
+        <v>906</v>
       </c>
       <c r="D192">
-        <v>432</v>
+        <v>539</v>
       </c>
       <c r="E192" s="1">
         <v>0.3</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>1047</v>
       </c>
       <c r="K192" t="str">
         <f>IF(NOT(OR(F192="", G192="")),"Yes","")</f>
@@ -10953,22 +10959,19 @@
     </row>
     <row r="194" spans="1:14">
       <c r="A194">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="B194" t="s">
-        <v>901</v>
+        <v>950</v>
       </c>
       <c r="C194" t="s">
-        <v>902</v>
+        <v>951</v>
       </c>
       <c r="D194">
-        <v>625</v>
+        <v>545</v>
       </c>
       <c r="E194" s="1">
         <v>0.3</v>
-      </c>
-      <c r="G194" s="4" t="s">
-        <v>1047</v>
       </c>
       <c r="K194" t="str">
         <f>IF(NOT(OR(F194="", G194="")),"Yes","")</f>
@@ -11031,23 +11034,20 @@
     </row>
     <row r="196" spans="1:14">
       <c r="A196">
-        <v>463</v>
+        <v>506</v>
       </c>
       <c r="B196" t="s">
-        <v>905</v>
+        <v>991</v>
       </c>
       <c r="C196" t="s">
-        <v>906</v>
+        <v>992</v>
       </c>
       <c r="D196">
-        <v>539</v>
+        <v>413</v>
       </c>
       <c r="E196" s="1">
         <v>0.3</v>
       </c>
-      <c r="G196" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K196" t="str">
         <f>IF(NOT(OR(F196="", G196="")),"Yes","")</f>
         <v/>
@@ -11067,16 +11067,16 @@
     </row>
     <row r="197" spans="1:14">
       <c r="A197">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="B197" t="s">
-        <v>950</v>
+        <v>999</v>
       </c>
       <c r="C197" t="s">
-        <v>951</v>
+        <v>1000</v>
       </c>
       <c r="D197">
-        <v>545</v>
+        <v>512</v>
       </c>
       <c r="E197" s="1">
         <v>0.3</v>
@@ -11100,19 +11100,22 @@
     </row>
     <row r="198" spans="1:14">
       <c r="A198">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="B198" t="s">
-        <v>991</v>
+        <v>1025</v>
       </c>
       <c r="C198" t="s">
-        <v>992</v>
+        <v>1026</v>
       </c>
       <c r="D198">
-        <v>413</v>
+        <v>372</v>
       </c>
       <c r="E198" s="1">
         <v>0.3</v>
+      </c>
+      <c r="G198" t="s">
+        <v>1047</v>
       </c>
       <c r="K198" t="str">
         <f>IF(NOT(OR(F198="", G198="")),"Yes","")</f>
@@ -11172,16 +11175,16 @@
     </row>
     <row r="200" spans="1:14">
       <c r="A200">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="B200" t="s">
-        <v>999</v>
+        <v>1032</v>
       </c>
       <c r="C200" t="s">
-        <v>1000</v>
+        <v>1033</v>
       </c>
       <c r="D200">
-        <v>512</v>
+        <v>311</v>
       </c>
       <c r="E200" s="1">
         <v>0.3</v>
@@ -11205,22 +11208,22 @@
     </row>
     <row r="201" spans="1:14">
       <c r="A201">
-        <v>523</v>
+        <v>297</v>
       </c>
       <c r="B201" t="s">
-        <v>1025</v>
+        <v>581</v>
       </c>
       <c r="C201" t="s">
-        <v>1026</v>
+        <v>582</v>
       </c>
       <c r="D201">
-        <v>372</v>
+        <v>1897</v>
       </c>
       <c r="E201" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="G201" t="s">
-        <v>1047</v>
+        <v>0.35</v>
+      </c>
+      <c r="J201" s="4" t="s">
+        <v>1050</v>
       </c>
       <c r="K201" t="str">
         <f>IF(NOT(OR(F201="", G201="")),"Yes","")</f>
@@ -11277,19 +11280,22 @@
     </row>
     <row r="203" spans="1:14">
       <c r="A203">
-        <v>527</v>
+        <v>317</v>
       </c>
       <c r="B203" t="s">
-        <v>1032</v>
+        <v>621</v>
       </c>
       <c r="C203" t="s">
-        <v>1033</v>
+        <v>622</v>
       </c>
       <c r="D203">
-        <v>311</v>
+        <v>1592</v>
       </c>
       <c r="E203" s="1">
-        <v>0.3</v>
+        <v>0.35</v>
+      </c>
+      <c r="G203" s="4" t="s">
+        <v>1047</v>
       </c>
       <c r="K203" t="str">
         <f>IF(NOT(OR(F203="", G203="")),"Yes","")</f>
@@ -11310,22 +11316,19 @@
     </row>
     <row r="204" spans="1:14">
       <c r="A204">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="B204" t="s">
-        <v>581</v>
+        <v>652</v>
       </c>
       <c r="C204" t="s">
-        <v>582</v>
+        <v>653</v>
       </c>
       <c r="D204">
-        <v>1897</v>
+        <v>703</v>
       </c>
       <c r="E204" s="1">
         <v>0.35</v>
-      </c>
-      <c r="J204" s="4" t="s">
-        <v>1050</v>
       </c>
       <c r="K204" t="str">
         <f>IF(NOT(OR(F204="", G204="")),"Yes","")</f>
@@ -11529,23 +11532,20 @@
     </row>
     <row r="210" spans="1:14">
       <c r="A210">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="B210" t="s">
-        <v>621</v>
+        <v>671</v>
       </c>
       <c r="C210" t="s">
-        <v>622</v>
+        <v>672</v>
       </c>
       <c r="D210">
-        <v>1592</v>
+        <v>888</v>
       </c>
       <c r="E210" s="1">
         <v>0.35</v>
       </c>
-      <c r="G210" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K210" t="str">
         <f>IF(NOT(OR(F210="", G210="")),"Yes","")</f>
         <v/>
@@ -11565,16 +11565,16 @@
     </row>
     <row r="211" spans="1:14">
       <c r="A211">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="B211" t="s">
-        <v>652</v>
+        <v>707</v>
       </c>
       <c r="C211" t="s">
-        <v>653</v>
+        <v>708</v>
       </c>
       <c r="D211">
-        <v>703</v>
+        <v>634</v>
       </c>
       <c r="E211" s="1">
         <v>0.35</v>
@@ -11598,16 +11598,16 @@
     </row>
     <row r="212" spans="1:14">
       <c r="A212">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="B212" t="s">
-        <v>671</v>
+        <v>737</v>
       </c>
       <c r="C212" t="s">
-        <v>672</v>
+        <v>738</v>
       </c>
       <c r="D212">
-        <v>888</v>
+        <v>463</v>
       </c>
       <c r="E212" s="1">
         <v>0.35</v>
@@ -11673,16 +11673,16 @@
     </row>
     <row r="214" spans="1:14">
       <c r="A214">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="B214" t="s">
-        <v>707</v>
+        <v>765</v>
       </c>
       <c r="C214" t="s">
-        <v>708</v>
+        <v>766</v>
       </c>
       <c r="D214">
-        <v>634</v>
+        <v>400</v>
       </c>
       <c r="E214" s="1">
         <v>0.35</v>
@@ -11706,16 +11706,16 @@
     </row>
     <row r="215" spans="1:14">
       <c r="A215">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="B215" t="s">
-        <v>737</v>
+        <v>815</v>
       </c>
       <c r="C215" t="s">
-        <v>738</v>
+        <v>816</v>
       </c>
       <c r="D215">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E215" s="1">
         <v>0.35</v>
@@ -11775,16 +11775,16 @@
     </row>
     <row r="217" spans="1:14">
       <c r="A217">
-        <v>392</v>
+        <v>430</v>
       </c>
       <c r="B217" t="s">
-        <v>765</v>
+        <v>841</v>
       </c>
       <c r="C217" t="s">
-        <v>766</v>
+        <v>842</v>
       </c>
       <c r="D217">
-        <v>400</v>
+        <v>488</v>
       </c>
       <c r="E217" s="1">
         <v>0.35</v>
@@ -11844,16 +11844,16 @@
     </row>
     <row r="219" spans="1:14">
       <c r="A219">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="B219" t="s">
-        <v>815</v>
+        <v>855</v>
       </c>
       <c r="C219" t="s">
-        <v>816</v>
+        <v>856</v>
       </c>
       <c r="D219">
-        <v>464</v>
+        <v>414</v>
       </c>
       <c r="E219" s="1">
         <v>0.35</v>
@@ -11877,20 +11877,23 @@
     </row>
     <row r="220" spans="1:14">
       <c r="A220">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="B220" t="s">
-        <v>841</v>
+        <v>877</v>
       </c>
       <c r="C220" t="s">
-        <v>842</v>
+        <v>878</v>
       </c>
       <c r="D220">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E220" s="1">
         <v>0.35</v>
       </c>
+      <c r="G220" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K220" t="str">
         <f>IF(NOT(OR(F220="", G220="")),"Yes","")</f>
         <v/>
@@ -11910,20 +11913,23 @@
     </row>
     <row r="221" spans="1:14">
       <c r="A221">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="B221" t="s">
-        <v>855</v>
+        <v>893</v>
       </c>
       <c r="C221" t="s">
-        <v>856</v>
+        <v>894</v>
       </c>
       <c r="D221">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="E221" s="1">
         <v>0.35</v>
       </c>
+      <c r="G221" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K221" t="str">
         <f>IF(NOT(OR(F221="", G221="")),"Yes","")</f>
         <v/>
@@ -11943,23 +11949,20 @@
     </row>
     <row r="222" spans="1:14">
       <c r="A222">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="B222" t="s">
-        <v>877</v>
+        <v>925</v>
       </c>
       <c r="C222" t="s">
-        <v>878</v>
+        <v>926</v>
       </c>
       <c r="D222">
-        <v>485</v>
+        <v>418</v>
       </c>
       <c r="E222" s="1">
         <v>0.35</v>
       </c>
-      <c r="G222" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K222" t="str">
         <f>IF(NOT(OR(F222="", G222="")),"Yes","")</f>
         <v/>
@@ -11979,22 +11982,19 @@
     </row>
     <row r="223" spans="1:14">
       <c r="A223">
-        <v>457</v>
+        <v>287</v>
       </c>
       <c r="B223" t="s">
-        <v>893</v>
+        <v>561</v>
       </c>
       <c r="C223" t="s">
-        <v>894</v>
+        <v>562</v>
       </c>
       <c r="D223">
-        <v>407</v>
+        <v>924</v>
       </c>
       <c r="E223" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="G223" s="4" t="s">
-        <v>1047</v>
+        <v>0.4</v>
       </c>
       <c r="K223" t="str">
         <f>IF(NOT(OR(F223="", G223="")),"Yes","")</f>
@@ -12015,19 +12015,19 @@
     </row>
     <row r="224" spans="1:14">
       <c r="A224">
-        <v>473</v>
+        <v>310</v>
       </c>
       <c r="B224" t="s">
-        <v>925</v>
+        <v>607</v>
       </c>
       <c r="C224" t="s">
-        <v>926</v>
+        <v>608</v>
       </c>
       <c r="D224">
-        <v>418</v>
+        <v>662</v>
       </c>
       <c r="E224" s="1">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="K224" t="str">
         <f>IF(NOT(OR(F224="", G224="")),"Yes","")</f>
@@ -12048,20 +12048,23 @@
     </row>
     <row r="225" spans="1:14">
       <c r="A225">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="B225" t="s">
-        <v>561</v>
+        <v>640</v>
       </c>
       <c r="C225" t="s">
-        <v>562</v>
+        <v>641</v>
       </c>
       <c r="D225">
-        <v>924</v>
+        <v>740</v>
       </c>
       <c r="E225" s="1">
         <v>0.4</v>
       </c>
+      <c r="J225" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="K225" t="str">
         <f>IF(NOT(OR(F225="", G225="")),"Yes","")</f>
         <v/>
@@ -12081,16 +12084,16 @@
     </row>
     <row r="226" spans="1:14">
       <c r="A226">
-        <v>310</v>
+        <v>366</v>
       </c>
       <c r="B226" t="s">
-        <v>607</v>
+        <v>713</v>
       </c>
       <c r="C226" t="s">
-        <v>608</v>
+        <v>714</v>
       </c>
       <c r="D226">
-        <v>662</v>
+        <v>378</v>
       </c>
       <c r="E226" s="1">
         <v>0.4</v>
@@ -12150,23 +12153,20 @@
     </row>
     <row r="228" spans="1:14">
       <c r="A228">
-        <v>327</v>
+        <v>374</v>
       </c>
       <c r="B228" t="s">
-        <v>640</v>
+        <v>729</v>
       </c>
       <c r="C228" t="s">
-        <v>641</v>
+        <v>730</v>
       </c>
       <c r="D228">
-        <v>740</v>
+        <v>411</v>
       </c>
       <c r="E228" s="1">
         <v>0.4</v>
       </c>
-      <c r="J228" s="4" t="s">
-        <v>1050</v>
-      </c>
       <c r="K228" t="str">
         <f>IF(NOT(OR(F228="", G228="")),"Yes","")</f>
         <v/>
@@ -12186,16 +12186,16 @@
     </row>
     <row r="229" spans="1:14">
       <c r="A229">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="B229" t="s">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="C229" t="s">
-        <v>714</v>
+        <v>732</v>
       </c>
       <c r="D229">
-        <v>378</v>
+        <v>534</v>
       </c>
       <c r="E229" s="1">
         <v>0.4</v>
@@ -12219,16 +12219,16 @@
     </row>
     <row r="230" spans="1:14">
       <c r="A230">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="B230" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="C230" t="s">
-        <v>730</v>
+        <v>754</v>
       </c>
       <c r="D230">
-        <v>411</v>
+        <v>443</v>
       </c>
       <c r="E230" s="1">
         <v>0.4</v>
@@ -12252,16 +12252,16 @@
     </row>
     <row r="231" spans="1:14">
       <c r="A231">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="B231" t="s">
-        <v>731</v>
+        <v>771</v>
       </c>
       <c r="C231" t="s">
-        <v>732</v>
+        <v>772</v>
       </c>
       <c r="D231">
-        <v>534</v>
+        <v>429</v>
       </c>
       <c r="E231" s="1">
         <v>0.4</v>
@@ -12285,16 +12285,16 @@
     </row>
     <row r="232" spans="1:14">
       <c r="A232">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="B232" t="s">
-        <v>753</v>
+        <v>773</v>
       </c>
       <c r="C232" t="s">
-        <v>754</v>
+        <v>774</v>
       </c>
       <c r="D232">
-        <v>443</v>
+        <v>387</v>
       </c>
       <c r="E232" s="1">
         <v>0.4</v>
@@ -12360,16 +12360,16 @@
     </row>
     <row r="234" spans="1:14">
       <c r="A234">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B234" t="s">
-        <v>771</v>
+        <v>791</v>
       </c>
       <c r="C234" t="s">
-        <v>772</v>
+        <v>792</v>
       </c>
       <c r="D234">
-        <v>429</v>
+        <v>369</v>
       </c>
       <c r="E234" s="1">
         <v>0.4</v>
@@ -12393,16 +12393,16 @@
     </row>
     <row r="235" spans="1:14">
       <c r="A235">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="B235" t="s">
-        <v>773</v>
+        <v>817</v>
       </c>
       <c r="C235" t="s">
-        <v>774</v>
+        <v>818</v>
       </c>
       <c r="D235">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E235" s="1">
         <v>0.4</v>
@@ -12501,19 +12501,22 @@
     </row>
     <row r="238" spans="1:14">
       <c r="A238">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="B238" t="s">
-        <v>791</v>
+        <v>843</v>
       </c>
       <c r="C238" t="s">
-        <v>792</v>
+        <v>844</v>
       </c>
       <c r="D238">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="E238" s="1">
         <v>0.4</v>
+      </c>
+      <c r="G238" s="4" t="s">
+        <v>1047</v>
       </c>
       <c r="K238" t="str">
         <f>IF(NOT(OR(F238="", G238="")),"Yes","")</f>
@@ -12573,16 +12576,16 @@
     </row>
     <row r="240" spans="1:14">
       <c r="A240">
-        <v>418</v>
+        <v>455</v>
       </c>
       <c r="B240" t="s">
-        <v>817</v>
+        <v>889</v>
       </c>
       <c r="C240" t="s">
-        <v>818</v>
+        <v>890</v>
       </c>
       <c r="D240">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="E240" s="1">
         <v>0.4</v>
@@ -12645,23 +12648,20 @@
     </row>
     <row r="242" spans="1:14">
       <c r="A242">
-        <v>431</v>
+        <v>469</v>
       </c>
       <c r="B242" t="s">
-        <v>843</v>
+        <v>917</v>
       </c>
       <c r="C242" t="s">
-        <v>844</v>
+        <v>918</v>
       </c>
       <c r="D242">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="E242" s="1">
         <v>0.4</v>
       </c>
-      <c r="G242" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K242" t="str">
         <f>IF(NOT(OR(F242="", G242="")),"Yes","")</f>
         <v/>
@@ -12681,20 +12681,23 @@
     </row>
     <row r="243" spans="1:14">
       <c r="A243">
-        <v>455</v>
+        <v>487</v>
       </c>
       <c r="B243" t="s">
-        <v>889</v>
+        <v>954</v>
       </c>
       <c r="C243" t="s">
-        <v>890</v>
+        <v>955</v>
       </c>
       <c r="D243">
-        <v>373</v>
+        <v>315</v>
       </c>
       <c r="E243" s="1">
         <v>0.4</v>
       </c>
+      <c r="G243" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K243" t="str">
         <f>IF(NOT(OR(F243="", G243="")),"Yes","")</f>
         <v/>
@@ -12714,16 +12717,16 @@
     </row>
     <row r="244" spans="1:14">
       <c r="A244">
-        <v>469</v>
+        <v>497</v>
       </c>
       <c r="B244" t="s">
-        <v>917</v>
+        <v>974</v>
       </c>
       <c r="C244" t="s">
-        <v>918</v>
+        <v>975</v>
       </c>
       <c r="D244">
-        <v>389</v>
+        <v>253</v>
       </c>
       <c r="E244" s="1">
         <v>0.4</v>
@@ -12783,23 +12786,20 @@
     </row>
     <row r="246" spans="1:14">
       <c r="A246">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="B246" t="s">
-        <v>954</v>
+        <v>976</v>
       </c>
       <c r="C246" t="s">
-        <v>955</v>
+        <v>977</v>
       </c>
       <c r="D246">
-        <v>315</v>
+        <v>253</v>
       </c>
       <c r="E246" s="1">
         <v>0.4</v>
       </c>
-      <c r="G246" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K246" t="str">
         <f>IF(NOT(OR(F246="", G246="")),"Yes","")</f>
         <v/>
@@ -12819,16 +12819,16 @@
     </row>
     <row r="247" spans="1:14">
       <c r="A247">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B247" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="C247" t="s">
-        <v>975</v>
+        <v>982</v>
       </c>
       <c r="D247">
-        <v>253</v>
+        <v>586</v>
       </c>
       <c r="E247" s="1">
         <v>0.4</v>
@@ -12852,20 +12852,23 @@
     </row>
     <row r="248" spans="1:14">
       <c r="A248">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="B248" t="s">
-        <v>976</v>
+        <v>997</v>
       </c>
       <c r="C248" t="s">
-        <v>977</v>
+        <v>998</v>
       </c>
       <c r="D248">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="E248" s="1">
         <v>0.4</v>
       </c>
+      <c r="G248" t="s">
+        <v>1047</v>
+      </c>
       <c r="K248" t="str">
         <f>IF(NOT(OR(F248="", G248="")),"Yes","")</f>
         <v/>
@@ -12885,16 +12888,16 @@
     </row>
     <row r="249" spans="1:14">
       <c r="A249">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="B249" t="s">
-        <v>980</v>
+        <v>1009</v>
       </c>
       <c r="C249" t="s">
-        <v>982</v>
+        <v>1010</v>
       </c>
       <c r="D249">
-        <v>586</v>
+        <v>258</v>
       </c>
       <c r="E249" s="1">
         <v>0.4</v>
@@ -12918,22 +12921,19 @@
     </row>
     <row r="250" spans="1:14">
       <c r="A250">
-        <v>509</v>
+        <v>291</v>
       </c>
       <c r="B250" t="s">
-        <v>997</v>
+        <v>569</v>
       </c>
       <c r="C250" t="s">
-        <v>998</v>
+        <v>570</v>
       </c>
       <c r="D250">
-        <v>261</v>
+        <v>853</v>
       </c>
       <c r="E250" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G250" t="s">
-        <v>1047</v>
+        <v>0.45</v>
       </c>
       <c r="K250" t="str">
         <f>IF(NOT(OR(F250="", G250="")),"Yes","")</f>
@@ -12954,19 +12954,19 @@
     </row>
     <row r="251" spans="1:14">
       <c r="A251">
-        <v>515</v>
+        <v>294</v>
       </c>
       <c r="B251" t="s">
-        <v>1009</v>
+        <v>575</v>
       </c>
       <c r="C251" t="s">
-        <v>1010</v>
+        <v>576</v>
       </c>
       <c r="D251">
-        <v>258</v>
+        <v>571</v>
       </c>
       <c r="E251" s="1">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="K251" t="str">
         <f>IF(NOT(OR(F251="", G251="")),"Yes","")</f>
@@ -12987,16 +12987,16 @@
     </row>
     <row r="252" spans="1:14">
       <c r="A252">
-        <v>291</v>
+        <v>341</v>
       </c>
       <c r="B252" t="s">
-        <v>569</v>
+        <v>667</v>
       </c>
       <c r="C252" t="s">
-        <v>570</v>
+        <v>668</v>
       </c>
       <c r="D252">
-        <v>853</v>
+        <v>597</v>
       </c>
       <c r="E252" s="1">
         <v>0.45</v>
@@ -13020,16 +13020,16 @@
     </row>
     <row r="253" spans="1:14">
       <c r="A253">
-        <v>294</v>
+        <v>368</v>
       </c>
       <c r="B253" t="s">
-        <v>575</v>
+        <v>717</v>
       </c>
       <c r="C253" t="s">
-        <v>576</v>
+        <v>718</v>
       </c>
       <c r="D253">
-        <v>571</v>
+        <v>372</v>
       </c>
       <c r="E253" s="1">
         <v>0.45</v>
@@ -13053,16 +13053,16 @@
     </row>
     <row r="254" spans="1:14">
       <c r="A254">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="B254" t="s">
-        <v>667</v>
+        <v>735</v>
       </c>
       <c r="C254" t="s">
-        <v>668</v>
+        <v>736</v>
       </c>
       <c r="D254">
-        <v>597</v>
+        <v>425</v>
       </c>
       <c r="E254" s="1">
         <v>0.45</v>
@@ -13086,20 +13086,23 @@
     </row>
     <row r="255" spans="1:14">
       <c r="A255">
-        <v>368</v>
+        <v>399</v>
       </c>
       <c r="B255" t="s">
-        <v>717</v>
+        <v>779</v>
       </c>
       <c r="C255" t="s">
-        <v>718</v>
+        <v>780</v>
       </c>
       <c r="D255">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="E255" s="1">
         <v>0.45</v>
       </c>
+      <c r="J255" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="K255" t="str">
         <f>IF(NOT(OR(F255="", G255="")),"Yes","")</f>
         <v/>
@@ -13119,16 +13122,16 @@
     </row>
     <row r="256" spans="1:14">
       <c r="A256">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="B256" t="s">
-        <v>735</v>
+        <v>797</v>
       </c>
       <c r="C256" t="s">
-        <v>736</v>
+        <v>798</v>
       </c>
       <c r="D256">
-        <v>425</v>
+        <v>335</v>
       </c>
       <c r="E256" s="1">
         <v>0.45</v>
@@ -13152,23 +13155,20 @@
     </row>
     <row r="257" spans="1:14">
       <c r="A257">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="B257" t="s">
-        <v>779</v>
+        <v>803</v>
       </c>
       <c r="C257" t="s">
-        <v>780</v>
+        <v>804</v>
       </c>
       <c r="D257">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="E257" s="1">
         <v>0.45</v>
       </c>
-      <c r="J257" s="4" t="s">
-        <v>1050</v>
-      </c>
       <c r="K257" t="str">
         <f>IF(NOT(OR(F257="", G257="")),"Yes","")</f>
         <v/>
@@ -13188,16 +13188,16 @@
     </row>
     <row r="258" spans="1:14">
       <c r="A258">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="B258" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="C258" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="D258">
-        <v>335</v>
+        <v>260</v>
       </c>
       <c r="E258" s="1">
         <v>0.45</v>
@@ -13221,16 +13221,16 @@
     </row>
     <row r="259" spans="1:14">
       <c r="A259">
-        <v>411</v>
+        <v>452</v>
       </c>
       <c r="B259" t="s">
-        <v>803</v>
+        <v>883</v>
       </c>
       <c r="C259" t="s">
-        <v>804</v>
+        <v>884</v>
       </c>
       <c r="D259">
-        <v>367</v>
+        <v>310</v>
       </c>
       <c r="E259" s="1">
         <v>0.45</v>
@@ -13254,16 +13254,16 @@
     </row>
     <row r="260" spans="1:14">
       <c r="A260">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="B260" t="s">
-        <v>827</v>
+        <v>931</v>
       </c>
       <c r="C260" t="s">
-        <v>828</v>
+        <v>932</v>
       </c>
       <c r="D260">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E260" s="1">
         <v>0.45</v>
@@ -13326,16 +13326,16 @@
     </row>
     <row r="262" spans="1:14">
       <c r="A262">
-        <v>452</v>
+        <v>480</v>
       </c>
       <c r="B262" t="s">
-        <v>883</v>
+        <v>940</v>
       </c>
       <c r="C262" t="s">
-        <v>884</v>
+        <v>941</v>
       </c>
       <c r="D262">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="E262" s="1">
         <v>0.45</v>
@@ -13359,16 +13359,16 @@
     </row>
     <row r="263" spans="1:14">
       <c r="A263">
-        <v>476</v>
+        <v>517</v>
       </c>
       <c r="B263" t="s">
-        <v>931</v>
+        <v>1013</v>
       </c>
       <c r="C263" t="s">
-        <v>932</v>
+        <v>1014</v>
       </c>
       <c r="D263">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E263" s="1">
         <v>0.45</v>
@@ -13392,16 +13392,16 @@
     </row>
     <row r="264" spans="1:14">
       <c r="A264">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="B264" t="s">
-        <v>940</v>
+        <v>1019</v>
       </c>
       <c r="C264" t="s">
-        <v>941</v>
+        <v>1020</v>
       </c>
       <c r="D264">
-        <v>318</v>
+        <v>225</v>
       </c>
       <c r="E264" s="1">
         <v>0.45</v>
@@ -13425,20 +13425,23 @@
     </row>
     <row r="265" spans="1:14">
       <c r="A265">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B265" t="s">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="C265" t="s">
-        <v>1014</v>
+        <v>1022</v>
       </c>
       <c r="D265">
-        <v>268</v>
+        <v>371</v>
       </c>
       <c r="E265" s="1">
         <v>0.45</v>
       </c>
+      <c r="G265" t="s">
+        <v>1047</v>
+      </c>
       <c r="K265" t="str">
         <f>IF(NOT(OR(F265="", G265="")),"Yes","")</f>
         <v/>
@@ -13458,16 +13461,16 @@
     </row>
     <row r="266" spans="1:14">
       <c r="A266">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="B266" t="s">
-        <v>1019</v>
+        <v>1028</v>
       </c>
       <c r="C266" t="s">
-        <v>1020</v>
+        <v>1029</v>
       </c>
       <c r="D266">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="E266" s="1">
         <v>0.45</v>
@@ -13637,23 +13640,23 @@
       </c>
     </row>
     <row r="271" spans="1:14">
-      <c r="A271">
-        <v>521</v>
+      <c r="A271" s="2">
+        <v>190</v>
       </c>
       <c r="B271" t="s">
-        <v>1021</v>
+        <v>379</v>
       </c>
       <c r="C271" t="s">
-        <v>1022</v>
+        <v>380</v>
       </c>
       <c r="D271">
-        <v>371</v>
+        <v>2797</v>
       </c>
       <c r="E271" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="G271" t="s">
-        <v>1047</v>
+        <v>0.5</v>
+      </c>
+      <c r="I271" t="s">
+        <v>1049</v>
       </c>
       <c r="K271" t="str">
         <f>IF(NOT(OR(F271="", G271="")),"Yes","")</f>
@@ -13674,19 +13677,19 @@
     </row>
     <row r="272" spans="1:14">
       <c r="A272">
-        <v>525</v>
+        <v>215</v>
       </c>
       <c r="B272" t="s">
-        <v>1028</v>
+        <v>424</v>
       </c>
       <c r="C272" t="s">
-        <v>1029</v>
+        <v>425</v>
       </c>
       <c r="D272">
-        <v>239</v>
+        <v>2532</v>
       </c>
       <c r="E272" s="1">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="K272" t="str">
         <f>IF(NOT(OR(F272="", G272="")),"Yes","")</f>
@@ -13706,24 +13709,21 @@
       </c>
     </row>
     <row r="273" spans="1:14">
-      <c r="A273" s="2">
-        <v>190</v>
+      <c r="A273">
+        <v>230</v>
       </c>
       <c r="B273" t="s">
-        <v>379</v>
+        <v>451</v>
       </c>
       <c r="C273" t="s">
-        <v>380</v>
+        <v>452</v>
       </c>
       <c r="D273">
-        <v>2797</v>
+        <v>2056</v>
       </c>
       <c r="E273" s="1">
         <v>0.5</v>
       </c>
-      <c r="I273" t="s">
-        <v>1049</v>
-      </c>
       <c r="K273" t="str">
         <f>IF(NOT(OR(F273="", G273="")),"Yes","")</f>
         <v/>
@@ -13743,16 +13743,16 @@
     </row>
     <row r="274" spans="1:14">
       <c r="A274">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="B274" t="s">
-        <v>424</v>
+        <v>544</v>
       </c>
       <c r="C274" t="s">
-        <v>425</v>
+        <v>545</v>
       </c>
       <c r="D274">
-        <v>2532</v>
+        <v>643</v>
       </c>
       <c r="E274" s="1">
         <v>0.5</v>
@@ -13776,16 +13776,16 @@
     </row>
     <row r="275" spans="1:14">
       <c r="A275">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="B275" t="s">
-        <v>451</v>
+        <v>567</v>
       </c>
       <c r="C275" t="s">
-        <v>452</v>
+        <v>568</v>
       </c>
       <c r="D275">
-        <v>2056</v>
+        <v>653</v>
       </c>
       <c r="E275" s="1">
         <v>0.5</v>
@@ -13809,20 +13809,23 @@
     </row>
     <row r="276" spans="1:14">
       <c r="A276">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="B276" t="s">
-        <v>544</v>
+        <v>587</v>
       </c>
       <c r="C276" t="s">
-        <v>545</v>
+        <v>588</v>
       </c>
       <c r="D276">
-        <v>643</v>
+        <v>705</v>
       </c>
       <c r="E276" s="1">
         <v>0.5</v>
       </c>
+      <c r="I276" t="s">
+        <v>1049</v>
+      </c>
       <c r="K276" t="str">
         <f>IF(NOT(OR(F276="", G276="")),"Yes","")</f>
         <v/>
@@ -13842,16 +13845,16 @@
     </row>
     <row r="277" spans="1:14">
       <c r="A277">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="B277" t="s">
-        <v>567</v>
+        <v>605</v>
       </c>
       <c r="C277" t="s">
-        <v>568</v>
+        <v>606</v>
       </c>
       <c r="D277">
-        <v>653</v>
+        <v>498</v>
       </c>
       <c r="E277" s="1">
         <v>0.5</v>
@@ -13875,22 +13878,19 @@
     </row>
     <row r="278" spans="1:14">
       <c r="A278">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="B278" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="C278" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="D278">
-        <v>705</v>
+        <v>539</v>
       </c>
       <c r="E278" s="1">
         <v>0.5</v>
-      </c>
-      <c r="I278" t="s">
-        <v>1049</v>
       </c>
       <c r="K278" t="str">
         <f>IF(NOT(OR(F278="", G278="")),"Yes","")</f>
@@ -13950,16 +13950,16 @@
     </row>
     <row r="280" spans="1:14">
       <c r="A280">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="B280" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="C280" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
       <c r="D280">
-        <v>498</v>
+        <v>561</v>
       </c>
       <c r="E280" s="1">
         <v>0.5</v>
@@ -13983,16 +13983,16 @@
     </row>
     <row r="281" spans="1:14">
       <c r="A281">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B281" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
       <c r="C281" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="D281">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="E281" s="1">
         <v>0.5</v>
@@ -14016,16 +14016,16 @@
     </row>
     <row r="282" spans="1:14">
       <c r="A282">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B282" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="C282" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="D282">
-        <v>561</v>
+        <v>429</v>
       </c>
       <c r="E282" s="1">
         <v>0.5</v>
@@ -14049,16 +14049,16 @@
     </row>
     <row r="283" spans="1:14">
       <c r="A283">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="B283" t="s">
-        <v>626</v>
+        <v>650</v>
       </c>
       <c r="C283" t="s">
-        <v>627</v>
+        <v>651</v>
       </c>
       <c r="D283">
-        <v>534</v>
+        <v>385</v>
       </c>
       <c r="E283" s="1">
         <v>0.5</v>
@@ -14082,16 +14082,16 @@
     </row>
     <row r="284" spans="1:14">
       <c r="A284">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="B284" t="s">
-        <v>634</v>
+        <v>669</v>
       </c>
       <c r="C284" t="s">
-        <v>635</v>
+        <v>670</v>
       </c>
       <c r="D284">
-        <v>429</v>
+        <v>514</v>
       </c>
       <c r="E284" s="1">
         <v>0.5</v>
@@ -14115,20 +14115,23 @@
     </row>
     <row r="285" spans="1:14">
       <c r="A285">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="B285" t="s">
-        <v>650</v>
+        <v>687</v>
       </c>
       <c r="C285" t="s">
-        <v>651</v>
+        <v>688</v>
       </c>
       <c r="D285">
-        <v>385</v>
+        <v>307</v>
       </c>
       <c r="E285" s="1">
         <v>0.5</v>
       </c>
+      <c r="G285" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K285" t="str">
         <f>IF(NOT(OR(F285="", G285="")),"Yes","")</f>
         <v/>
@@ -14148,16 +14151,16 @@
     </row>
     <row r="286" spans="1:14">
       <c r="A286">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="B286" t="s">
-        <v>669</v>
+        <v>701</v>
       </c>
       <c r="C286" t="s">
-        <v>670</v>
+        <v>702</v>
       </c>
       <c r="D286">
-        <v>514</v>
+        <v>421</v>
       </c>
       <c r="E286" s="1">
         <v>0.5</v>
@@ -14181,22 +14184,19 @@
     </row>
     <row r="287" spans="1:14">
       <c r="A287">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="B287" t="s">
-        <v>687</v>
+        <v>709</v>
       </c>
       <c r="C287" t="s">
-        <v>688</v>
+        <v>710</v>
       </c>
       <c r="D287">
-        <v>307</v>
+        <v>423</v>
       </c>
       <c r="E287" s="1">
         <v>0.5</v>
-      </c>
-      <c r="G287" s="4" t="s">
-        <v>1047</v>
       </c>
       <c r="K287" t="str">
         <f>IF(NOT(OR(F287="", G287="")),"Yes","")</f>
@@ -14253,20 +14253,23 @@
     </row>
     <row r="289" spans="1:14">
       <c r="A289">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="B289" t="s">
-        <v>701</v>
+        <v>747</v>
       </c>
       <c r="C289" t="s">
-        <v>702</v>
+        <v>748</v>
       </c>
       <c r="D289">
-        <v>421</v>
+        <v>339</v>
       </c>
       <c r="E289" s="1">
         <v>0.5</v>
       </c>
+      <c r="G289" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K289" t="str">
         <f>IF(NOT(OR(F289="", G289="")),"Yes","")</f>
         <v/>
@@ -14286,16 +14289,16 @@
     </row>
     <row r="290" spans="1:14">
       <c r="A290">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="B290" t="s">
-        <v>709</v>
+        <v>757</v>
       </c>
       <c r="C290" t="s">
-        <v>710</v>
+        <v>758</v>
       </c>
       <c r="D290">
-        <v>423</v>
+        <v>353</v>
       </c>
       <c r="E290" s="1">
         <v>0.5</v>
@@ -14319,22 +14322,22 @@
     </row>
     <row r="291" spans="1:14">
       <c r="A291">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B291" t="s">
-        <v>747</v>
+        <v>767</v>
       </c>
       <c r="C291" t="s">
-        <v>748</v>
+        <v>768</v>
       </c>
       <c r="D291">
-        <v>339</v>
+        <v>460</v>
       </c>
       <c r="E291" s="1">
         <v>0.5</v>
       </c>
-      <c r="G291" s="4" t="s">
-        <v>1047</v>
+      <c r="J291" s="4" t="s">
+        <v>1050</v>
       </c>
       <c r="K291" t="str">
         <f>IF(NOT(OR(F291="", G291="")),"Yes","")</f>
@@ -14355,16 +14358,16 @@
     </row>
     <row r="292" spans="1:14">
       <c r="A292">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="B292" t="s">
-        <v>757</v>
+        <v>793</v>
       </c>
       <c r="C292" t="s">
-        <v>758</v>
+        <v>794</v>
       </c>
       <c r="D292">
-        <v>353</v>
+        <v>227</v>
       </c>
       <c r="E292" s="1">
         <v>0.5</v>
@@ -14388,23 +14391,20 @@
     </row>
     <row r="293" spans="1:14">
       <c r="A293">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="B293" t="s">
-        <v>767</v>
+        <v>805</v>
       </c>
       <c r="C293" t="s">
-        <v>768</v>
+        <v>806</v>
       </c>
       <c r="D293">
-        <v>460</v>
+        <v>279</v>
       </c>
       <c r="E293" s="1">
         <v>0.5</v>
       </c>
-      <c r="J293" s="4" t="s">
-        <v>1050</v>
-      </c>
       <c r="K293" t="str">
         <f>IF(NOT(OR(F293="", G293="")),"Yes","")</f>
         <v/>
@@ -14424,19 +14424,22 @@
     </row>
     <row r="294" spans="1:14">
       <c r="A294">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="B294" t="s">
-        <v>793</v>
+        <v>819</v>
       </c>
       <c r="C294" t="s">
-        <v>794</v>
+        <v>820</v>
       </c>
       <c r="D294">
-        <v>227</v>
+        <v>313</v>
       </c>
       <c r="E294" s="1">
         <v>0.5</v>
+      </c>
+      <c r="G294" s="4" t="s">
+        <v>1047</v>
       </c>
       <c r="K294" t="str">
         <f>IF(NOT(OR(F294="", G294="")),"Yes","")</f>
@@ -14496,20 +14499,23 @@
     </row>
     <row r="296" spans="1:14">
       <c r="A296">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="B296" t="s">
-        <v>805</v>
+        <v>823</v>
       </c>
       <c r="C296" t="s">
-        <v>806</v>
+        <v>824</v>
       </c>
       <c r="D296">
-        <v>279</v>
+        <v>334</v>
       </c>
       <c r="E296" s="1">
         <v>0.5</v>
       </c>
+      <c r="G296" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K296" t="str">
         <f>IF(NOT(OR(F296="", G296="")),"Yes","")</f>
         <v/>
@@ -14529,23 +14535,20 @@
     </row>
     <row r="297" spans="1:14">
       <c r="A297">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="B297" t="s">
-        <v>819</v>
+        <v>871</v>
       </c>
       <c r="C297" t="s">
-        <v>820</v>
+        <v>872</v>
       </c>
       <c r="D297">
-        <v>313</v>
+        <v>192</v>
       </c>
       <c r="E297" s="1">
         <v>0.5</v>
       </c>
-      <c r="G297" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K297" t="str">
         <f>IF(NOT(OR(F297="", G297="")),"Yes","")</f>
         <v/>
@@ -14565,23 +14568,20 @@
     </row>
     <row r="298" spans="1:14">
       <c r="A298">
-        <v>421</v>
+        <v>454</v>
       </c>
       <c r="B298" t="s">
-        <v>823</v>
+        <v>887</v>
       </c>
       <c r="C298" t="s">
-        <v>824</v>
+        <v>888</v>
       </c>
       <c r="D298">
-        <v>334</v>
+        <v>273</v>
       </c>
       <c r="E298" s="1">
         <v>0.5</v>
       </c>
-      <c r="G298" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K298" t="str">
         <f>IF(NOT(OR(F298="", G298="")),"Yes","")</f>
         <v/>
@@ -14601,16 +14601,16 @@
     </row>
     <row r="299" spans="1:14">
       <c r="A299">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="B299" t="s">
-        <v>871</v>
+        <v>891</v>
       </c>
       <c r="C299" t="s">
-        <v>872</v>
+        <v>892</v>
       </c>
       <c r="D299">
-        <v>192</v>
+        <v>270</v>
       </c>
       <c r="E299" s="1">
         <v>0.5</v>
@@ -14634,20 +14634,23 @@
     </row>
     <row r="300" spans="1:14">
       <c r="A300">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="B300" t="s">
-        <v>887</v>
+        <v>913</v>
       </c>
       <c r="C300" t="s">
-        <v>888</v>
+        <v>914</v>
       </c>
       <c r="D300">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="E300" s="1">
         <v>0.5</v>
       </c>
+      <c r="G300" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K300" t="str">
         <f>IF(NOT(OR(F300="", G300="")),"Yes","")</f>
         <v/>
@@ -14667,16 +14670,16 @@
     </row>
     <row r="301" spans="1:14">
       <c r="A301">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="B301" t="s">
-        <v>891</v>
+        <v>927</v>
       </c>
       <c r="C301" t="s">
-        <v>892</v>
+        <v>928</v>
       </c>
       <c r="D301">
-        <v>270</v>
+        <v>207</v>
       </c>
       <c r="E301" s="1">
         <v>0.5</v>
@@ -14700,22 +14703,19 @@
     </row>
     <row r="302" spans="1:14">
       <c r="A302">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B302" t="s">
-        <v>913</v>
+        <v>929</v>
       </c>
       <c r="C302" t="s">
-        <v>914</v>
+        <v>930</v>
       </c>
       <c r="D302">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E302" s="1">
         <v>0.5</v>
-      </c>
-      <c r="G302" s="4" t="s">
-        <v>1047</v>
       </c>
       <c r="K302" t="str">
         <f>IF(NOT(OR(F302="", G302="")),"Yes","")</f>
@@ -14772,16 +14772,16 @@
     </row>
     <row r="304" spans="1:14">
       <c r="A304">
-        <v>474</v>
+        <v>496</v>
       </c>
       <c r="B304" t="s">
-        <v>927</v>
+        <v>972</v>
       </c>
       <c r="C304" t="s">
-        <v>928</v>
+        <v>973</v>
       </c>
       <c r="D304">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="E304" s="1">
         <v>0.5</v>
@@ -14880,16 +14880,16 @@
     </row>
     <row r="307" spans="1:14">
       <c r="A307">
-        <v>475</v>
+        <v>519</v>
       </c>
       <c r="B307" t="s">
-        <v>929</v>
+        <v>1017</v>
       </c>
       <c r="C307" t="s">
-        <v>930</v>
+        <v>1018</v>
       </c>
       <c r="D307">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="E307" s="1">
         <v>0.5</v>
@@ -14913,16 +14913,16 @@
     </row>
     <row r="308" spans="1:14">
       <c r="A308">
-        <v>496</v>
+        <v>533</v>
       </c>
       <c r="B308" t="s">
-        <v>972</v>
+        <v>1058</v>
       </c>
       <c r="C308" t="s">
-        <v>973</v>
+        <v>1059</v>
       </c>
       <c r="D308">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E308" s="1">
         <v>0.5</v>
@@ -14987,20 +14987,20 @@
       </c>
     </row>
     <row r="310" spans="1:14">
-      <c r="A310">
-        <v>519</v>
+      <c r="A310" s="2">
+        <v>158</v>
       </c>
       <c r="B310" t="s">
-        <v>1017</v>
+        <v>316</v>
       </c>
       <c r="C310" t="s">
-        <v>1018</v>
+        <v>317</v>
       </c>
       <c r="D310">
-        <v>207</v>
+        <v>2357</v>
       </c>
       <c r="E310" s="1">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K310" t="str">
         <f>IF(NOT(OR(F310="", G310="")),"Yes","")</f>
@@ -15020,20 +15020,20 @@
       </c>
     </row>
     <row r="311" spans="1:14">
-      <c r="A311">
-        <v>533</v>
+      <c r="A311" s="2">
+        <v>172</v>
       </c>
       <c r="B311" t="s">
-        <v>1058</v>
+        <v>344</v>
       </c>
       <c r="C311" t="s">
-        <v>1059</v>
+        <v>345</v>
       </c>
       <c r="D311">
-        <v>177</v>
+        <v>2481</v>
       </c>
       <c r="E311" s="1">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K311" t="str">
         <f>IF(NOT(OR(F311="", G311="")),"Yes","")</f>
@@ -15054,16 +15054,16 @@
     </row>
     <row r="312" spans="1:14">
       <c r="A312" s="2">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="B312" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="C312" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="D312">
-        <v>2357</v>
+        <v>2230</v>
       </c>
       <c r="E312" s="1">
         <v>0.55000000000000004</v>
@@ -15087,16 +15087,16 @@
     </row>
     <row r="313" spans="1:14">
       <c r="A313" s="2">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="B313" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="C313" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="D313">
-        <v>2481</v>
+        <v>2030</v>
       </c>
       <c r="E313" s="1">
         <v>0.55000000000000004</v>
@@ -15119,17 +15119,17 @@
       </c>
     </row>
     <row r="314" spans="1:14">
-      <c r="A314" s="2">
-        <v>178</v>
+      <c r="A314">
+        <v>218</v>
       </c>
       <c r="B314" t="s">
-        <v>355</v>
+        <v>429</v>
       </c>
       <c r="C314" t="s">
-        <v>356</v>
+        <v>430</v>
       </c>
       <c r="D314">
-        <v>2230</v>
+        <v>2071</v>
       </c>
       <c r="E314" s="1">
         <v>0.55000000000000004</v>
@@ -15152,17 +15152,17 @@
       </c>
     </row>
     <row r="315" spans="1:14">
-      <c r="A315" s="2">
-        <v>185</v>
+      <c r="A315">
+        <v>220</v>
       </c>
       <c r="B315" t="s">
-        <v>369</v>
+        <v>433</v>
       </c>
       <c r="C315" t="s">
-        <v>370</v>
+        <v>434</v>
       </c>
       <c r="D315">
-        <v>2030</v>
+        <v>1626</v>
       </c>
       <c r="E315" s="1">
         <v>0.55000000000000004</v>
@@ -15186,16 +15186,16 @@
     </row>
     <row r="316" spans="1:14">
       <c r="A316">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="B316" t="s">
-        <v>429</v>
-      </c>
-      <c r="C316" t="s">
-        <v>430</v>
+        <v>489</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>1045</v>
       </c>
       <c r="D316">
-        <v>2071</v>
+        <v>1944</v>
       </c>
       <c r="E316" s="1">
         <v>0.55000000000000004</v>
@@ -15219,16 +15219,16 @@
     </row>
     <row r="317" spans="1:14">
       <c r="A317">
-        <v>220</v>
+        <v>279</v>
       </c>
       <c r="B317" t="s">
-        <v>433</v>
+        <v>546</v>
       </c>
       <c r="C317" t="s">
-        <v>434</v>
+        <v>547</v>
       </c>
       <c r="D317">
-        <v>1626</v>
+        <v>454</v>
       </c>
       <c r="E317" s="1">
         <v>0.55000000000000004</v>
@@ -15252,20 +15252,23 @@
     </row>
     <row r="318" spans="1:14">
       <c r="A318">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="B318" t="s">
-        <v>489</v>
-      </c>
-      <c r="C318" s="3" t="s">
-        <v>1045</v>
+        <v>550</v>
+      </c>
+      <c r="C318" t="s">
+        <v>551</v>
       </c>
       <c r="D318">
-        <v>1944</v>
+        <v>590</v>
       </c>
       <c r="E318" s="1">
         <v>0.55000000000000004</v>
       </c>
+      <c r="G318" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K318" t="str">
         <f>IF(NOT(OR(F318="", G318="")),"Yes","")</f>
         <v/>
@@ -15285,16 +15288,16 @@
     </row>
     <row r="319" spans="1:14">
       <c r="A319">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B319" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="C319" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="D319">
-        <v>454</v>
+        <v>845</v>
       </c>
       <c r="E319" s="1">
         <v>0.55000000000000004</v>
@@ -15318,22 +15321,22 @@
     </row>
     <row r="320" spans="1:14">
       <c r="A320">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B320" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="C320" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="D320">
-        <v>590</v>
+        <v>779</v>
       </c>
       <c r="E320" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G320" s="4" t="s">
-        <v>1047</v>
+      <c r="J320" s="4" t="s">
+        <v>1050</v>
       </c>
       <c r="K320" t="str">
         <f>IF(NOT(OR(F320="", G320="")),"Yes","")</f>
@@ -15354,16 +15357,16 @@
     </row>
     <row r="321" spans="1:14">
       <c r="A321">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="B321" t="s">
-        <v>556</v>
+        <v>599</v>
       </c>
       <c r="C321" t="s">
-        <v>557</v>
+        <v>600</v>
       </c>
       <c r="D321">
-        <v>845</v>
+        <v>727</v>
       </c>
       <c r="E321" s="1">
         <v>0.55000000000000004</v>
@@ -15387,23 +15390,20 @@
     </row>
     <row r="322" spans="1:14">
       <c r="A322">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="B322" t="s">
-        <v>558</v>
+        <v>619</v>
       </c>
       <c r="C322" t="s">
-        <v>559</v>
+        <v>620</v>
       </c>
       <c r="D322">
-        <v>779</v>
+        <v>425</v>
       </c>
       <c r="E322" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J322" s="4" t="s">
-        <v>1050</v>
-      </c>
       <c r="K322" t="str">
         <f>IF(NOT(OR(F322="", G322="")),"Yes","")</f>
         <v/>
@@ -15423,16 +15423,16 @@
     </row>
     <row r="323" spans="1:14">
       <c r="A323">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>599</v>
+        <v>638</v>
       </c>
       <c r="C323" t="s">
-        <v>600</v>
+        <v>639</v>
       </c>
       <c r="D323">
-        <v>727</v>
+        <v>347</v>
       </c>
       <c r="E323" s="1">
         <v>0.55000000000000004</v>
@@ -15456,16 +15456,16 @@
     </row>
     <row r="324" spans="1:14">
       <c r="A324">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="B324" t="s">
-        <v>619</v>
+        <v>685</v>
       </c>
       <c r="C324" t="s">
-        <v>620</v>
+        <v>686</v>
       </c>
       <c r="D324">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="E324" s="1">
         <v>0.55000000000000004</v>
@@ -15487,21 +15487,24 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="1:14">
+    <row r="325" spans="1:14" hidden="1">
       <c r="A325">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B325" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C325" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D325">
-        <v>347</v>
+        <v>2145</v>
       </c>
       <c r="E325" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.2</v>
+      </c>
+      <c r="F325" t="s">
+        <v>7</v>
       </c>
       <c r="K325" t="str">
         <f>IF(NOT(OR(F325="", G325="")),"Yes","")</f>
@@ -15522,20 +15525,26 @@
     </row>
     <row r="326" spans="1:14">
       <c r="A326">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="B326" t="s">
-        <v>685</v>
+        <v>715</v>
       </c>
       <c r="C326" t="s">
-        <v>686</v>
+        <v>716</v>
       </c>
       <c r="D326">
-        <v>393</v>
+        <v>315</v>
       </c>
       <c r="E326" s="1">
         <v>0.55000000000000004</v>
       </c>
+      <c r="G326" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="J326" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="K326" t="str">
         <f>IF(NOT(OR(F326="", G326="")),"Yes","")</f>
         <v/>
@@ -15555,26 +15564,20 @@
     </row>
     <row r="327" spans="1:14">
       <c r="A327">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="B327" t="s">
-        <v>715</v>
+        <v>769</v>
       </c>
       <c r="C327" t="s">
-        <v>716</v>
+        <v>770</v>
       </c>
       <c r="D327">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="E327" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G327" s="4" t="s">
-        <v>1047</v>
-      </c>
-      <c r="J327" s="4" t="s">
-        <v>1050</v>
-      </c>
       <c r="K327" t="str">
         <f>IF(NOT(OR(F327="", G327="")),"Yes","")</f>
         <v/>
@@ -15594,16 +15597,16 @@
     </row>
     <row r="328" spans="1:14">
       <c r="A328">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B328" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="C328" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="D328">
-        <v>348</v>
+        <v>241</v>
       </c>
       <c r="E328" s="1">
         <v>0.55000000000000004</v>
@@ -15627,16 +15630,16 @@
     </row>
     <row r="329" spans="1:14">
       <c r="A329">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B329" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="C329" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="D329">
-        <v>241</v>
+        <v>297</v>
       </c>
       <c r="E329" s="1">
         <v>0.55000000000000004</v>
@@ -15660,16 +15663,16 @@
     </row>
     <row r="330" spans="1:14">
       <c r="A330">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B330" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="C330" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="D330">
-        <v>297</v>
+        <v>238</v>
       </c>
       <c r="E330" s="1">
         <v>0.55000000000000004</v>
@@ -15729,16 +15732,16 @@
     </row>
     <row r="332" spans="1:14">
       <c r="A332">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B332" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C332" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="D332">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="E332" s="1">
         <v>0.55000000000000004</v>
@@ -15762,20 +15765,23 @@
     </row>
     <row r="333" spans="1:14">
       <c r="A333">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B333" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="C333" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="D333">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="E333" s="1">
         <v>0.55000000000000004</v>
       </c>
+      <c r="G333" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K333" t="str">
         <f>IF(NOT(OR(F333="", G333="")),"Yes","")</f>
         <v/>
@@ -15795,23 +15801,20 @@
     </row>
     <row r="334" spans="1:14">
       <c r="A334">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="B334" t="s">
-        <v>799</v>
+        <v>853</v>
       </c>
       <c r="C334" t="s">
-        <v>800</v>
+        <v>854</v>
       </c>
       <c r="D334">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E334" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G334" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K334" t="str">
         <f>IF(NOT(OR(F334="", G334="")),"Yes","")</f>
         <v/>
@@ -15831,16 +15834,16 @@
     </row>
     <row r="335" spans="1:14">
       <c r="A335">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B335" t="s">
-        <v>853</v>
+        <v>865</v>
       </c>
       <c r="C335" t="s">
-        <v>854</v>
+        <v>866</v>
       </c>
       <c r="D335">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="E335" s="1">
         <v>0.55000000000000004</v>
@@ -15864,16 +15867,16 @@
     </row>
     <row r="336" spans="1:14">
       <c r="A336">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B336" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="C336" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="D336">
-        <v>235</v>
+        <v>168</v>
       </c>
       <c r="E336" s="1">
         <v>0.55000000000000004</v>
@@ -15897,16 +15900,16 @@
     </row>
     <row r="337" spans="1:14">
       <c r="A337">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="B337" t="s">
-        <v>869</v>
+        <v>899</v>
       </c>
       <c r="C337" t="s">
-        <v>870</v>
+        <v>900</v>
       </c>
       <c r="D337">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="E337" s="1">
         <v>0.55000000000000004</v>
@@ -15930,16 +15933,16 @@
     </row>
     <row r="338" spans="1:14">
       <c r="A338">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B338" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="C338" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="D338">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="E338" s="1">
         <v>0.55000000000000004</v>
@@ -15963,16 +15966,16 @@
     </row>
     <row r="339" spans="1:14">
       <c r="A339">
-        <v>462</v>
+        <v>511</v>
       </c>
       <c r="B339" t="s">
-        <v>903</v>
+        <v>1001</v>
       </c>
       <c r="C339" t="s">
-        <v>904</v>
+        <v>1002</v>
       </c>
       <c r="D339">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="E339" s="1">
         <v>0.55000000000000004</v>
@@ -15996,16 +15999,16 @@
     </row>
     <row r="340" spans="1:14">
       <c r="A340">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="B340" t="s">
-        <v>1001</v>
+        <v>1034</v>
       </c>
       <c r="C340" t="s">
-        <v>1002</v>
+        <v>1035</v>
       </c>
       <c r="D340">
-        <v>214</v>
+        <v>147</v>
       </c>
       <c r="E340" s="1">
         <v>0.55000000000000004</v>
@@ -16029,16 +16032,16 @@
     </row>
     <row r="341" spans="1:14">
       <c r="A341">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B341" t="s">
-        <v>1034</v>
+        <v>1039</v>
       </c>
       <c r="C341" t="s">
-        <v>1035</v>
+        <v>1040</v>
       </c>
       <c r="D341">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E341" s="1">
         <v>0.55000000000000004</v>
@@ -16062,16 +16065,16 @@
     </row>
     <row r="342" spans="1:14">
       <c r="A342">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B342" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="C342" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="D342">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="E342" s="1">
         <v>0.55000000000000004</v>
@@ -16095,16 +16098,16 @@
     </row>
     <row r="343" spans="1:14">
       <c r="A343">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B343" t="s">
-        <v>1043</v>
+        <v>1057</v>
       </c>
       <c r="C343" t="s">
-        <v>1044</v>
+        <v>1060</v>
       </c>
       <c r="D343">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="E343" s="1">
         <v>0.55000000000000004</v>
@@ -16127,20 +16130,20 @@
       </c>
     </row>
     <row r="344" spans="1:14">
-      <c r="A344">
-        <v>534</v>
+      <c r="A344" s="2">
+        <v>155</v>
       </c>
       <c r="B344" t="s">
-        <v>1057</v>
+        <v>310</v>
       </c>
       <c r="C344" t="s">
-        <v>1060</v>
+        <v>311</v>
       </c>
       <c r="D344">
-        <v>168</v>
+        <v>2224</v>
       </c>
       <c r="E344" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="K344" t="str">
         <f>IF(NOT(OR(F344="", G344="")),"Yes","")</f>
@@ -16161,20 +16164,23 @@
     </row>
     <row r="345" spans="1:14">
       <c r="A345" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B345" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C345" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="D345">
-        <v>2224</v>
+        <v>2122</v>
       </c>
       <c r="E345" s="1">
         <v>0.6</v>
       </c>
+      <c r="J345" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="K345" t="str">
         <f>IF(NOT(OR(F345="", G345="")),"Yes","")</f>
         <v/>
@@ -16194,22 +16200,19 @@
     </row>
     <row r="346" spans="1:14">
       <c r="A346" s="2">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="B346" t="s">
-        <v>318</v>
+        <v>371</v>
       </c>
       <c r="C346" t="s">
-        <v>319</v>
+        <v>372</v>
       </c>
       <c r="D346">
-        <v>2122</v>
+        <v>1855</v>
       </c>
       <c r="E346" s="1">
         <v>0.6</v>
-      </c>
-      <c r="J346" s="4" t="s">
-        <v>1050</v>
       </c>
       <c r="K346" t="str">
         <f>IF(NOT(OR(F346="", G346="")),"Yes","")</f>
@@ -16418,17 +16421,17 @@
       </c>
     </row>
     <row r="352" spans="1:14">
-      <c r="A352" s="2">
-        <v>186</v>
+      <c r="A352">
+        <v>202</v>
       </c>
       <c r="B352" t="s">
-        <v>371</v>
+        <v>401</v>
       </c>
       <c r="C352" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="D352">
-        <v>1855</v>
+        <v>1662</v>
       </c>
       <c r="E352" s="1">
         <v>0.6</v>
@@ -16452,16 +16455,16 @@
     </row>
     <row r="353" spans="1:14">
       <c r="A353">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B353" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="C353" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="D353">
-        <v>1662</v>
+        <v>1719</v>
       </c>
       <c r="E353" s="1">
         <v>0.6</v>
@@ -16485,16 +16488,16 @@
     </row>
     <row r="354" spans="1:14">
       <c r="A354">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B354" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="C354" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="D354">
-        <v>1719</v>
+        <v>1556</v>
       </c>
       <c r="E354" s="1">
         <v>0.6</v>
@@ -16518,16 +16521,16 @@
     </row>
     <row r="355" spans="1:14">
       <c r="A355">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B355" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="C355" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="D355">
-        <v>1556</v>
+        <v>1422</v>
       </c>
       <c r="E355" s="1">
         <v>0.6</v>
@@ -16551,16 +16554,16 @@
     </row>
     <row r="356" spans="1:14">
       <c r="A356">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="B356" t="s">
-        <v>437</v>
+        <v>471</v>
       </c>
       <c r="C356" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="D356">
-        <v>1422</v>
+        <v>1502</v>
       </c>
       <c r="E356" s="1">
         <v>0.6</v>
@@ -16584,16 +16587,16 @@
     </row>
     <row r="357" spans="1:14">
       <c r="A357">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B357" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="C357" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="D357">
-        <v>1502</v>
+        <v>1701</v>
       </c>
       <c r="E357" s="1">
         <v>0.6</v>
@@ -16617,19 +16620,22 @@
     </row>
     <row r="358" spans="1:14">
       <c r="A358">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="B358" t="s">
-        <v>489</v>
+        <v>531</v>
       </c>
       <c r="C358" t="s">
-        <v>490</v>
+        <v>532</v>
       </c>
       <c r="D358">
-        <v>1701</v>
+        <v>1565</v>
       </c>
       <c r="E358" s="1">
         <v>0.6</v>
+      </c>
+      <c r="G358" s="4" t="s">
+        <v>1047</v>
       </c>
       <c r="K358" t="str">
         <f>IF(NOT(OR(F358="", G358="")),"Yes","")</f>
@@ -16689,23 +16695,20 @@
     </row>
     <row r="360" spans="1:14">
       <c r="A360">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="B360" t="s">
-        <v>531</v>
+        <v>579</v>
       </c>
       <c r="C360" t="s">
-        <v>532</v>
+        <v>580</v>
       </c>
       <c r="D360">
-        <v>1565</v>
+        <v>391</v>
       </c>
       <c r="E360" s="1">
         <v>0.6</v>
       </c>
-      <c r="G360" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K360" t="str">
         <f>IF(NOT(OR(F360="", G360="")),"Yes","")</f>
         <v/>
@@ -16725,16 +16728,16 @@
     </row>
     <row r="361" spans="1:14">
       <c r="A361">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B361" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C361" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D361">
-        <v>391</v>
+        <v>451</v>
       </c>
       <c r="E361" s="1">
         <v>0.6</v>
@@ -16758,16 +16761,16 @@
     </row>
     <row r="362" spans="1:14">
       <c r="A362">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B362" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C362" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D362">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="E362" s="1">
         <v>0.6</v>
@@ -16791,16 +16794,16 @@
     </row>
     <row r="363" spans="1:14">
       <c r="A363">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B363" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="C363" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="D363">
-        <v>434</v>
+        <v>474</v>
       </c>
       <c r="E363" s="1">
         <v>0.6</v>
@@ -16824,16 +16827,16 @@
     </row>
     <row r="364" spans="1:14">
       <c r="A364">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B364" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="C364" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="D364">
-        <v>474</v>
+        <v>427</v>
       </c>
       <c r="E364" s="1">
         <v>0.6</v>
@@ -16857,16 +16860,16 @@
     </row>
     <row r="365" spans="1:14">
       <c r="A365">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B365" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="C365" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="D365">
-        <v>427</v>
+        <v>518</v>
       </c>
       <c r="E365" s="1">
         <v>0.6</v>
@@ -16890,16 +16893,16 @@
     </row>
     <row r="366" spans="1:14">
       <c r="A366">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="B366" t="s">
-        <v>603</v>
+        <v>681</v>
       </c>
       <c r="C366" t="s">
-        <v>604</v>
+        <v>682</v>
       </c>
       <c r="D366">
-        <v>518</v>
+        <v>300</v>
       </c>
       <c r="E366" s="1">
         <v>0.6</v>
@@ -16959,16 +16962,16 @@
     </row>
     <row r="368" spans="1:14">
       <c r="A368">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B368" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="C368" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="D368">
-        <v>300</v>
+        <v>351</v>
       </c>
       <c r="E368" s="1">
         <v>0.6</v>
@@ -16992,16 +16995,16 @@
     </row>
     <row r="369" spans="1:14">
       <c r="A369">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="B369" t="s">
-        <v>693</v>
+        <v>719</v>
       </c>
       <c r="C369" t="s">
-        <v>694</v>
+        <v>720</v>
       </c>
       <c r="D369">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="E369" s="1">
         <v>0.6</v>
@@ -17025,16 +17028,16 @@
     </row>
     <row r="370" spans="1:14">
       <c r="A370">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B370" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="C370" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="D370">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="E370" s="1">
         <v>0.6</v>
@@ -17058,16 +17061,16 @@
     </row>
     <row r="371" spans="1:14">
       <c r="A371">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B371" t="s">
-        <v>725</v>
+        <v>741</v>
       </c>
       <c r="C371" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="D371">
-        <v>281</v>
+        <v>339</v>
       </c>
       <c r="E371" s="1">
         <v>0.6</v>
@@ -17091,16 +17094,16 @@
     </row>
     <row r="372" spans="1:14">
       <c r="A372">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B372" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="C372" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="D372">
-        <v>339</v>
+        <v>232</v>
       </c>
       <c r="E372" s="1">
         <v>0.6</v>
@@ -17124,16 +17127,16 @@
     </row>
     <row r="373" spans="1:14">
       <c r="A373">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B373" t="s">
-        <v>745</v>
+        <v>761</v>
       </c>
       <c r="C373" t="s">
-        <v>746</v>
+        <v>762</v>
       </c>
       <c r="D373">
-        <v>232</v>
+        <v>408</v>
       </c>
       <c r="E373" s="1">
         <v>0.6</v>
@@ -17157,16 +17160,16 @@
     </row>
     <row r="374" spans="1:14">
       <c r="A374">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="B374" t="s">
-        <v>761</v>
+        <v>789</v>
       </c>
       <c r="C374" t="s">
-        <v>762</v>
+        <v>790</v>
       </c>
       <c r="D374">
-        <v>408</v>
+        <v>211</v>
       </c>
       <c r="E374" s="1">
         <v>0.6</v>
@@ -17190,16 +17193,16 @@
     </row>
     <row r="375" spans="1:14">
       <c r="A375">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="B375" t="s">
-        <v>789</v>
+        <v>809</v>
       </c>
       <c r="C375" t="s">
-        <v>790</v>
+        <v>810</v>
       </c>
       <c r="D375">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="E375" s="1">
         <v>0.6</v>
@@ -17223,16 +17226,16 @@
     </row>
     <row r="376" spans="1:14">
       <c r="A376">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B376" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
       <c r="C376" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
       <c r="D376">
-        <v>172</v>
+        <v>254</v>
       </c>
       <c r="E376" s="1">
         <v>0.6</v>
@@ -17256,16 +17259,16 @@
     </row>
     <row r="377" spans="1:14">
       <c r="A377">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B377" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="C377" t="s">
-        <v>822</v>
+        <v>830</v>
       </c>
       <c r="D377">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="E377" s="1">
         <v>0.6</v>
@@ -17289,16 +17292,16 @@
     </row>
     <row r="378" spans="1:14">
       <c r="A378">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="B378" t="s">
-        <v>829</v>
+        <v>861</v>
       </c>
       <c r="C378" t="s">
-        <v>830</v>
+        <v>862</v>
       </c>
       <c r="D378">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="E378" s="1">
         <v>0.6</v>
@@ -17322,16 +17325,16 @@
     </row>
     <row r="379" spans="1:14">
       <c r="A379">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B379" t="s">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="C379" t="s">
-        <v>862</v>
+        <v>873</v>
       </c>
       <c r="D379">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E379" s="1">
         <v>0.6</v>
@@ -17355,16 +17358,16 @@
     </row>
     <row r="380" spans="1:14">
       <c r="A380">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="B380" t="s">
-        <v>871</v>
+        <v>907</v>
       </c>
       <c r="C380" t="s">
-        <v>873</v>
+        <v>908</v>
       </c>
       <c r="D380">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E380" s="1">
         <v>0.6</v>
@@ -17388,16 +17391,16 @@
     </row>
     <row r="381" spans="1:14">
       <c r="A381">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="B381" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="C381" t="s">
-        <v>908</v>
+        <v>924</v>
       </c>
       <c r="D381">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E381" s="1">
         <v>0.6</v>
@@ -17421,16 +17424,16 @@
     </row>
     <row r="382" spans="1:14">
       <c r="A382">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="B382" t="s">
-        <v>923</v>
+        <v>964</v>
       </c>
       <c r="C382" t="s">
-        <v>924</v>
+        <v>965</v>
       </c>
       <c r="D382">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="E382" s="1">
         <v>0.6</v>
@@ -17490,20 +17493,23 @@
     </row>
     <row r="384" spans="1:14">
       <c r="A384">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="B384" t="s">
-        <v>964</v>
+        <v>985</v>
       </c>
       <c r="C384" t="s">
-        <v>965</v>
+        <v>986</v>
       </c>
       <c r="D384">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E384" s="1">
         <v>0.6</v>
       </c>
+      <c r="G384" t="s">
+        <v>1047</v>
+      </c>
       <c r="K384" t="str">
         <f>IF(NOT(OR(F384="", G384="")),"Yes","")</f>
         <v/>
@@ -17523,23 +17529,20 @@
     </row>
     <row r="385" spans="1:14">
       <c r="A385">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="B385" t="s">
-        <v>985</v>
+        <v>1005</v>
       </c>
       <c r="C385" t="s">
-        <v>986</v>
+        <v>1006</v>
       </c>
       <c r="D385">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E385" s="1">
         <v>0.6</v>
       </c>
-      <c r="G385" t="s">
-        <v>1047</v>
-      </c>
       <c r="K385" t="str">
         <f>IF(NOT(OR(F385="", G385="")),"Yes","")</f>
         <v/>
@@ -17559,16 +17562,16 @@
     </row>
     <row r="386" spans="1:14">
       <c r="A386">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="B386" t="s">
-        <v>1005</v>
+        <v>1030</v>
       </c>
       <c r="C386" t="s">
-        <v>1006</v>
+        <v>1031</v>
       </c>
       <c r="D386">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E386" s="1">
         <v>0.6</v>
@@ -17591,20 +17594,20 @@
       </c>
     </row>
     <row r="387" spans="1:14">
-      <c r="A387">
-        <v>526</v>
+      <c r="A387" s="2">
+        <v>143</v>
       </c>
       <c r="B387" t="s">
-        <v>1030</v>
+        <v>287</v>
       </c>
       <c r="C387" t="s">
-        <v>1031</v>
+        <v>288</v>
       </c>
       <c r="D387">
-        <v>175</v>
+        <v>1635</v>
       </c>
       <c r="E387" s="1">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="K387" t="str">
         <f>IF(NOT(OR(F387="", G387="")),"Yes","")</f>
@@ -17625,16 +17628,16 @@
     </row>
     <row r="388" spans="1:14">
       <c r="A388" s="2">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B388" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="C388" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="D388">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="E388" s="1">
         <v>0.65</v>
@@ -17694,20 +17697,23 @@
     </row>
     <row r="390" spans="1:14">
       <c r="A390" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B390" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C390" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D390">
-        <v>1632</v>
+        <v>1597</v>
       </c>
       <c r="E390" s="1">
         <v>0.65</v>
       </c>
+      <c r="I390" t="s">
+        <v>1049</v>
+      </c>
       <c r="K390" t="str">
         <f>IF(NOT(OR(F390="", G390="")),"Yes","")</f>
         <v/>
@@ -17727,23 +17733,20 @@
     </row>
     <row r="391" spans="1:14">
       <c r="A391" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B391" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C391" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D391">
-        <v>1597</v>
+        <v>1654</v>
       </c>
       <c r="E391" s="1">
         <v>0.65</v>
       </c>
-      <c r="I391" t="s">
-        <v>1049</v>
-      </c>
       <c r="K391" t="str">
         <f>IF(NOT(OR(F391="", G391="")),"Yes","")</f>
         <v/>
@@ -17763,20 +17766,23 @@
     </row>
     <row r="392" spans="1:14">
       <c r="A392" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B392" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C392" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D392">
-        <v>1654</v>
+        <v>1690</v>
       </c>
       <c r="E392" s="1">
         <v>0.65</v>
       </c>
+      <c r="G392" t="s">
+        <v>1047</v>
+      </c>
       <c r="K392" t="str">
         <f>IF(NOT(OR(F392="", G392="")),"Yes","")</f>
         <v/>
@@ -17796,23 +17802,20 @@
     </row>
     <row r="393" spans="1:14">
       <c r="A393" s="2">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B393" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="C393" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="D393">
-        <v>1690</v>
+        <v>1709</v>
       </c>
       <c r="E393" s="1">
         <v>0.65</v>
       </c>
-      <c r="G393" t="s">
-        <v>1047</v>
-      </c>
       <c r="K393" t="str">
         <f>IF(NOT(OR(F393="", G393="")),"Yes","")</f>
         <v/>
@@ -17832,20 +17835,26 @@
     </row>
     <row r="394" spans="1:14">
       <c r="A394" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B394" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C394" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D394">
-        <v>1709</v>
+        <v>1721</v>
       </c>
       <c r="E394" s="1">
         <v>0.65</v>
       </c>
+      <c r="I394" t="s">
+        <v>1049</v>
+      </c>
+      <c r="J394" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="K394" t="str">
         <f>IF(NOT(OR(F394="", G394="")),"Yes","")</f>
         <v/>
@@ -17865,26 +17874,20 @@
     </row>
     <row r="395" spans="1:14">
       <c r="A395" s="2">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="B395" t="s">
-        <v>342</v>
+        <v>391</v>
       </c>
       <c r="C395" t="s">
-        <v>343</v>
+        <v>392</v>
       </c>
       <c r="D395">
-        <v>1721</v>
+        <v>1635</v>
       </c>
       <c r="E395" s="1">
         <v>0.65</v>
       </c>
-      <c r="I395" t="s">
-        <v>1049</v>
-      </c>
-      <c r="J395" s="4" t="s">
-        <v>1050</v>
-      </c>
       <c r="K395" t="str">
         <f>IF(NOT(OR(F395="", G395="")),"Yes","")</f>
         <v/>
@@ -17903,21 +17906,24 @@
       </c>
     </row>
     <row r="396" spans="1:14">
-      <c r="A396" s="2">
-        <v>196</v>
+      <c r="A396">
+        <v>201</v>
       </c>
       <c r="B396" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="C396" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="D396">
-        <v>1635</v>
+        <v>1470</v>
       </c>
       <c r="E396" s="1">
         <v>0.65</v>
       </c>
+      <c r="J396" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="K396" t="str">
         <f>IF(NOT(OR(F396="", G396="")),"Yes","")</f>
         <v/>
@@ -17937,23 +17943,20 @@
     </row>
     <row r="397" spans="1:14">
       <c r="A397">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="B397" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="C397" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="D397">
-        <v>1470</v>
+        <v>1401</v>
       </c>
       <c r="E397" s="1">
         <v>0.65</v>
       </c>
-      <c r="J397" s="4" t="s">
-        <v>1050</v>
-      </c>
       <c r="K397" t="str">
         <f>IF(NOT(OR(F397="", G397="")),"Yes","")</f>
         <v/>
@@ -17973,16 +17976,16 @@
     </row>
     <row r="398" spans="1:14">
       <c r="A398">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B398" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C398" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="D398">
-        <v>1401</v>
+        <v>1224</v>
       </c>
       <c r="E398" s="1">
         <v>0.65</v>
@@ -18006,20 +18009,23 @@
     </row>
     <row r="399" spans="1:14">
       <c r="A399">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B399" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C399" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D399">
-        <v>1224</v>
+        <v>1419</v>
       </c>
       <c r="E399" s="1">
         <v>0.65</v>
       </c>
+      <c r="G399" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K399" t="str">
         <f>IF(NOT(OR(F399="", G399="")),"Yes","")</f>
         <v/>
@@ -18039,23 +18045,20 @@
     </row>
     <row r="400" spans="1:14">
       <c r="A400">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B400" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="C400" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="D400">
-        <v>1419</v>
+        <v>1181</v>
       </c>
       <c r="E400" s="1">
         <v>0.65</v>
       </c>
-      <c r="G400" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K400" t="str">
         <f>IF(NOT(OR(F400="", G400="")),"Yes","")</f>
         <v/>
@@ -18075,16 +18078,16 @@
     </row>
     <row r="401" spans="1:14">
       <c r="A401">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="B401" t="s">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="C401" t="s">
-        <v>456</v>
+        <v>486</v>
       </c>
       <c r="D401">
-        <v>1181</v>
+        <v>1004</v>
       </c>
       <c r="E401" s="1">
         <v>0.65</v>
@@ -18108,16 +18111,16 @@
     </row>
     <row r="402" spans="1:14">
       <c r="A402">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="B402" t="s">
-        <v>485</v>
+        <v>536</v>
       </c>
       <c r="C402" t="s">
-        <v>486</v>
+        <v>537</v>
       </c>
       <c r="D402">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="E402" s="1">
         <v>0.65</v>
@@ -18141,16 +18144,16 @@
     </row>
     <row r="403" spans="1:14">
       <c r="A403">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B403" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="C403" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="D403">
-        <v>997</v>
+        <v>680</v>
       </c>
       <c r="E403" s="1">
         <v>0.65</v>
@@ -18174,16 +18177,16 @@
     </row>
     <row r="404" spans="1:14">
       <c r="A404">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="B404" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
       <c r="C404" t="s">
-        <v>549</v>
+        <v>572</v>
       </c>
       <c r="D404">
-        <v>680</v>
+        <v>403</v>
       </c>
       <c r="E404" s="1">
         <v>0.65</v>
@@ -18207,16 +18210,16 @@
     </row>
     <row r="405" spans="1:14">
       <c r="A405">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="B405" t="s">
-        <v>571</v>
+        <v>654</v>
       </c>
       <c r="C405" t="s">
-        <v>572</v>
+        <v>655</v>
       </c>
       <c r="D405">
-        <v>403</v>
+        <v>310</v>
       </c>
       <c r="E405" s="1">
         <v>0.65</v>
@@ -18240,16 +18243,16 @@
     </row>
     <row r="406" spans="1:14">
       <c r="A406">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B406" t="s">
         <v>654</v>
       </c>
       <c r="C406" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D406">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="E406" s="1">
         <v>0.65</v>
@@ -18273,16 +18276,16 @@
     </row>
     <row r="407" spans="1:14">
       <c r="A407">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="B407" t="s">
-        <v>654</v>
+        <v>689</v>
       </c>
       <c r="C407" t="s">
-        <v>656</v>
+        <v>690</v>
       </c>
       <c r="D407">
-        <v>334</v>
+        <v>263</v>
       </c>
       <c r="E407" s="1">
         <v>0.65</v>
@@ -18306,16 +18309,16 @@
     </row>
     <row r="408" spans="1:14">
       <c r="A408">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="B408" t="s">
-        <v>689</v>
+        <v>721</v>
       </c>
       <c r="C408" t="s">
-        <v>690</v>
+        <v>722</v>
       </c>
       <c r="D408">
-        <v>263</v>
+        <v>350</v>
       </c>
       <c r="E408" s="1">
         <v>0.65</v>
@@ -18339,16 +18342,16 @@
     </row>
     <row r="409" spans="1:14">
       <c r="A409">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="B409" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
       <c r="C409" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
       <c r="D409">
-        <v>350</v>
+        <v>239</v>
       </c>
       <c r="E409" s="1">
         <v>0.65</v>
@@ -18372,20 +18375,23 @@
     </row>
     <row r="410" spans="1:14">
       <c r="A410">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="B410" t="s">
-        <v>749</v>
+        <v>847</v>
       </c>
       <c r="C410" t="s">
-        <v>750</v>
+        <v>848</v>
       </c>
       <c r="D410">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="E410" s="1">
         <v>0.65</v>
       </c>
+      <c r="G410" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K410" t="str">
         <f>IF(NOT(OR(F410="", G410="")),"Yes","")</f>
         <v/>
@@ -18405,23 +18411,20 @@
     </row>
     <row r="411" spans="1:14">
       <c r="A411">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="B411" t="s">
-        <v>847</v>
+        <v>863</v>
       </c>
       <c r="C411" t="s">
-        <v>848</v>
+        <v>864</v>
       </c>
       <c r="D411">
-        <v>283</v>
+        <v>209</v>
       </c>
       <c r="E411" s="1">
         <v>0.65</v>
       </c>
-      <c r="G411" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K411" t="str">
         <f>IF(NOT(OR(F411="", G411="")),"Yes","")</f>
         <v/>
@@ -18441,16 +18444,16 @@
     </row>
     <row r="412" spans="1:14">
       <c r="A412">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="B412" t="s">
-        <v>863</v>
+        <v>911</v>
       </c>
       <c r="C412" t="s">
-        <v>864</v>
+        <v>912</v>
       </c>
       <c r="D412">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="E412" s="1">
         <v>0.65</v>
@@ -18474,16 +18477,16 @@
     </row>
     <row r="413" spans="1:14">
       <c r="A413">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B413" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="C413" t="s">
-        <v>912</v>
+        <v>920</v>
       </c>
       <c r="D413">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="E413" s="1">
         <v>0.65</v>
@@ -18507,16 +18510,16 @@
     </row>
     <row r="414" spans="1:14">
       <c r="A414">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="B414" t="s">
-        <v>919</v>
+        <v>933</v>
       </c>
       <c r="C414" t="s">
-        <v>920</v>
+        <v>934</v>
       </c>
       <c r="D414">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="E414" s="1">
         <v>0.65</v>
@@ -18540,16 +18543,16 @@
     </row>
     <row r="415" spans="1:14">
       <c r="A415">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B415" t="s">
-        <v>933</v>
+        <v>942</v>
       </c>
       <c r="C415" t="s">
-        <v>934</v>
+        <v>943</v>
       </c>
       <c r="D415">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E415" s="1">
         <v>0.65</v>
@@ -18572,20 +18575,20 @@
       </c>
     </row>
     <row r="416" spans="1:14">
-      <c r="A416">
-        <v>481</v>
+      <c r="A416" s="2">
+        <v>156</v>
       </c>
       <c r="B416" t="s">
-        <v>942</v>
+        <v>312</v>
       </c>
       <c r="C416" t="s">
-        <v>943</v>
+        <v>313</v>
       </c>
       <c r="D416">
-        <v>138</v>
+        <v>1464</v>
       </c>
       <c r="E416" s="1">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="K416" t="str">
         <f>IF(NOT(OR(F416="", G416="")),"Yes","")</f>
@@ -18606,16 +18609,16 @@
     </row>
     <row r="417" spans="1:14">
       <c r="A417" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B417" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="C417" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="D417">
-        <v>1464</v>
+        <v>1303</v>
       </c>
       <c r="E417" s="1">
         <v>0.7</v>
@@ -18639,20 +18642,26 @@
     </row>
     <row r="418" spans="1:14">
       <c r="A418" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B418" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C418" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D418">
-        <v>1303</v>
+        <v>1168</v>
       </c>
       <c r="E418" s="1">
         <v>0.7</v>
       </c>
+      <c r="G418" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="J418" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="K418" t="str">
         <f>IF(NOT(OR(F418="", G418="")),"Yes","")</f>
         <v/>
@@ -18672,26 +18681,20 @@
     </row>
     <row r="419" spans="1:14">
       <c r="A419" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B419" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="C419" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="D419">
-        <v>1168</v>
+        <v>1231</v>
       </c>
       <c r="E419" s="1">
         <v>0.7</v>
       </c>
-      <c r="G419" s="4" t="s">
-        <v>1047</v>
-      </c>
-      <c r="J419" s="4" t="s">
-        <v>1050</v>
-      </c>
       <c r="K419" t="str">
         <f>IF(NOT(OR(F419="", G419="")),"Yes","")</f>
         <v/>
@@ -18711,16 +18714,16 @@
     </row>
     <row r="420" spans="1:14">
       <c r="A420" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B420" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="C420" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="D420">
-        <v>1231</v>
+        <v>1155</v>
       </c>
       <c r="E420" s="1">
         <v>0.7</v>
@@ -18744,16 +18747,16 @@
     </row>
     <row r="421" spans="1:14">
       <c r="A421" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B421" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C421" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D421">
-        <v>1155</v>
+        <v>1227</v>
       </c>
       <c r="E421" s="1">
         <v>0.7</v>
@@ -18777,20 +18780,23 @@
     </row>
     <row r="422" spans="1:14">
       <c r="A422" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B422" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C422" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="D422">
-        <v>1227</v>
+        <v>1249</v>
       </c>
       <c r="E422" s="1">
         <v>0.7</v>
       </c>
+      <c r="G422" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K422" t="str">
         <f>IF(NOT(OR(F422="", G422="")),"Yes","")</f>
         <v/>
@@ -18810,22 +18816,22 @@
     </row>
     <row r="423" spans="1:14">
       <c r="A423" s="2">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B423" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="C423" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="D423">
-        <v>1249</v>
+        <v>1301</v>
       </c>
       <c r="E423" s="1">
         <v>0.7</v>
       </c>
-      <c r="G423" s="4" t="s">
-        <v>1047</v>
+      <c r="J423" s="4" t="s">
+        <v>1050</v>
       </c>
       <c r="K423" t="str">
         <f>IF(NOT(OR(F423="", G423="")),"Yes","")</f>
@@ -18846,22 +18852,22 @@
     </row>
     <row r="424" spans="1:14">
       <c r="A424" s="2">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B424" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="C424" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="D424">
-        <v>1301</v>
+        <v>1189</v>
       </c>
       <c r="E424" s="1">
         <v>0.7</v>
       </c>
-      <c r="J424" s="4" t="s">
-        <v>1050</v>
+      <c r="G424" s="4" t="s">
+        <v>1047</v>
       </c>
       <c r="K424" t="str">
         <f>IF(NOT(OR(F424="", G424="")),"Yes","")</f>
@@ -18881,24 +18887,21 @@
       </c>
     </row>
     <row r="425" spans="1:14">
-      <c r="A425" s="2">
-        <v>199</v>
+      <c r="A425">
+        <v>208</v>
       </c>
       <c r="B425" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="C425" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="D425">
-        <v>1189</v>
+        <v>1144</v>
       </c>
       <c r="E425" s="1">
         <v>0.7</v>
       </c>
-      <c r="G425" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K425" t="str">
         <f>IF(NOT(OR(F425="", G425="")),"Yes","")</f>
         <v/>
@@ -18918,20 +18921,23 @@
     </row>
     <row r="426" spans="1:14">
       <c r="A426">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B426" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C426" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D426">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="E426" s="1">
         <v>0.7</v>
       </c>
+      <c r="I426" t="s">
+        <v>1049</v>
+      </c>
       <c r="K426" t="str">
         <f>IF(NOT(OR(F426="", G426="")),"Yes","")</f>
         <v/>
@@ -18951,23 +18957,20 @@
     </row>
     <row r="427" spans="1:14">
       <c r="A427">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B427" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C427" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D427">
-        <v>1145</v>
+        <v>934</v>
       </c>
       <c r="E427" s="1">
         <v>0.7</v>
       </c>
-      <c r="I427" t="s">
-        <v>1049</v>
-      </c>
       <c r="K427" t="str">
         <f>IF(NOT(OR(F427="", G427="")),"Yes","")</f>
         <v/>
@@ -18987,16 +18990,16 @@
     </row>
     <row r="428" spans="1:14">
       <c r="A428">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B428" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="C428" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="D428">
-        <v>934</v>
+        <v>983</v>
       </c>
       <c r="E428" s="1">
         <v>0.7</v>
@@ -19020,20 +19023,23 @@
     </row>
     <row r="429" spans="1:14">
       <c r="A429">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B429" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C429" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D429">
-        <v>983</v>
+        <v>1041</v>
       </c>
       <c r="E429" s="1">
         <v>0.7</v>
       </c>
+      <c r="J429" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="K429" t="str">
         <f>IF(NOT(OR(F429="", G429="")),"Yes","")</f>
         <v/>
@@ -19053,20 +19059,23 @@
     </row>
     <row r="430" spans="1:14">
       <c r="A430">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B430" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C430" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="D430">
-        <v>1041</v>
+        <v>949</v>
       </c>
       <c r="E430" s="1">
         <v>0.7</v>
       </c>
+      <c r="G430" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="J430" s="4" t="s">
         <v>1050</v>
       </c>
@@ -19089,26 +19098,20 @@
     </row>
     <row r="431" spans="1:14">
       <c r="A431">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B431" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="C431" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="D431">
-        <v>949</v>
+        <v>915</v>
       </c>
       <c r="E431" s="1">
         <v>0.7</v>
       </c>
-      <c r="G431" s="4" t="s">
-        <v>1047</v>
-      </c>
-      <c r="J431" s="4" t="s">
-        <v>1050</v>
-      </c>
       <c r="K431" t="str">
         <f>IF(NOT(OR(F431="", G431="")),"Yes","")</f>
         <v/>
@@ -19128,20 +19131,23 @@
     </row>
     <row r="432" spans="1:14">
       <c r="A432">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B432" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C432" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D432">
-        <v>915</v>
+        <v>992</v>
       </c>
       <c r="E432" s="1">
         <v>0.7</v>
       </c>
+      <c r="G432" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K432" t="str">
         <f>IF(NOT(OR(F432="", G432="")),"Yes","")</f>
         <v/>
@@ -19161,16 +19167,16 @@
     </row>
     <row r="433" spans="1:14">
       <c r="A433">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B433" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="C433" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="D433">
-        <v>992</v>
+        <v>1387</v>
       </c>
       <c r="E433" s="1">
         <v>0.7</v>
@@ -19178,6 +19184,9 @@
       <c r="G433" s="4" t="s">
         <v>1047</v>
       </c>
+      <c r="H433" t="s">
+        <v>1048</v>
+      </c>
       <c r="K433" t="str">
         <f>IF(NOT(OR(F433="", G433="")),"Yes","")</f>
         <v/>
@@ -19197,26 +19206,20 @@
     </row>
     <row r="434" spans="1:14">
       <c r="A434">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B434" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="C434" t="s">
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="D434">
-        <v>1387</v>
+        <v>873</v>
       </c>
       <c r="E434" s="1">
         <v>0.7</v>
       </c>
-      <c r="G434" s="4" t="s">
-        <v>1047</v>
-      </c>
-      <c r="H434" t="s">
-        <v>1048</v>
-      </c>
       <c r="K434" t="str">
         <f>IF(NOT(OR(F434="", G434="")),"Yes","")</f>
         <v/>
@@ -19236,16 +19239,16 @@
     </row>
     <row r="435" spans="1:14">
       <c r="A435">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B435" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="C435" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D435">
-        <v>873</v>
+        <v>851</v>
       </c>
       <c r="E435" s="1">
         <v>0.7</v>
@@ -19269,20 +19272,23 @@
     </row>
     <row r="436" spans="1:14">
       <c r="A436">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B436" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C436" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="D436">
-        <v>851</v>
+        <v>879</v>
       </c>
       <c r="E436" s="1">
         <v>0.7</v>
       </c>
+      <c r="G436" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K436" t="str">
         <f>IF(NOT(OR(F436="", G436="")),"Yes","")</f>
         <v/>
@@ -19302,23 +19308,20 @@
     </row>
     <row r="437" spans="1:14">
       <c r="A437">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B437" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="C437" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="D437">
-        <v>879</v>
+        <v>963</v>
       </c>
       <c r="E437" s="1">
         <v>0.7</v>
       </c>
-      <c r="G437" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K437" t="str">
         <f>IF(NOT(OR(F437="", G437="")),"Yes","")</f>
         <v/>
@@ -19338,16 +19341,16 @@
     </row>
     <row r="438" spans="1:14">
       <c r="A438">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B438" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C438" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D438">
-        <v>963</v>
+        <v>880</v>
       </c>
       <c r="E438" s="1">
         <v>0.7</v>
@@ -19371,20 +19374,23 @@
     </row>
     <row r="439" spans="1:14">
       <c r="A439">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="B439" t="s">
-        <v>509</v>
+        <v>534</v>
       </c>
       <c r="C439" t="s">
-        <v>510</v>
+        <v>535</v>
       </c>
       <c r="D439">
-        <v>880</v>
+        <v>892</v>
       </c>
       <c r="E439" s="1">
         <v>0.7</v>
       </c>
+      <c r="J439" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="K439" t="str">
         <f>IF(NOT(OR(F439="", G439="")),"Yes","")</f>
         <v/>
@@ -19404,23 +19410,20 @@
     </row>
     <row r="440" spans="1:14">
       <c r="A440">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B440" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="C440" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="D440">
-        <v>892</v>
+        <v>647</v>
       </c>
       <c r="E440" s="1">
         <v>0.7</v>
       </c>
-      <c r="J440" s="4" t="s">
-        <v>1050</v>
-      </c>
       <c r="K440" t="str">
         <f>IF(NOT(OR(F440="", G440="")),"Yes","")</f>
         <v/>
@@ -19440,20 +19443,26 @@
     </row>
     <row r="441" spans="1:14">
       <c r="A441">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B441" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C441" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D441">
-        <v>647</v>
+        <v>451</v>
       </c>
       <c r="E441" s="1">
         <v>0.7</v>
       </c>
+      <c r="G441" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="J441" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="K441" t="str">
         <f>IF(NOT(OR(F441="", G441="")),"Yes","")</f>
         <v/>
@@ -19473,16 +19482,16 @@
     </row>
     <row r="442" spans="1:14">
       <c r="A442">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="B442" t="s">
-        <v>554</v>
+        <v>609</v>
       </c>
       <c r="C442" t="s">
-        <v>555</v>
+        <v>610</v>
       </c>
       <c r="D442">
-        <v>451</v>
+        <v>304</v>
       </c>
       <c r="E442" s="1">
         <v>0.7</v>
@@ -19490,9 +19499,6 @@
       <c r="G442" s="4" t="s">
         <v>1047</v>
       </c>
-      <c r="J442" s="4" t="s">
-        <v>1050</v>
-      </c>
       <c r="K442" t="str">
         <f>IF(NOT(OR(F442="", G442="")),"Yes","")</f>
         <v/>
@@ -19512,23 +19518,20 @@
     </row>
     <row r="443" spans="1:14">
       <c r="A443">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="B443" t="s">
-        <v>609</v>
+        <v>630</v>
       </c>
       <c r="C443" t="s">
-        <v>610</v>
+        <v>631</v>
       </c>
       <c r="D443">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E443" s="1">
         <v>0.7</v>
       </c>
-      <c r="G443" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K443" t="str">
         <f>IF(NOT(OR(F443="", G443="")),"Yes","")</f>
         <v/>
@@ -19548,16 +19551,16 @@
     </row>
     <row r="444" spans="1:14">
       <c r="A444">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B444" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="C444" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="D444">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="E444" s="1">
         <v>0.7</v>
@@ -19581,20 +19584,23 @@
     </row>
     <row r="445" spans="1:14">
       <c r="A445">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B445" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="C445" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="D445">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="E445" s="1">
         <v>0.7</v>
       </c>
+      <c r="G445" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K445" t="str">
         <f>IF(NOT(OR(F445="", G445="")),"Yes","")</f>
         <v/>
@@ -19614,22 +19620,22 @@
     </row>
     <row r="446" spans="1:14">
       <c r="A446">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B446" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C446" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="D446">
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="E446" s="1">
         <v>0.7</v>
       </c>
-      <c r="G446" s="4" t="s">
-        <v>1047</v>
+      <c r="J446" s="4" t="s">
+        <v>1050</v>
       </c>
       <c r="K446" t="str">
         <f>IF(NOT(OR(F446="", G446="")),"Yes","")</f>
@@ -19650,23 +19656,20 @@
     </row>
     <row r="447" spans="1:14">
       <c r="A447">
+        <v>355</v>
+      </c>
+      <c r="B447" t="s">
+        <v>691</v>
+      </c>
+      <c r="C447" t="s">
+        <v>692</v>
+      </c>
+      <c r="D447">
         <v>339</v>
-      </c>
-      <c r="B447" t="s">
-        <v>663</v>
-      </c>
-      <c r="C447" t="s">
-        <v>664</v>
-      </c>
-      <c r="D447">
-        <v>375</v>
       </c>
       <c r="E447" s="1">
         <v>0.7</v>
       </c>
-      <c r="J447" s="4" t="s">
-        <v>1050</v>
-      </c>
       <c r="K447" t="str">
         <f>IF(NOT(OR(F447="", G447="")),"Yes","")</f>
         <v/>
@@ -19686,16 +19689,16 @@
     </row>
     <row r="448" spans="1:14">
       <c r="A448">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B448" t="s">
-        <v>691</v>
+        <v>705</v>
       </c>
       <c r="C448" t="s">
-        <v>692</v>
+        <v>706</v>
       </c>
       <c r="D448">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="E448" s="1">
         <v>0.7</v>
@@ -19719,16 +19722,16 @@
     </row>
     <row r="449" spans="1:14">
       <c r="A449">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="B449" t="s">
-        <v>705</v>
+        <v>733</v>
       </c>
       <c r="C449" t="s">
-        <v>706</v>
+        <v>734</v>
       </c>
       <c r="D449">
-        <v>309</v>
+        <v>188</v>
       </c>
       <c r="E449" s="1">
         <v>0.7</v>
@@ -19752,20 +19755,23 @@
     </row>
     <row r="450" spans="1:14">
       <c r="A450">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B450" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="C450" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="D450">
-        <v>188</v>
+        <v>307</v>
       </c>
       <c r="E450" s="1">
         <v>0.7</v>
       </c>
+      <c r="G450" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K450" t="str">
         <f>IF(NOT(OR(F450="", G450="")),"Yes","")</f>
         <v/>
@@ -19785,22 +19791,22 @@
     </row>
     <row r="451" spans="1:14">
       <c r="A451">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B451" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="C451" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="D451">
-        <v>307</v>
+        <v>193</v>
       </c>
       <c r="E451" s="1">
         <v>0.7</v>
       </c>
-      <c r="G451" s="4" t="s">
-        <v>1047</v>
+      <c r="J451" s="4" t="s">
+        <v>1050</v>
       </c>
       <c r="K451" t="str">
         <f>IF(NOT(OR(F451="", G451="")),"Yes","")</f>
@@ -19821,22 +19827,22 @@
     </row>
     <row r="452" spans="1:14">
       <c r="A452">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="B452" t="s">
-        <v>751</v>
+        <v>775</v>
       </c>
       <c r="C452" t="s">
-        <v>752</v>
+        <v>776</v>
       </c>
       <c r="D452">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="E452" s="1">
         <v>0.7</v>
       </c>
-      <c r="J452" s="4" t="s">
-        <v>1050</v>
+      <c r="G452" s="4" t="s">
+        <v>1047</v>
       </c>
       <c r="K452" t="str">
         <f>IF(NOT(OR(F452="", G452="")),"Yes","")</f>
@@ -19857,23 +19863,20 @@
     </row>
     <row r="453" spans="1:14">
       <c r="A453">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="B453" t="s">
-        <v>775</v>
+        <v>801</v>
       </c>
       <c r="C453" t="s">
-        <v>776</v>
+        <v>802</v>
       </c>
       <c r="D453">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E453" s="1">
         <v>0.7</v>
       </c>
-      <c r="G453" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K453" t="str">
         <f>IF(NOT(OR(F453="", G453="")),"Yes","")</f>
         <v/>
@@ -19893,16 +19896,16 @@
     </row>
     <row r="454" spans="1:14">
       <c r="A454">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="B454" t="s">
-        <v>801</v>
+        <v>845</v>
       </c>
       <c r="C454" t="s">
-        <v>802</v>
+        <v>846</v>
       </c>
       <c r="D454">
-        <v>169</v>
+        <v>250</v>
       </c>
       <c r="E454" s="1">
         <v>0.7</v>
@@ -19926,16 +19929,16 @@
     </row>
     <row r="455" spans="1:14">
       <c r="A455">
-        <v>432</v>
+        <v>468</v>
       </c>
       <c r="B455" t="s">
-        <v>845</v>
+        <v>915</v>
       </c>
       <c r="C455" t="s">
-        <v>846</v>
+        <v>916</v>
       </c>
       <c r="D455">
-        <v>250</v>
+        <v>149</v>
       </c>
       <c r="E455" s="1">
         <v>0.7</v>
@@ -19959,16 +19962,16 @@
     </row>
     <row r="456" spans="1:14">
       <c r="A456">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="B456" t="s">
-        <v>915</v>
+        <v>952</v>
       </c>
       <c r="C456" t="s">
-        <v>916</v>
+        <v>953</v>
       </c>
       <c r="D456">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E456" s="1">
         <v>0.7</v>
@@ -19992,16 +19995,16 @@
     </row>
     <row r="457" spans="1:14">
       <c r="A457">
-        <v>486</v>
+        <v>524</v>
       </c>
       <c r="B457" t="s">
-        <v>952</v>
+        <v>1025</v>
       </c>
       <c r="C457" t="s">
-        <v>953</v>
+        <v>1027</v>
       </c>
       <c r="D457">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E457" s="1">
         <v>0.7</v>
@@ -20024,20 +20027,23 @@
       </c>
     </row>
     <row r="458" spans="1:14">
-      <c r="A458">
-        <v>524</v>
+      <c r="A458" s="2">
+        <v>167</v>
       </c>
       <c r="B458" t="s">
-        <v>1025</v>
+        <v>334</v>
       </c>
       <c r="C458" t="s">
-        <v>1027</v>
+        <v>335</v>
       </c>
       <c r="D458">
-        <v>120</v>
+        <v>1063</v>
       </c>
       <c r="E458" s="1">
-        <v>0.7</v>
+        <v>0.75</v>
+      </c>
+      <c r="G458" s="4" t="s">
+        <v>1047</v>
       </c>
       <c r="K458" t="str">
         <f>IF(NOT(OR(F458="", G458="")),"Yes","")</f>
@@ -20058,23 +20064,20 @@
     </row>
     <row r="459" spans="1:14">
       <c r="A459" s="2">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="B459" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="C459" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D459">
-        <v>1063</v>
+        <v>980</v>
       </c>
       <c r="E459" s="1">
         <v>0.75</v>
       </c>
-      <c r="G459" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K459" t="str">
         <f>IF(NOT(OR(F459="", G459="")),"Yes","")</f>
         <v/>
@@ -20094,16 +20097,16 @@
     </row>
     <row r="460" spans="1:14">
       <c r="A460" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B460" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C460" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="D460">
-        <v>980</v>
+        <v>1026</v>
       </c>
       <c r="E460" s="1">
         <v>0.75</v>
@@ -20127,16 +20130,16 @@
     </row>
     <row r="461" spans="1:14">
       <c r="A461" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B461" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="C461" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="D461">
-        <v>1026</v>
+        <v>980</v>
       </c>
       <c r="E461" s="1">
         <v>0.75</v>
@@ -20160,16 +20163,16 @@
     </row>
     <row r="462" spans="1:14">
       <c r="A462" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B462" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C462" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D462">
-        <v>980</v>
+        <v>872</v>
       </c>
       <c r="E462" s="1">
         <v>0.75</v>
@@ -20193,20 +20196,23 @@
     </row>
     <row r="463" spans="1:14">
       <c r="A463" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B463" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C463" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D463">
-        <v>872</v>
+        <v>823</v>
       </c>
       <c r="E463" s="1">
         <v>0.75</v>
       </c>
+      <c r="J463" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="K463" t="str">
         <f>IF(NOT(OR(F463="", G463="")),"Yes","")</f>
         <v/>
@@ -20225,24 +20231,21 @@
       </c>
     </row>
     <row r="464" spans="1:14">
-      <c r="A464" s="2">
-        <v>195</v>
+      <c r="A464">
+        <v>224</v>
       </c>
       <c r="B464" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="C464" t="s">
-        <v>390</v>
+        <v>441</v>
       </c>
       <c r="D464">
-        <v>823</v>
+        <v>780</v>
       </c>
       <c r="E464" s="1">
         <v>0.75</v>
       </c>
-      <c r="J464" s="4" t="s">
-        <v>1050</v>
-      </c>
       <c r="K464" t="str">
         <f>IF(NOT(OR(F464="", G464="")),"Yes","")</f>
         <v/>
@@ -20262,16 +20265,16 @@
     </row>
     <row r="465" spans="1:14">
       <c r="A465">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="B465" t="s">
-        <v>439</v>
+        <v>467</v>
       </c>
       <c r="C465" t="s">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="D465">
-        <v>780</v>
+        <v>668</v>
       </c>
       <c r="E465" s="1">
         <v>0.75</v>
@@ -20295,16 +20298,16 @@
     </row>
     <row r="466" spans="1:14">
       <c r="A466">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B466" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="C466" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="D466">
-        <v>668</v>
+        <v>708</v>
       </c>
       <c r="E466" s="1">
         <v>0.75</v>
@@ -20328,20 +20331,23 @@
     </row>
     <row r="467" spans="1:14">
       <c r="A467">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B467" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="C467" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="D467">
-        <v>708</v>
+        <v>681</v>
       </c>
       <c r="E467" s="1">
         <v>0.75</v>
       </c>
+      <c r="I467" t="s">
+        <v>1049</v>
+      </c>
       <c r="K467" t="str">
         <f>IF(NOT(OR(F467="", G467="")),"Yes","")</f>
         <v/>
@@ -20361,23 +20367,20 @@
     </row>
     <row r="468" spans="1:14">
       <c r="A468">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B468" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C468" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D468">
-        <v>681</v>
+        <v>647</v>
       </c>
       <c r="E468" s="1">
         <v>0.75</v>
       </c>
-      <c r="I468" t="s">
-        <v>1049</v>
-      </c>
       <c r="K468" t="str">
         <f>IF(NOT(OR(F468="", G468="")),"Yes","")</f>
         <v/>
@@ -20397,16 +20400,16 @@
     </row>
     <row r="469" spans="1:14">
       <c r="A469">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B469" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C469" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D469">
-        <v>647</v>
+        <v>620</v>
       </c>
       <c r="E469" s="1">
         <v>0.75</v>
@@ -20430,20 +20433,23 @@
     </row>
     <row r="470" spans="1:14">
       <c r="A470">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B470" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="C470" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="D470">
-        <v>620</v>
+        <v>718</v>
       </c>
       <c r="E470" s="1">
         <v>0.75</v>
       </c>
+      <c r="G470" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K470" t="str">
         <f>IF(NOT(OR(F470="", G470="")),"Yes","")</f>
         <v/>
@@ -20463,22 +20469,22 @@
     </row>
     <row r="471" spans="1:14">
       <c r="A471">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="B471" t="s">
-        <v>515</v>
+        <v>540</v>
       </c>
       <c r="C471" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
       <c r="D471">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="E471" s="1">
         <v>0.75</v>
       </c>
-      <c r="G471" s="4" t="s">
-        <v>1047</v>
+      <c r="I471" t="s">
+        <v>1049</v>
       </c>
       <c r="K471" t="str">
         <f>IF(NOT(OR(F471="", G471="")),"Yes","")</f>
@@ -20499,23 +20505,20 @@
     </row>
     <row r="472" spans="1:14">
       <c r="A472">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="B472" t="s">
-        <v>540</v>
+        <v>577</v>
       </c>
       <c r="C472" t="s">
-        <v>541</v>
+        <v>578</v>
       </c>
       <c r="D472">
-        <v>713</v>
+        <v>333</v>
       </c>
       <c r="E472" s="1">
         <v>0.75</v>
       </c>
-      <c r="I472" t="s">
-        <v>1049</v>
-      </c>
       <c r="K472" t="str">
         <f>IF(NOT(OR(F472="", G472="")),"Yes","")</f>
         <v/>
@@ -20535,20 +20538,23 @@
     </row>
     <row r="473" spans="1:14">
       <c r="A473">
-        <v>295</v>
+        <v>373</v>
       </c>
       <c r="B473" t="s">
-        <v>577</v>
+        <v>727</v>
       </c>
       <c r="C473" t="s">
-        <v>578</v>
+        <v>728</v>
       </c>
       <c r="D473">
-        <v>333</v>
+        <v>240</v>
       </c>
       <c r="E473" s="1">
         <v>0.75</v>
       </c>
+      <c r="G473" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K473" t="str">
         <f>IF(NOT(OR(F473="", G473="")),"Yes","")</f>
         <v/>
@@ -20568,22 +20574,22 @@
     </row>
     <row r="474" spans="1:14">
       <c r="A474">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="B474" t="s">
-        <v>727</v>
+        <v>763</v>
       </c>
       <c r="C474" t="s">
-        <v>728</v>
+        <v>764</v>
       </c>
       <c r="D474">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c r="E474" s="1">
         <v>0.75</v>
       </c>
-      <c r="G474" s="4" t="s">
-        <v>1047</v>
+      <c r="J474" s="4" t="s">
+        <v>1050</v>
       </c>
       <c r="K474" t="str">
         <f>IF(NOT(OR(F474="", G474="")),"Yes","")</f>
@@ -20604,23 +20610,20 @@
     </row>
     <row r="475" spans="1:14">
       <c r="A475">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="B475" t="s">
-        <v>763</v>
+        <v>807</v>
       </c>
       <c r="C475" t="s">
-        <v>764</v>
+        <v>808</v>
       </c>
       <c r="D475">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="E475" s="1">
         <v>0.75</v>
       </c>
-      <c r="J475" s="4" t="s">
-        <v>1050</v>
-      </c>
       <c r="K475" t="str">
         <f>IF(NOT(OR(F475="", G475="")),"Yes","")</f>
         <v/>
@@ -20640,16 +20643,16 @@
     </row>
     <row r="476" spans="1:14">
       <c r="A476">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="B476" t="s">
-        <v>807</v>
+        <v>825</v>
       </c>
       <c r="C476" t="s">
-        <v>808</v>
+        <v>826</v>
       </c>
       <c r="D476">
-        <v>238</v>
+        <v>167</v>
       </c>
       <c r="E476" s="1">
         <v>0.75</v>
@@ -20673,16 +20676,16 @@
     </row>
     <row r="477" spans="1:14">
       <c r="A477">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B477" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
       <c r="C477" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="D477">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E477" s="1">
         <v>0.75</v>
@@ -20706,16 +20709,16 @@
     </row>
     <row r="478" spans="1:14">
       <c r="A478">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="B478" t="s">
-        <v>833</v>
+        <v>849</v>
       </c>
       <c r="C478" t="s">
-        <v>834</v>
+        <v>850</v>
       </c>
       <c r="D478">
-        <v>161</v>
+        <v>219</v>
       </c>
       <c r="E478" s="1">
         <v>0.75</v>
@@ -20739,16 +20742,16 @@
     </row>
     <row r="479" spans="1:14">
       <c r="A479">
-        <v>434</v>
+        <v>471</v>
       </c>
       <c r="B479" t="s">
-        <v>849</v>
+        <v>921</v>
       </c>
       <c r="C479" t="s">
-        <v>850</v>
+        <v>922</v>
       </c>
       <c r="D479">
-        <v>219</v>
+        <v>129</v>
       </c>
       <c r="E479" s="1">
         <v>0.75</v>
@@ -20771,20 +20774,20 @@
       </c>
     </row>
     <row r="480" spans="1:14">
-      <c r="A480">
-        <v>471</v>
+      <c r="A480" s="2">
+        <v>177</v>
       </c>
       <c r="B480" t="s">
-        <v>921</v>
+        <v>353</v>
       </c>
       <c r="C480" t="s">
-        <v>922</v>
+        <v>354</v>
       </c>
       <c r="D480">
-        <v>129</v>
+        <v>801</v>
       </c>
       <c r="E480" s="1">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="K480" t="str">
         <f>IF(NOT(OR(F480="", G480="")),"Yes","")</f>
@@ -20805,16 +20808,16 @@
     </row>
     <row r="481" spans="1:14">
       <c r="A481" s="2">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="B481" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="C481" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="D481">
-        <v>801</v>
+        <v>691</v>
       </c>
       <c r="E481" s="1">
         <v>0.8</v>
@@ -20837,17 +20840,17 @@
       </c>
     </row>
     <row r="482" spans="1:14">
-      <c r="A482" s="2">
-        <v>198</v>
+      <c r="A482">
+        <v>236</v>
       </c>
       <c r="B482" t="s">
-        <v>395</v>
+        <v>463</v>
       </c>
       <c r="C482" t="s">
-        <v>396</v>
+        <v>464</v>
       </c>
       <c r="D482">
-        <v>691</v>
+        <v>643</v>
       </c>
       <c r="E482" s="1">
         <v>0.8</v>
@@ -20871,20 +20874,26 @@
     </row>
     <row r="483" spans="1:14">
       <c r="A483">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B483" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="C483" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="D483">
-        <v>643</v>
+        <v>600</v>
       </c>
       <c r="E483" s="1">
         <v>0.8</v>
       </c>
+      <c r="G483" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="J483" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="K483" t="str">
         <f>IF(NOT(OR(F483="", G483="")),"Yes","")</f>
         <v/>
@@ -20904,26 +20913,20 @@
     </row>
     <row r="484" spans="1:14">
       <c r="A484">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B484" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="C484" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="D484">
-        <v>600</v>
+        <v>552</v>
       </c>
       <c r="E484" s="1">
         <v>0.8</v>
       </c>
-      <c r="G484" s="4" t="s">
-        <v>1047</v>
-      </c>
-      <c r="J484" s="4" t="s">
-        <v>1050</v>
-      </c>
       <c r="K484" t="str">
         <f>IF(NOT(OR(F484="", G484="")),"Yes","")</f>
         <v/>
@@ -20943,16 +20946,16 @@
     </row>
     <row r="485" spans="1:14">
       <c r="A485">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B485" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C485" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D485">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="E485" s="1">
         <v>0.8</v>
@@ -20976,16 +20979,16 @@
     </row>
     <row r="486" spans="1:14">
       <c r="A486">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B486" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="C486" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="D486">
-        <v>539</v>
+        <v>581</v>
       </c>
       <c r="E486" s="1">
         <v>0.8</v>
@@ -21009,16 +21012,16 @@
     </row>
     <row r="487" spans="1:14">
       <c r="A487">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B487" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="C487" t="s">
+        <v>502</v>
+      </c>
+      <c r="D487">
         <v>494</v>
-      </c>
-      <c r="D487">
-        <v>581</v>
       </c>
       <c r="E487" s="1">
         <v>0.8</v>
@@ -21042,16 +21045,16 @@
     </row>
     <row r="488" spans="1:14">
       <c r="A488">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B488" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="C488" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="D488">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="E488" s="1">
         <v>0.8</v>
@@ -21075,20 +21078,23 @@
     </row>
     <row r="489" spans="1:14">
       <c r="A489">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="B489" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="C489" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="D489">
-        <v>487</v>
+        <v>462</v>
       </c>
       <c r="E489" s="1">
         <v>0.8</v>
       </c>
+      <c r="G489" s="4" t="s">
+        <v>1047</v>
+      </c>
       <c r="K489" t="str">
         <f>IF(NOT(OR(F489="", G489="")),"Yes","")</f>
         <v/>
@@ -21108,23 +21114,20 @@
     </row>
     <row r="490" spans="1:14">
       <c r="A490">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B490" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C490" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D490">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="E490" s="1">
         <v>0.8</v>
       </c>
-      <c r="G490" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="K490" t="str">
         <f>IF(NOT(OR(F490="", G490="")),"Yes","")</f>
         <v/>
@@ -21144,16 +21147,16 @@
     </row>
     <row r="491" spans="1:14">
       <c r="A491">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B491" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C491" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="D491">
-        <v>452</v>
+        <v>600</v>
       </c>
       <c r="E491" s="1">
         <v>0.8</v>
@@ -21177,16 +21180,16 @@
     </row>
     <row r="492" spans="1:14">
       <c r="A492">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="B492" t="s">
-        <v>531</v>
+        <v>615</v>
       </c>
       <c r="C492" t="s">
-        <v>533</v>
+        <v>616</v>
       </c>
       <c r="D492">
-        <v>600</v>
+        <v>345</v>
       </c>
       <c r="E492" s="1">
         <v>0.8</v>
@@ -21210,20 +21213,23 @@
     </row>
     <row r="493" spans="1:14">
       <c r="A493">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="B493" t="s">
-        <v>615</v>
+        <v>636</v>
       </c>
       <c r="C493" t="s">
-        <v>616</v>
+        <v>637</v>
       </c>
       <c r="D493">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="E493" s="1">
         <v>0.8</v>
       </c>
+      <c r="I493" t="s">
+        <v>1049</v>
+      </c>
       <c r="K493" t="str">
         <f>IF(NOT(OR(F493="", G493="")),"Yes","")</f>
         <v/>
@@ -21243,22 +21249,19 @@
     </row>
     <row r="494" spans="1:14">
       <c r="A494">
-        <v>325</v>
+        <v>416</v>
       </c>
       <c r="B494" t="s">
-        <v>636</v>
+        <v>813</v>
       </c>
       <c r="C494" t="s">
-        <v>637</v>
+        <v>814</v>
       </c>
       <c r="D494">
-        <v>379</v>
+        <v>170</v>
       </c>
       <c r="E494" s="1">
         <v>0.8</v>
-      </c>
-      <c r="I494" t="s">
-        <v>1049</v>
       </c>
       <c r="K494" t="str">
         <f>IF(NOT(OR(F494="", G494="")),"Yes","")</f>
@@ -21315,16 +21318,16 @@
     </row>
     <row r="496" spans="1:14">
       <c r="A496">
-        <v>416</v>
+        <v>448</v>
       </c>
       <c r="B496" t="s">
-        <v>813</v>
+        <v>875</v>
       </c>
       <c r="C496" t="s">
-        <v>814</v>
+        <v>876</v>
       </c>
       <c r="D496">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="E496" s="1">
         <v>0.8</v>
@@ -21348,16 +21351,16 @@
     </row>
     <row r="497" spans="1:14">
       <c r="A497">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="B497" t="s">
-        <v>875</v>
+        <v>956</v>
       </c>
       <c r="C497" t="s">
-        <v>876</v>
+        <v>957</v>
       </c>
       <c r="D497">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="E497" s="1">
         <v>0.8</v>
@@ -21381,19 +21384,22 @@
     </row>
     <row r="498" spans="1:14">
       <c r="A498">
-        <v>488</v>
+        <v>257</v>
       </c>
       <c r="B498" t="s">
-        <v>956</v>
+        <v>503</v>
       </c>
       <c r="C498" t="s">
-        <v>957</v>
+        <v>504</v>
       </c>
       <c r="D498">
-        <v>135</v>
+        <v>444</v>
       </c>
       <c r="E498" s="1">
-        <v>0.8</v>
+        <v>0.85</v>
+      </c>
+      <c r="G498" s="4" t="s">
+        <v>1047</v>
       </c>
       <c r="K498" t="str">
         <f>IF(NOT(OR(F498="", G498="")),"Yes","")</f>
@@ -21414,22 +21420,22 @@
     </row>
     <row r="499" spans="1:14">
       <c r="A499">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B499" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="C499" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="D499">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="E499" s="1">
         <v>0.85</v>
       </c>
-      <c r="G499" s="4" t="s">
-        <v>1047</v>
+      <c r="J499" s="4" t="s">
+        <v>1050</v>
       </c>
       <c r="K499" t="str">
         <f>IF(NOT(OR(F499="", G499="")),"Yes","")</f>
@@ -21450,23 +21456,20 @@
     </row>
     <row r="500" spans="1:14">
       <c r="A500">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B500" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="C500" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="D500">
-        <v>447</v>
+        <v>389</v>
       </c>
       <c r="E500" s="1">
         <v>0.85</v>
       </c>
-      <c r="J500" s="4" t="s">
-        <v>1050</v>
-      </c>
       <c r="K500" t="str">
         <f>IF(NOT(OR(F500="", G500="")),"Yes","")</f>
         <v/>
@@ -21486,16 +21489,16 @@
     </row>
     <row r="501" spans="1:14">
       <c r="A501">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="B501" t="s">
-        <v>517</v>
+        <v>538</v>
       </c>
       <c r="C501" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="D501">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="E501" s="1">
         <v>0.85</v>
@@ -21555,16 +21558,16 @@
     </row>
     <row r="503" spans="1:14">
       <c r="A503">
-        <v>275</v>
+        <v>465</v>
       </c>
       <c r="B503" t="s">
-        <v>538</v>
+        <v>909</v>
       </c>
       <c r="C503" t="s">
-        <v>539</v>
+        <v>910</v>
       </c>
       <c r="D503">
-        <v>412</v>
+        <v>130</v>
       </c>
       <c r="E503" s="1">
         <v>0.85</v>
@@ -21588,16 +21591,16 @@
     </row>
     <row r="504" spans="1:14">
       <c r="A504">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="B504" t="s">
-        <v>909</v>
+        <v>944</v>
       </c>
       <c r="C504" t="s">
-        <v>910</v>
+        <v>945</v>
       </c>
       <c r="D504">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E504" s="1">
         <v>0.85</v>
@@ -21621,16 +21624,16 @@
     </row>
     <row r="505" spans="1:14">
       <c r="A505">
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="B505" t="s">
-        <v>944</v>
+        <v>995</v>
       </c>
       <c r="C505" t="s">
-        <v>945</v>
+        <v>996</v>
       </c>
       <c r="D505">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E505" s="1">
         <v>0.85</v>
@@ -21652,21 +21655,24 @@
         <v/>
       </c>
     </row>
-    <row r="506" spans="1:14">
+    <row r="506" spans="1:14" hidden="1">
       <c r="A506">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B506" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="C506" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="D506">
-        <v>120</v>
+        <v>1196</v>
       </c>
       <c r="E506" s="1">
-        <v>0.85</v>
+        <v>0.15</v>
+      </c>
+      <c r="F506" t="s">
+        <v>7</v>
       </c>
       <c r="K506" t="str">
         <f>IF(NOT(OR(F506="", G506="")),"Yes","")</f>
